--- a/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_18_20.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_18_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-88172.35238659548</v>
+        <v>-89955.25824645878</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6028847.321918214</v>
+        <v>6028847.321918215</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673424</v>
+        <v>603248.4937673436</v>
       </c>
     </row>
     <row r="9">
@@ -1367,10 +1367,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>303.165107859198</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>285.7041579667249</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1379,16 +1379,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>327.3073119374289</v>
+        <v>327.3073119374288</v>
       </c>
       <c r="G11" t="n">
-        <v>332.9594913636452</v>
+        <v>148.473507253497</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>231.4915937356466</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>23.94276850040936</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,22 +1418,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>66.22713566997373</v>
       </c>
       <c r="T11" t="n">
-        <v>126.0369076786585</v>
+        <v>131.3816879599483</v>
       </c>
       <c r="U11" t="n">
-        <v>171.5549581157774</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>248.1835246658524</v>
+        <v>248.1835246658523</v>
       </c>
       <c r="W11" t="n">
-        <v>269.6722349131305</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>290.1623668741865</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>86.96444984558482</v>
+        <v>86.96444984558474</v>
       </c>
       <c r="C12" t="n">
         <v>172.7084989883157</v>
@@ -1455,16 +1455,16 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>78.07634665111834</v>
       </c>
       <c r="F12" t="n">
-        <v>135.8318049835535</v>
+        <v>65.50047858910128</v>
       </c>
       <c r="G12" t="n">
-        <v>56.29028837994822</v>
+        <v>56.29028837994814</v>
       </c>
       <c r="H12" t="n">
-        <v>18.3296141878555</v>
+        <v>96.64986718039229</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1494,28 +1494,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>7.988926598084475</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>64.54059415929284</v>
+        <v>144.1093279635754</v>
       </c>
       <c r="T12" t="n">
-        <v>114.6124383743877</v>
+        <v>114.6124383743876</v>
       </c>
       <c r="U12" t="n">
-        <v>146.2749841333384</v>
+        <v>146.2749841333383</v>
       </c>
       <c r="V12" t="n">
-        <v>153.2318533451428</v>
+        <v>153.2318533451427</v>
       </c>
       <c r="W12" t="n">
-        <v>172.1262493566371</v>
+        <v>172.126249356637</v>
       </c>
       <c r="X12" t="n">
-        <v>126.204251399195</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>126.1139619730218</v>
       </c>
     </row>
     <row r="13">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>100.2632463776548</v>
+        <v>100.2632463776547</v>
       </c>
       <c r="C13" t="n">
-        <v>87.67808729434532</v>
+        <v>87.67808729434523</v>
       </c>
       <c r="D13" t="n">
-        <v>69.04673921392984</v>
+        <v>69.04673921392975</v>
       </c>
       <c r="E13" t="n">
-        <v>66.86522884228665</v>
+        <v>66.86522884228657</v>
       </c>
       <c r="F13" t="n">
-        <v>65.85231421864873</v>
+        <v>65.85231421864864</v>
       </c>
       <c r="G13" t="n">
-        <v>87.17769483121783</v>
+        <v>87.17769483121774</v>
       </c>
       <c r="H13" t="n">
-        <v>71.59325136630865</v>
+        <v>71.59325136630858</v>
       </c>
       <c r="I13" t="n">
-        <v>38.45470665437197</v>
+        <v>38.45470665437189</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>41.76513142968435</v>
+        <v>41.76513142968426</v>
       </c>
       <c r="S13" t="n">
-        <v>122.7587393607691</v>
+        <v>122.758739360769</v>
       </c>
       <c r="T13" t="n">
         <v>143.0592298077221</v>
       </c>
       <c r="U13" t="n">
-        <v>206.6824109673197</v>
+        <v>206.6824109673196</v>
       </c>
       <c r="V13" t="n">
-        <v>172.5689095195455</v>
+        <v>172.5689095195454</v>
       </c>
       <c r="W13" t="n">
-        <v>206.9542645323085</v>
+        <v>206.9542645323084</v>
       </c>
       <c r="X13" t="n">
         <v>146.1409215847546</v>
       </c>
       <c r="Y13" t="n">
-        <v>139.0159195478123</v>
+        <v>139.0159195478122</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>303.1651078591981</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>285.704157966725</v>
+        <v>285.7041579667249</v>
       </c>
       <c r="D14" t="n">
-        <v>275.1143078164005</v>
+        <v>275.1143078164004</v>
       </c>
       <c r="E14" t="n">
-        <v>302.3616362679793</v>
+        <v>302.3616362679792</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>220.6959092492881</v>
       </c>
       <c r="G14" t="n">
-        <v>332.9594913636452</v>
+        <v>332.959491363645</v>
       </c>
       <c r="H14" t="n">
-        <v>231.4915937356467</v>
+        <v>231.4915937356466</v>
       </c>
       <c r="I14" t="n">
-        <v>23.94276850040943</v>
+        <v>23.94276850040936</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>66.22713566997379</v>
+        <v>66.22713566997372</v>
       </c>
       <c r="T14" t="n">
-        <v>131.3816879599484</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>171.5549581157774</v>
+        <v>171.5549581157773</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>248.1835246658523</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>269.6722349131304</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>304.0048730091256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1704,7 +1704,7 @@
         <v>97.89834799213801</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>38.28573116285297</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,22 +1731,22 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>7.988926598084475</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>144.1093279635754</v>
       </c>
       <c r="T15" t="n">
-        <v>130.8560832464473</v>
+        <v>194.1811721786702</v>
       </c>
       <c r="U15" t="n">
         <v>225.8437179376209</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>153.2318533451427</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>237.6418234682075</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>100.2632463776548</v>
+        <v>100.2632463776547</v>
       </c>
       <c r="C16" t="n">
-        <v>87.67808729434532</v>
+        <v>87.67808729434523</v>
       </c>
       <c r="D16" t="n">
-        <v>69.04673921392984</v>
+        <v>69.04673921392975</v>
       </c>
       <c r="E16" t="n">
-        <v>66.86522884228665</v>
+        <v>66.86522884228657</v>
       </c>
       <c r="F16" t="n">
-        <v>65.85231421864873</v>
+        <v>65.85231421864864</v>
       </c>
       <c r="G16" t="n">
-        <v>87.17769483121783</v>
+        <v>87.17769483121775</v>
       </c>
       <c r="H16" t="n">
-        <v>71.59325136630865</v>
+        <v>71.59325136630856</v>
       </c>
       <c r="I16" t="n">
-        <v>38.45470665437197</v>
+        <v>38.45470665437189</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>41.76513142968435</v>
+        <v>41.76513142968427</v>
       </c>
       <c r="S16" t="n">
-        <v>122.7587393607691</v>
+        <v>122.758739360769</v>
       </c>
       <c r="T16" t="n">
         <v>143.0592298077221</v>
       </c>
       <c r="U16" t="n">
-        <v>206.6824109673197</v>
+        <v>206.6824109673196</v>
       </c>
       <c r="V16" t="n">
-        <v>172.5689095195455</v>
+        <v>172.5689095195454</v>
       </c>
       <c r="W16" t="n">
-        <v>206.9542645323085</v>
+        <v>206.9542645323084</v>
       </c>
       <c r="X16" t="n">
         <v>146.1409215847546</v>
       </c>
       <c r="Y16" t="n">
-        <v>139.0159195478123</v>
+        <v>139.0159195478122</v>
       </c>
     </row>
     <row r="17">
@@ -1841,22 +1841,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>223.5963740549155</v>
+        <v>223.5963740549154</v>
       </c>
       <c r="C17" t="n">
-        <v>206.1354241624425</v>
+        <v>206.1354241624424</v>
       </c>
       <c r="D17" t="n">
-        <v>195.5455740121179</v>
+        <v>195.5455740121178</v>
       </c>
       <c r="E17" t="n">
-        <v>222.7929024636967</v>
+        <v>209.3665758565071</v>
       </c>
       <c r="F17" t="n">
-        <v>247.7385781331464</v>
+        <v>247.7385781331463</v>
       </c>
       <c r="G17" t="n">
-        <v>253.3907575593626</v>
+        <v>253.3907575593625</v>
       </c>
       <c r="H17" t="n">
         <v>151.9228599313641</v>
@@ -1895,22 +1895,22 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>38.38662754847999</v>
+        <v>51.81295415566575</v>
       </c>
       <c r="U17" t="n">
-        <v>91.98622431149484</v>
+        <v>91.98622431149475</v>
       </c>
       <c r="V17" t="n">
         <v>168.6147908615698</v>
       </c>
       <c r="W17" t="n">
-        <v>190.103501108848</v>
+        <v>190.1035011088479</v>
       </c>
       <c r="X17" t="n">
-        <v>210.593633069904</v>
+        <v>210.5936330699039</v>
       </c>
       <c r="Y17" t="n">
-        <v>227.1004710474885</v>
+        <v>227.1004710474884</v>
       </c>
     </row>
     <row r="18">
@@ -1938,10 +1938,10 @@
         <v>135.8590221842308</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>97.89834799213801</v>
       </c>
       <c r="I18" t="n">
-        <v>38.28573116285296</v>
+        <v>38.28573116285297</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,13 +1968,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>4.276454495146481</v>
+        <v>7.98892659808449</v>
       </c>
       <c r="S18" t="n">
         <v>144.1093279635754</v>
       </c>
       <c r="T18" t="n">
-        <v>194.1811721786702</v>
+        <v>92.57035208359146</v>
       </c>
       <c r="U18" t="n">
         <v>225.8437179376209</v>
@@ -1999,31 +1999,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>20.69451257337224</v>
+        <v>20.69451257337215</v>
       </c>
       <c r="C19" t="n">
-        <v>8.109353490062773</v>
+        <v>8.109353490062688</v>
       </c>
       <c r="D19" t="n">
-        <v>74.28285154170112</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>166.7464286355003</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>151.1619851705912</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>5.369444003513266</v>
+        <v>5.36944400351328</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>43.19000555648657</v>
+        <v>43.19000555648648</v>
       </c>
       <c r="T19" t="n">
-        <v>63.4904960034396</v>
+        <v>119.3289054354855</v>
       </c>
       <c r="U19" t="n">
-        <v>127.1136771630372</v>
+        <v>127.1136771630371</v>
       </c>
       <c r="V19" t="n">
-        <v>93.00017571526294</v>
+        <v>93.00017571526286</v>
       </c>
       <c r="W19" t="n">
         <v>127.3855307280259</v>
       </c>
       <c r="X19" t="n">
-        <v>66.57218778047209</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>59.44718574352973</v>
+        <v>59.44718574352964</v>
       </c>
     </row>
     <row r="20">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>210.1700474477289</v>
+        <v>223.5963740549154</v>
       </c>
       <c r="C20" t="n">
-        <v>206.1354241624425</v>
+        <v>206.1354241624424</v>
       </c>
       <c r="D20" t="n">
-        <v>195.5455740121179</v>
+        <v>195.5455740121178</v>
       </c>
       <c r="E20" t="n">
-        <v>222.7929024636967</v>
+        <v>222.7929024636966</v>
       </c>
       <c r="F20" t="n">
-        <v>247.7385781331464</v>
+        <v>247.7385781331463</v>
       </c>
       <c r="G20" t="n">
-        <v>253.3907575593626</v>
+        <v>253.3907575593625</v>
       </c>
       <c r="H20" t="n">
-        <v>151.9228599313641</v>
+        <v>151.922859931364</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2132,22 +2132,22 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>51.81295415566583</v>
+        <v>51.81295415566575</v>
       </c>
       <c r="U20" t="n">
-        <v>91.98622431149484</v>
+        <v>91.98622431149475</v>
       </c>
       <c r="V20" t="n">
         <v>168.6147908615698</v>
       </c>
       <c r="W20" t="n">
-        <v>190.103501108848</v>
+        <v>190.1035011088479</v>
       </c>
       <c r="X20" t="n">
-        <v>210.593633069904</v>
+        <v>210.5936330699039</v>
       </c>
       <c r="Y20" t="n">
-        <v>227.1004710474885</v>
+        <v>213.6741444403002</v>
       </c>
     </row>
     <row r="21">
@@ -2172,7 +2172,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>135.8590221842308</v>
+        <v>80.52285985008896</v>
       </c>
       <c r="H21" t="n">
         <v>97.89834799213801</v>
@@ -2208,7 +2208,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>88.77316562943693</v>
+        <v>144.1093279635754</v>
       </c>
       <c r="T21" t="n">
         <v>194.1811721786702</v>
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>20.69451257337224</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>8.109353490062688</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2251,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>7.608961026935289</v>
+        <v>60.84133202452033</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2260,7 +2260,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>5.369444003513266</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>47.86292699407144</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>202.3274731650516</v>
+        <v>43.19000555648648</v>
       </c>
       <c r="T22" t="n">
-        <v>63.4904960034396</v>
+        <v>222.6279636120047</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2511447716022</v>
+        <v>127.1136771630371</v>
       </c>
       <c r="V22" t="n">
-        <v>93.00017571526294</v>
+        <v>93.00017571526286</v>
       </c>
       <c r="W22" t="n">
         <v>127.3855307280259</v>
       </c>
       <c r="X22" t="n">
-        <v>66.57218778047209</v>
+        <v>66.57218778047201</v>
       </c>
       <c r="Y22" t="n">
-        <v>59.44718574352973</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>223.5963740549155</v>
+        <v>223.5963740549154</v>
       </c>
       <c r="C23" t="n">
-        <v>206.1354241624425</v>
+        <v>206.1354241624424</v>
       </c>
       <c r="D23" t="n">
-        <v>195.5455740121179</v>
+        <v>195.5455740121178</v>
       </c>
       <c r="E23" t="n">
-        <v>222.7929024636967</v>
+        <v>222.7929024636966</v>
       </c>
       <c r="F23" t="n">
-        <v>247.7385781331464</v>
+        <v>247.7385781331463</v>
       </c>
       <c r="G23" t="n">
-        <v>253.3907575593626</v>
+        <v>253.3907575593625</v>
       </c>
       <c r="H23" t="n">
-        <v>151.9228599313641</v>
+        <v>151.922859931364</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2369,22 +2369,22 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>51.81295415566583</v>
+        <v>51.81295415566575</v>
       </c>
       <c r="U23" t="n">
-        <v>91.98622431149484</v>
+        <v>91.98622431149475</v>
       </c>
       <c r="V23" t="n">
         <v>168.6147908615698</v>
       </c>
       <c r="W23" t="n">
-        <v>190.103501108848</v>
+        <v>190.1035011088479</v>
       </c>
       <c r="X23" t="n">
-        <v>210.593633069904</v>
+        <v>210.5936330699039</v>
       </c>
       <c r="Y23" t="n">
-        <v>227.1004710474885</v>
+        <v>227.1004710474884</v>
       </c>
     </row>
     <row r="24">
@@ -2409,13 +2409,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>85.96025985919391</v>
+        <v>47.67452869634008</v>
       </c>
       <c r="H24" t="n">
         <v>97.89834799213801</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>38.28573116285297</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>7.988926598084475</v>
+        <v>7.98892659808449</v>
       </c>
       <c r="S24" t="n">
         <v>144.1093279635754</v>
@@ -2473,13 +2473,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>20.69451257337224</v>
+        <v>20.69451257337215</v>
       </c>
       <c r="C25" t="n">
-        <v>8.109353490062773</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2488,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>7.608961026935289</v>
+        <v>7.608961026935204</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>63.75436558793707</v>
+        <v>53.23237099758514</v>
       </c>
       <c r="S25" t="n">
-        <v>43.19000555648657</v>
+        <v>43.19000555648648</v>
       </c>
       <c r="T25" t="n">
-        <v>63.4904960034396</v>
+        <v>63.49049600343951</v>
       </c>
       <c r="U25" t="n">
         <v>286.2511447716022</v>
       </c>
       <c r="V25" t="n">
-        <v>93.00017571526294</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>127.3855307280259</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>66.57218778047201</v>
       </c>
       <c r="Y25" t="n">
-        <v>59.44718574352973</v>
+        <v>59.44718574352964</v>
       </c>
     </row>
     <row r="26">
@@ -2570,10 +2570,10 @@
         <v>332.9594913636451</v>
       </c>
       <c r="H26" t="n">
-        <v>231.4915937356467</v>
+        <v>231.4915937356466</v>
       </c>
       <c r="I26" t="n">
-        <v>23.94276850040937</v>
+        <v>23.94276850040941</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>66.22713566997376</v>
+        <v>66.22713566997379</v>
       </c>
       <c r="T26" t="n">
         <v>131.3816879599484</v>
@@ -2652,7 +2652,7 @@
         <v>97.89834799213801</v>
       </c>
       <c r="I27" t="n">
-        <v>38.28573116285295</v>
+        <v>38.28573116285297</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,10 +2679,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>7.988926598084461</v>
+        <v>7.98892659808449</v>
       </c>
       <c r="S27" t="n">
-        <v>144.1093279635753</v>
+        <v>144.1093279635754</v>
       </c>
       <c r="T27" t="n">
         <v>194.1811721786702</v>
@@ -2725,13 +2725,13 @@
         <v>65.8523142186487</v>
       </c>
       <c r="G28" t="n">
-        <v>87.17769483121779</v>
+        <v>87.17769483121781</v>
       </c>
       <c r="H28" t="n">
         <v>71.59325136630862</v>
       </c>
       <c r="I28" t="n">
-        <v>38.45470665437193</v>
+        <v>38.45470665437195</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.7651314296843</v>
+        <v>41.76513142968432</v>
       </c>
       <c r="S28" t="n">
         <v>122.7587393607691</v>
@@ -2810,7 +2810,7 @@
         <v>231.4915937356466</v>
       </c>
       <c r="I29" t="n">
-        <v>23.94276850040937</v>
+        <v>23.94276850040939</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>66.22713566997373</v>
+        <v>66.22713566997376</v>
       </c>
       <c r="T29" t="n">
         <v>131.3816879599483</v>
@@ -2889,7 +2889,7 @@
         <v>97.89834799213801</v>
       </c>
       <c r="I30" t="n">
-        <v>38.28573116285296</v>
+        <v>38.28573116285297</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>7.988926598084475</v>
+        <v>7.98892659808449</v>
       </c>
       <c r="S30" t="n">
         <v>144.1093279635754</v>
@@ -2968,7 +2968,7 @@
         <v>71.59325136630861</v>
       </c>
       <c r="I31" t="n">
-        <v>38.4547066543719</v>
+        <v>38.45470665437192</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3029,10 +3029,10 @@
         <v>303.165107859198</v>
       </c>
       <c r="C32" t="n">
-        <v>285.7041579667249</v>
+        <v>285.704157966725</v>
       </c>
       <c r="D32" t="n">
-        <v>275.1143078164013</v>
+        <v>275.1143078164004</v>
       </c>
       <c r="E32" t="n">
         <v>302.3616362679792</v>
@@ -3047,7 +3047,7 @@
         <v>231.4915937356466</v>
       </c>
       <c r="I32" t="n">
-        <v>23.94276850040934</v>
+        <v>23.94276850040939</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>66.22713566997373</v>
+        <v>66.22713566997376</v>
       </c>
       <c r="T32" t="n">
         <v>131.3816879599483</v>
@@ -3126,7 +3126,7 @@
         <v>97.89834799213801</v>
       </c>
       <c r="I33" t="n">
-        <v>38.28573116285296</v>
+        <v>38.28573116285297</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>7.988926598084475</v>
+        <v>7.98892659808449</v>
       </c>
       <c r="S33" t="n">
         <v>144.1093279635754</v>
@@ -3187,25 +3187,25 @@
         <v>100.2632463776547</v>
       </c>
       <c r="C34" t="n">
-        <v>87.67808729434525</v>
+        <v>87.67808729434526</v>
       </c>
       <c r="D34" t="n">
-        <v>69.04673921392977</v>
+        <v>69.04673921392978</v>
       </c>
       <c r="E34" t="n">
-        <v>66.86522884228658</v>
+        <v>66.8652288422866</v>
       </c>
       <c r="F34" t="n">
-        <v>65.85231421864866</v>
+        <v>65.85231421864867</v>
       </c>
       <c r="G34" t="n">
-        <v>87.17769483121775</v>
+        <v>87.17769483121778</v>
       </c>
       <c r="H34" t="n">
         <v>71.59325136630859</v>
       </c>
       <c r="I34" t="n">
-        <v>38.45470665437189</v>
+        <v>38.45470665437192</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,16 +3232,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.76513142968427</v>
+        <v>41.7651314296843</v>
       </c>
       <c r="S34" t="n">
-        <v>122.758739360769</v>
+        <v>122.7587393607691</v>
       </c>
       <c r="T34" t="n">
         <v>143.0592298077221</v>
       </c>
       <c r="U34" t="n">
-        <v>206.6824109673196</v>
+        <v>206.6824109673197</v>
       </c>
       <c r="V34" t="n">
         <v>172.5689095195454</v>
@@ -3363,7 +3363,7 @@
         <v>97.89834799213801</v>
       </c>
       <c r="I36" t="n">
-        <v>38.28573116285296</v>
+        <v>38.28573116285297</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>7.988926598084475</v>
+        <v>7.98892659808449</v>
       </c>
       <c r="S36" t="n">
         <v>144.1093279635754</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>34.03611070768096</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>21.4509516243715</v>
@@ -3436,10 +3436,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>20.95055916124402</v>
+        <v>166.7464286355003</v>
       </c>
       <c r="H37" t="n">
-        <v>5.366115696334834</v>
+        <v>5.366115696334836</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,19 +3469,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>96.81324111907584</v>
       </c>
       <c r="S37" t="n">
-        <v>153.3448448098716</v>
+        <v>56.53160369079529</v>
       </c>
       <c r="T37" t="n">
-        <v>222.6279636120047</v>
+        <v>76.83209413774833</v>
       </c>
       <c r="U37" t="n">
         <v>140.4552752973459</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>106.3417738495717</v>
       </c>
       <c r="W37" t="n">
         <v>140.7271288623347</v>
@@ -3518,7 +3518,7 @@
         <v>266.7323556936713</v>
       </c>
       <c r="H38" t="n">
-        <v>165.2644580656728</v>
+        <v>165.2644580656729</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3597,10 +3597,10 @@
         <v>135.8590221842308</v>
       </c>
       <c r="H39" t="n">
-        <v>97.89834799213801</v>
+        <v>97.89834799213803</v>
       </c>
       <c r="I39" t="n">
-        <v>38.28573116285296</v>
+        <v>38.28573116285299</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>7.988926598084475</v>
+        <v>7.988926598084518</v>
       </c>
       <c r="S39" t="n">
         <v>144.1093279635754</v>
@@ -3661,7 +3661,7 @@
         <v>34.03611070768096</v>
       </c>
       <c r="C40" t="n">
-        <v>21.4509516243715</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>2.819603543956021</v>
@@ -3670,19 +3670,19 @@
         <v>0.6380931723128356</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>20.95055916124402</v>
+        <v>166.7464286355003</v>
       </c>
       <c r="H40" t="n">
-        <v>5.366115696334834</v>
+        <v>5.366115696334839</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>5.369444003513308</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>153.7196662611968</v>
+        <v>56.53160369079531</v>
       </c>
       <c r="T40" t="n">
         <v>76.83209413774833</v>
@@ -3718,10 +3718,10 @@
         <v>140.4552752973459</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>106.3417738495717</v>
       </c>
       <c r="W40" t="n">
-        <v>140.7271288623347</v>
+        <v>232.1709259778968</v>
       </c>
       <c r="X40" t="n">
         <v>79.91378591478082</v>
@@ -3837,7 +3837,7 @@
         <v>97.89834799213801</v>
       </c>
       <c r="I42" t="n">
-        <v>38.28573116285296</v>
+        <v>38.28573116285297</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>7.988926598084475</v>
+        <v>7.98892659808449</v>
       </c>
       <c r="S42" t="n">
         <v>144.1093279635754</v>
@@ -3895,31 +3895,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>34.03611070768096</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>112.8947487399346</v>
+        <v>21.4509516243715</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>2.819603543956021</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>96.81324111907614</v>
       </c>
       <c r="G43" t="n">
         <v>20.95055916124402</v>
       </c>
       <c r="H43" t="n">
-        <v>5.366115696334834</v>
+        <v>5.366115696334836</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>5.369444003513266</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>236.9379721892243</v>
+        <v>236.9379721892242</v>
       </c>
       <c r="C44" t="n">
         <v>219.4770222967512</v>
@@ -3983,16 +3983,16 @@
         <v>208.8871721464266</v>
       </c>
       <c r="E44" t="n">
-        <v>236.1345005980055</v>
+        <v>236.1345005980054</v>
       </c>
       <c r="F44" t="n">
-        <v>261.0801762674552</v>
+        <v>261.0801762674551</v>
       </c>
       <c r="G44" t="n">
-        <v>266.7323556936714</v>
+        <v>266.7323556936713</v>
       </c>
       <c r="H44" t="n">
-        <v>165.2644580656729</v>
+        <v>165.2644580656728</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4028,7 +4028,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>65.15455228997459</v>
+        <v>65.15455228997456</v>
       </c>
       <c r="U44" t="n">
         <v>105.3278224458036</v>
@@ -4040,7 +4040,7 @@
         <v>203.4450992431567</v>
       </c>
       <c r="X44" t="n">
-        <v>223.9352312042127</v>
+        <v>223.9352312042124</v>
       </c>
       <c r="Y44" t="n">
         <v>240.4420691817973</v>
@@ -4074,7 +4074,7 @@
         <v>97.89834799213801</v>
       </c>
       <c r="I45" t="n">
-        <v>38.28573116285296</v>
+        <v>38.28573116285297</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>7.988926598084475</v>
+        <v>7.98892659808449</v>
       </c>
       <c r="S45" t="n">
         <v>144.1093279635754</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>130.8493518267571</v>
+        <v>34.03611070768096</v>
       </c>
       <c r="C46" t="n">
-        <v>21.45095162437153</v>
+        <v>21.4509516243715</v>
       </c>
       <c r="D46" t="n">
-        <v>2.819603543956049</v>
+        <v>2.819603543956021</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0.6380931723128356</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>20.95055916124404</v>
+        <v>20.95055916124402</v>
       </c>
       <c r="H46" t="n">
-        <v>5.366115696334862</v>
+        <v>5.366115696334836</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>118.0234404586545</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,10 +4183,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>56.53160369079532</v>
+        <v>181.1172738254732</v>
       </c>
       <c r="T46" t="n">
-        <v>76.83209413774836</v>
+        <v>222.6279636120047</v>
       </c>
       <c r="U46" t="n">
         <v>140.4552752973459</v>
@@ -4198,10 +4198,10 @@
         <v>140.7271288623347</v>
       </c>
       <c r="X46" t="n">
-        <v>79.91378591478085</v>
+        <v>79.91378591478082</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>72.78878387783845</v>
       </c>
     </row>
   </sheetData>
@@ -5015,49 +5015,49 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>703.3384901525731</v>
+        <v>1063.593577114828</v>
       </c>
       <c r="C11" t="n">
-        <v>703.3384901525731</v>
+        <v>775.0035185625809</v>
       </c>
       <c r="D11" t="n">
-        <v>703.3384901525731</v>
+        <v>775.0035185625809</v>
       </c>
       <c r="E11" t="n">
-        <v>703.3384901525731</v>
+        <v>775.0035185625809</v>
       </c>
       <c r="F11" t="n">
-        <v>372.7250437511295</v>
+        <v>444.3900721611376</v>
       </c>
       <c r="G11" t="n">
-        <v>36.40232520199299</v>
+        <v>294.4168325111403</v>
       </c>
       <c r="H11" t="n">
-        <v>36.40232520199299</v>
+        <v>60.58693984887113</v>
       </c>
       <c r="I11" t="n">
-        <v>36.40232520199299</v>
+        <v>36.40232520199298</v>
       </c>
       <c r="J11" t="n">
-        <v>90.29531437608117</v>
+        <v>90.29531437608111</v>
       </c>
       <c r="K11" t="n">
-        <v>221.805453077775</v>
+        <v>340.7871660002949</v>
       </c>
       <c r="L11" t="n">
-        <v>421.8571709171028</v>
+        <v>540.8388838396227</v>
       </c>
       <c r="M11" t="n">
-        <v>676.1226902968214</v>
+        <v>795.1044032193411</v>
       </c>
       <c r="N11" t="n">
-        <v>939.116299985353</v>
+        <v>1058.098012907873</v>
       </c>
       <c r="O11" t="n">
-        <v>1174.118446746021</v>
+        <v>1293.100159668541</v>
       </c>
       <c r="P11" t="n">
-        <v>1533.387093289899</v>
+        <v>1743.578934043204</v>
       </c>
       <c r="Q11" t="n">
         <v>1820.116260099649</v>
@@ -5066,25 +5066,25 @@
         <v>1820.116260099649</v>
       </c>
       <c r="S11" t="n">
-        <v>1820.116260099649</v>
+        <v>1753.220163463312</v>
       </c>
       <c r="T11" t="n">
-        <v>1692.806252343429</v>
+        <v>1620.511387746192</v>
       </c>
       <c r="U11" t="n">
-        <v>1519.518415862845</v>
+        <v>1620.511387746192</v>
       </c>
       <c r="V11" t="n">
-        <v>1268.827986907439</v>
+        <v>1369.820958790786</v>
       </c>
       <c r="W11" t="n">
-        <v>996.4317900254888</v>
+        <v>1369.820958790786</v>
       </c>
       <c r="X11" t="n">
-        <v>703.3384901525731</v>
+        <v>1369.820958790786</v>
       </c>
       <c r="Y11" t="n">
-        <v>703.3384901525731</v>
+        <v>1369.820958790786</v>
       </c>
     </row>
     <row r="12">
@@ -5094,46 +5094,46 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>731.6047015249351</v>
+        <v>659.3018659631188</v>
       </c>
       <c r="C12" t="n">
-        <v>557.1516722438081</v>
+        <v>484.8488366819918</v>
       </c>
       <c r="D12" t="n">
-        <v>408.2172625825568</v>
+        <v>335.9144270207405</v>
       </c>
       <c r="E12" t="n">
-        <v>248.9798075771013</v>
+        <v>257.0494304034493</v>
       </c>
       <c r="F12" t="n">
-        <v>111.7759641593705</v>
+        <v>190.8873308184985</v>
       </c>
       <c r="G12" t="n">
-        <v>54.91708700790764</v>
+        <v>134.0284536670357</v>
       </c>
       <c r="H12" t="n">
-        <v>36.40232520199299</v>
+        <v>36.40232520199298</v>
       </c>
       <c r="I12" t="n">
-        <v>36.40232520199299</v>
+        <v>36.40232520199298</v>
       </c>
       <c r="J12" t="n">
         <v>174.5128983801548</v>
       </c>
       <c r="K12" t="n">
-        <v>275.3661243424328</v>
+        <v>537.1867089848856</v>
       </c>
       <c r="L12" t="n">
-        <v>457.2982738649873</v>
+        <v>719.11885850744</v>
       </c>
       <c r="M12" t="n">
-        <v>688.9613793449599</v>
+        <v>950.7819639874125</v>
       </c>
       <c r="N12" t="n">
-        <v>1139.440153719623</v>
+        <v>1202.985147450103</v>
       </c>
       <c r="O12" t="n">
-        <v>1415.11813062639</v>
+        <v>1411.481993228502</v>
       </c>
       <c r="P12" t="n">
         <v>1563.122164526897</v>
@@ -5142,28 +5142,28 @@
         <v>1820.116260099649</v>
       </c>
       <c r="R12" t="n">
-        <v>1812.046637273301</v>
+        <v>1820.116260099649</v>
       </c>
       <c r="S12" t="n">
-        <v>1746.85411792048</v>
+        <v>1674.551282358664</v>
       </c>
       <c r="T12" t="n">
-        <v>1631.083978148372</v>
+        <v>1558.781142586555</v>
       </c>
       <c r="U12" t="n">
-        <v>1483.331468922777</v>
+        <v>1411.028633360961</v>
       </c>
       <c r="V12" t="n">
-        <v>1328.551819079199</v>
+        <v>1256.248983517382</v>
       </c>
       <c r="W12" t="n">
-        <v>1154.686920739161</v>
+        <v>1082.384085177345</v>
       </c>
       <c r="X12" t="n">
-        <v>1027.207878921793</v>
+        <v>874.5325849718122</v>
       </c>
       <c r="Y12" t="n">
-        <v>819.447580156839</v>
+        <v>747.1447445950225</v>
       </c>
     </row>
     <row r="13">
@@ -5173,49 +5173,49 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>527.9861862334167</v>
+        <v>527.9861862334161</v>
       </c>
       <c r="C13" t="n">
-        <v>439.4224616936739</v>
+        <v>439.4224616936734</v>
       </c>
       <c r="D13" t="n">
-        <v>369.6782806695023</v>
+        <v>369.678280669502</v>
       </c>
       <c r="E13" t="n">
         <v>302.1376454752731</v>
       </c>
       <c r="F13" t="n">
-        <v>235.6201563655269</v>
+        <v>235.620156365527</v>
       </c>
       <c r="G13" t="n">
-        <v>147.5618787582362</v>
+        <v>147.5618787582364</v>
       </c>
       <c r="H13" t="n">
-        <v>75.24546323671214</v>
+        <v>75.24546323671206</v>
       </c>
       <c r="I13" t="n">
-        <v>36.40232520199299</v>
+        <v>36.40232520199298</v>
       </c>
       <c r="J13" t="n">
-        <v>109.8596221047545</v>
+        <v>109.8596221047544</v>
       </c>
       <c r="K13" t="n">
-        <v>309.7340958180471</v>
+        <v>309.7340958180463</v>
       </c>
       <c r="L13" t="n">
-        <v>599.0017100013562</v>
+        <v>599.0017100013554</v>
       </c>
       <c r="M13" t="n">
-        <v>910.1008877035645</v>
+        <v>910.1008877035638</v>
       </c>
       <c r="N13" t="n">
-        <v>1221.110485701271</v>
+        <v>1221.11048570127</v>
       </c>
       <c r="O13" t="n">
-        <v>1498.375280567426</v>
+        <v>1498.375280567425</v>
       </c>
       <c r="P13" t="n">
-        <v>1723.471626070058</v>
+        <v>1723.471626070057</v>
       </c>
       <c r="Q13" t="n">
         <v>1820.116260099649</v>
@@ -5224,7 +5224,7 @@
         <v>1777.929258655524</v>
       </c>
       <c r="S13" t="n">
-        <v>1653.930532028485</v>
+        <v>1653.930532028484</v>
       </c>
       <c r="T13" t="n">
         <v>1509.426259495432</v>
@@ -5233,16 +5233,16 @@
         <v>1300.65614740723</v>
       </c>
       <c r="V13" t="n">
-        <v>1126.344117589508</v>
+        <v>1126.344117589507</v>
       </c>
       <c r="W13" t="n">
-        <v>917.2994059407113</v>
+        <v>917.2994059407106</v>
       </c>
       <c r="X13" t="n">
-        <v>769.6823134308581</v>
+        <v>769.6823134308573</v>
       </c>
       <c r="Y13" t="n">
-        <v>629.2621926754922</v>
+        <v>629.2621926754915</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1516.285952281062</v>
+        <v>1739.211113138927</v>
       </c>
       <c r="C14" t="n">
-        <v>1227.695893728815</v>
+        <v>1450.62105458668</v>
       </c>
       <c r="D14" t="n">
-        <v>949.8026535102283</v>
+        <v>1172.727814368094</v>
       </c>
       <c r="E14" t="n">
-        <v>644.3868593001482</v>
+        <v>867.3120201580136</v>
       </c>
       <c r="F14" t="n">
-        <v>644.3868593001482</v>
+        <v>644.3868593001479</v>
       </c>
       <c r="G14" t="n">
-        <v>308.0641407510117</v>
+        <v>308.0641407510115</v>
       </c>
       <c r="H14" t="n">
-        <v>74.23424808874239</v>
+        <v>74.23424808874223</v>
       </c>
       <c r="I14" t="n">
-        <v>50.04963344186415</v>
+        <v>50.04963344186409</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3482716363054</v>
+        <v>271.3482716363052</v>
       </c>
       <c r="K14" t="n">
-        <v>723.7623687834523</v>
+        <v>402.8584103379991</v>
       </c>
       <c r="L14" t="n">
-        <v>923.8140866227801</v>
+        <v>602.9101281773269</v>
       </c>
       <c r="M14" t="n">
-        <v>1178.079606002499</v>
+        <v>857.1756475570453</v>
       </c>
       <c r="N14" t="n">
-        <v>1441.07321569103</v>
+        <v>1120.169257245577</v>
       </c>
       <c r="O14" t="n">
-        <v>1706.932699903007</v>
+        <v>1706.932699903004</v>
       </c>
       <c r="P14" t="n">
-        <v>2191.58131542723</v>
+        <v>2191.581315427227</v>
       </c>
       <c r="Q14" t="n">
-        <v>2478.310482236981</v>
+        <v>2478.310482236977</v>
       </c>
       <c r="R14" t="n">
-        <v>2502.481672093208</v>
+        <v>2502.481672093204</v>
       </c>
       <c r="S14" t="n">
-        <v>2435.585575456871</v>
+        <v>2435.585575456867</v>
       </c>
       <c r="T14" t="n">
-        <v>2302.876799739751</v>
+        <v>2435.585575456867</v>
       </c>
       <c r="U14" t="n">
-        <v>2129.588963259168</v>
+        <v>2262.297738976284</v>
       </c>
       <c r="V14" t="n">
-        <v>2129.588963259168</v>
+        <v>2011.607310020877</v>
       </c>
       <c r="W14" t="n">
-        <v>2129.588963259168</v>
+        <v>1739.211113138927</v>
       </c>
       <c r="X14" t="n">
-        <v>2129.588963259168</v>
+        <v>1739.211113138927</v>
       </c>
       <c r="Y14" t="n">
-        <v>1822.51333395702</v>
+        <v>1739.211113138927</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>915.3276410965187</v>
+        <v>954.0000968165722</v>
       </c>
       <c r="C15" t="n">
-        <v>740.8746118153917</v>
+        <v>779.5470675354452</v>
       </c>
       <c r="D15" t="n">
-        <v>591.9402021541405</v>
+        <v>630.6126578741939</v>
       </c>
       <c r="E15" t="n">
-        <v>432.702747148685</v>
+        <v>471.3752028687385</v>
       </c>
       <c r="F15" t="n">
-        <v>286.16818917557</v>
+        <v>324.8406448956234</v>
       </c>
       <c r="G15" t="n">
-        <v>148.936853635943</v>
+        <v>187.6093093559964</v>
       </c>
       <c r="H15" t="n">
-        <v>50.04963344186415</v>
+        <v>88.72208916191759</v>
       </c>
       <c r="I15" t="n">
-        <v>50.04963344186415</v>
+        <v>50.04963344186409</v>
       </c>
       <c r="J15" t="n">
-        <v>188.160206620026</v>
+        <v>188.1602066200259</v>
       </c>
       <c r="K15" t="n">
-        <v>550.8340172247568</v>
+        <v>289.0134325823039</v>
       </c>
       <c r="L15" t="n">
-        <v>1099.898108597736</v>
+        <v>838.0775239552829</v>
       </c>
       <c r="M15" t="n">
-        <v>1331.561214077708</v>
+        <v>1069.740629435255</v>
       </c>
       <c r="N15" t="n">
-        <v>1583.764397540399</v>
+        <v>1689.104843278324</v>
       </c>
       <c r="O15" t="n">
-        <v>1792.261243318798</v>
+        <v>1897.601689056723</v>
       </c>
       <c r="P15" t="n">
-        <v>2255.543418172843</v>
+        <v>2245.487576520452</v>
       </c>
       <c r="Q15" t="n">
-        <v>2502.481672093208</v>
+        <v>2502.481672093204</v>
       </c>
       <c r="R15" t="n">
-        <v>2494.41204926686</v>
+        <v>2502.481672093204</v>
       </c>
       <c r="S15" t="n">
-        <v>2348.847071525875</v>
+        <v>2356.916694352219</v>
       </c>
       <c r="T15" t="n">
-        <v>2216.669209660776</v>
+        <v>2160.774096191946</v>
       </c>
       <c r="U15" t="n">
-        <v>1988.544242047018</v>
+        <v>1932.649128578188</v>
       </c>
       <c r="V15" t="n">
-        <v>1753.392133815275</v>
+        <v>1777.869478734609</v>
       </c>
       <c r="W15" t="n">
-        <v>1499.154777087073</v>
+        <v>1537.827232807127</v>
       </c>
       <c r="X15" t="n">
-        <v>1291.303276881541</v>
+        <v>1329.975732601594</v>
       </c>
       <c r="Y15" t="n">
-        <v>1083.542978116587</v>
+        <v>1122.21543383664</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>541.6334944732874</v>
+        <v>541.6334944732868</v>
       </c>
       <c r="C16" t="n">
-        <v>453.0697699335446</v>
+        <v>453.0697699335441</v>
       </c>
       <c r="D16" t="n">
-        <v>383.3255889093731</v>
+        <v>383.3255889093726</v>
       </c>
       <c r="E16" t="n">
-        <v>315.7849537151441</v>
+        <v>315.7849537151438</v>
       </c>
       <c r="F16" t="n">
-        <v>249.2674646053979</v>
+        <v>249.2674646053977</v>
       </c>
       <c r="G16" t="n">
-        <v>161.2091869981072</v>
+        <v>161.209186998107</v>
       </c>
       <c r="H16" t="n">
-        <v>88.89277147658331</v>
+        <v>88.89277147658316</v>
       </c>
       <c r="I16" t="n">
-        <v>50.04963344186415</v>
+        <v>50.04963344186409</v>
       </c>
       <c r="J16" t="n">
         <v>123.5069303446257</v>
       </c>
       <c r="K16" t="n">
-        <v>323.3814040579175</v>
+        <v>323.3814040579176</v>
       </c>
       <c r="L16" t="n">
-        <v>612.6490182412274</v>
+        <v>612.6490182412267</v>
       </c>
       <c r="M16" t="n">
-        <v>923.7481959434359</v>
+        <v>923.748195943434</v>
       </c>
       <c r="N16" t="n">
-        <v>1234.757793941142</v>
+        <v>1234.75779394114</v>
       </c>
       <c r="O16" t="n">
-        <v>1512.022588807297</v>
+        <v>1512.022588807296</v>
       </c>
       <c r="P16" t="n">
-        <v>1737.11893430993</v>
+        <v>1737.118934309928</v>
       </c>
       <c r="Q16" t="n">
-        <v>1833.763568339521</v>
+        <v>1833.763568339519</v>
       </c>
       <c r="R16" t="n">
-        <v>1791.576566895395</v>
+        <v>1791.576566895394</v>
       </c>
       <c r="S16" t="n">
-        <v>1667.577840268356</v>
+        <v>1667.577840268355</v>
       </c>
       <c r="T16" t="n">
-        <v>1523.073567735303</v>
+        <v>1523.073567735302</v>
       </c>
       <c r="U16" t="n">
-        <v>1314.303455647101</v>
+        <v>1314.3034556471</v>
       </c>
       <c r="V16" t="n">
-        <v>1139.991425829378</v>
+        <v>1139.991425829377</v>
       </c>
       <c r="W16" t="n">
-        <v>930.946714180582</v>
+        <v>930.946714180581</v>
       </c>
       <c r="X16" t="n">
-        <v>783.3296216707289</v>
+        <v>783.329621670728</v>
       </c>
       <c r="Y16" t="n">
-        <v>642.909500915363</v>
+        <v>642.9095009153622</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1340.480033706642</v>
+        <v>1326.918087638774</v>
       </c>
       <c r="C17" t="n">
-        <v>1132.262433542559</v>
+        <v>1118.70048747469</v>
       </c>
       <c r="D17" t="n">
-        <v>934.7416517121367</v>
+        <v>921.1797056442686</v>
       </c>
       <c r="E17" t="n">
-        <v>709.6983158902208</v>
+        <v>709.6983158902207</v>
       </c>
       <c r="F17" t="n">
-        <v>459.4573278769415</v>
+        <v>459.4573278769416</v>
       </c>
       <c r="G17" t="n">
-        <v>203.5070677159693</v>
+        <v>203.5070677159692</v>
       </c>
       <c r="H17" t="n">
-        <v>50.04963344186415</v>
+        <v>50.04963344186409</v>
       </c>
       <c r="I17" t="n">
-        <v>50.04963344186415</v>
+        <v>50.04963344186409</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3482716363054</v>
+        <v>271.3482716363052</v>
       </c>
       <c r="K17" t="n">
-        <v>402.8584103379992</v>
+        <v>723.7623687834522</v>
       </c>
       <c r="L17" t="n">
-        <v>1016.394730582273</v>
+        <v>923.81408662278</v>
       </c>
       <c r="M17" t="n">
-        <v>1270.660249961991</v>
+        <v>1178.079606002498</v>
       </c>
       <c r="N17" t="n">
-        <v>1533.653859650523</v>
+        <v>1441.07321569103</v>
       </c>
       <c r="O17" t="n">
-        <v>2145.648185861309</v>
+        <v>1731.103889759231</v>
       </c>
       <c r="P17" t="n">
-        <v>2311.716080295764</v>
+        <v>2215.752505283454</v>
       </c>
       <c r="Q17" t="n">
-        <v>2502.481672093208</v>
+        <v>2502.481672093204</v>
       </c>
       <c r="R17" t="n">
-        <v>2502.481672093208</v>
+        <v>2502.481672093204</v>
       </c>
       <c r="S17" t="n">
-        <v>2502.481672093208</v>
+        <v>2502.481672093204</v>
       </c>
       <c r="T17" t="n">
-        <v>2463.707300832117</v>
+        <v>2450.145354764249</v>
       </c>
       <c r="U17" t="n">
-        <v>2370.791922739699</v>
+        <v>2357.22997667183</v>
       </c>
       <c r="V17" t="n">
-        <v>2200.473952172456</v>
+        <v>2186.912006104588</v>
       </c>
       <c r="W17" t="n">
-        <v>2008.45021367867</v>
+        <v>1994.888267610802</v>
       </c>
       <c r="X17" t="n">
-        <v>1795.729372193919</v>
+        <v>1782.16742612605</v>
       </c>
       <c r="Y17" t="n">
-        <v>1566.334956994436</v>
+        <v>1552.773010926567</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>855.1128766224934</v>
+        <v>954.0000968165722</v>
       </c>
       <c r="C18" t="n">
-        <v>680.6598473413665</v>
+        <v>779.5470675354452</v>
       </c>
       <c r="D18" t="n">
-        <v>531.7254376801152</v>
+        <v>630.6126578741939</v>
       </c>
       <c r="E18" t="n">
-        <v>372.4879826746597</v>
+        <v>471.3752028687385</v>
       </c>
       <c r="F18" t="n">
-        <v>225.9534247015447</v>
+        <v>324.8406448956234</v>
       </c>
       <c r="G18" t="n">
-        <v>88.72208916191765</v>
+        <v>187.6093093559964</v>
       </c>
       <c r="H18" t="n">
-        <v>88.72208916191765</v>
+        <v>88.72208916191759</v>
       </c>
       <c r="I18" t="n">
-        <v>50.04963344186415</v>
+        <v>50.04963344186409</v>
       </c>
       <c r="J18" t="n">
-        <v>188.160206620026</v>
+        <v>188.1602066200259</v>
       </c>
       <c r="K18" t="n">
-        <v>550.8340172247568</v>
+        <v>550.8340172247567</v>
       </c>
       <c r="L18" t="n">
-        <v>1089.842266945348</v>
+        <v>1089.842266945345</v>
       </c>
       <c r="M18" t="n">
-        <v>1321.50537242532</v>
+        <v>1321.505372425317</v>
       </c>
       <c r="N18" t="n">
-        <v>1573.708555888011</v>
+        <v>1573.708555888008</v>
       </c>
       <c r="O18" t="n">
-        <v>1782.20540166641</v>
+        <v>1782.205401666407</v>
       </c>
       <c r="P18" t="n">
-        <v>2245.487576520455</v>
+        <v>2245.487576520452</v>
       </c>
       <c r="Q18" t="n">
-        <v>2502.481672093208</v>
+        <v>2502.481672093204</v>
       </c>
       <c r="R18" t="n">
-        <v>2498.162021088009</v>
+        <v>2494.412049266857</v>
       </c>
       <c r="S18" t="n">
-        <v>2352.597043347024</v>
+        <v>2348.847071525871</v>
       </c>
       <c r="T18" t="n">
-        <v>2156.454445186751</v>
+        <v>2255.341665380829</v>
       </c>
       <c r="U18" t="n">
-        <v>1928.329477572992</v>
+        <v>2027.216697767071</v>
       </c>
       <c r="V18" t="n">
-        <v>1693.17736934125</v>
+        <v>1792.064589535328</v>
       </c>
       <c r="W18" t="n">
-        <v>1438.940012613048</v>
+        <v>1537.827232807127</v>
       </c>
       <c r="X18" t="n">
-        <v>1231.088512407515</v>
+        <v>1329.975732601594</v>
       </c>
       <c r="Y18" t="n">
-        <v>1023.328213642561</v>
+        <v>1122.21543383664</v>
       </c>
     </row>
     <row r="19">
@@ -5647,43 +5647,43 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>601.9315408562863</v>
+        <v>384.7841903102151</v>
       </c>
       <c r="C19" t="n">
-        <v>593.7402747047078</v>
+        <v>376.5929241586367</v>
       </c>
       <c r="D19" t="n">
-        <v>518.7070913292521</v>
+        <v>376.5929241586367</v>
       </c>
       <c r="E19" t="n">
-        <v>370.793997746859</v>
+        <v>376.5929241586367</v>
       </c>
       <c r="F19" t="n">
-        <v>223.9040502489486</v>
+        <v>376.5929241586367</v>
       </c>
       <c r="G19" t="n">
-        <v>55.47331425349371</v>
+        <v>208.1621881631818</v>
       </c>
       <c r="H19" t="n">
-        <v>55.47331425349371</v>
+        <v>55.47331425349366</v>
       </c>
       <c r="I19" t="n">
-        <v>55.47331425349371</v>
+        <v>55.47331425349366</v>
       </c>
       <c r="J19" t="n">
-        <v>50.04963344186415</v>
+        <v>50.04963344186409</v>
       </c>
       <c r="K19" t="n">
-        <v>171.1510606889163</v>
+        <v>171.1510606889162</v>
       </c>
       <c r="L19" t="n">
-        <v>381.6456284059857</v>
+        <v>381.6456284059856</v>
       </c>
       <c r="M19" t="n">
-        <v>613.9717596419545</v>
+        <v>613.9717596419543</v>
       </c>
       <c r="N19" t="n">
-        <v>846.208311173421</v>
+        <v>846.2083111734208</v>
       </c>
       <c r="O19" t="n">
         <v>1044.700059573336</v>
@@ -5692,31 +5692,31 @@
         <v>1191.023358609729</v>
       </c>
       <c r="Q19" t="n">
-        <v>1208.894946173081</v>
+        <v>1208.89494617308</v>
       </c>
       <c r="R19" t="n">
-        <v>1208.894946173081</v>
+        <v>1208.89494617308</v>
       </c>
       <c r="S19" t="n">
         <v>1165.268677934205</v>
       </c>
       <c r="T19" t="n">
-        <v>1101.136863789317</v>
+        <v>1044.734430019573</v>
       </c>
       <c r="U19" t="n">
-        <v>972.7392100892791</v>
+        <v>916.3367763195361</v>
       </c>
       <c r="V19" t="n">
-        <v>878.7996386597206</v>
+        <v>822.3972048899776</v>
       </c>
       <c r="W19" t="n">
-        <v>750.1273853990883</v>
+        <v>693.7249516293455</v>
       </c>
       <c r="X19" t="n">
-        <v>682.8827512773994</v>
+        <v>465.7354007313281</v>
       </c>
       <c r="Y19" t="n">
-        <v>622.8350889101977</v>
+        <v>405.6877383641264</v>
       </c>
     </row>
     <row r="20">
@@ -5729,73 +5729,73 @@
         <v>1340.480033706642</v>
       </c>
       <c r="C20" t="n">
-        <v>1132.262433542559</v>
+        <v>1132.262433542558</v>
       </c>
       <c r="D20" t="n">
-        <v>934.7416517121367</v>
+        <v>934.7416517121362</v>
       </c>
       <c r="E20" t="n">
-        <v>709.6983158902208</v>
+        <v>709.6983158902204</v>
       </c>
       <c r="F20" t="n">
-        <v>459.4573278769415</v>
+        <v>459.4573278769413</v>
       </c>
       <c r="G20" t="n">
-        <v>203.5070677159693</v>
+        <v>203.5070677159692</v>
       </c>
       <c r="H20" t="n">
-        <v>50.04963344186415</v>
+        <v>50.04963344186409</v>
       </c>
       <c r="I20" t="n">
-        <v>50.04963344186415</v>
+        <v>50.04963344186409</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3482716363054</v>
+        <v>271.3482716363052</v>
       </c>
       <c r="K20" t="n">
-        <v>723.7623687834523</v>
+        <v>723.7623687834522</v>
       </c>
       <c r="L20" t="n">
-        <v>923.8140866227801</v>
+        <v>923.81408662278</v>
       </c>
       <c r="M20" t="n">
-        <v>1178.079606002499</v>
+        <v>1178.079606002498</v>
       </c>
       <c r="N20" t="n">
         <v>1441.07321569103</v>
       </c>
       <c r="O20" t="n">
-        <v>1706.932699903007</v>
+        <v>1731.103889759231</v>
       </c>
       <c r="P20" t="n">
-        <v>2191.58131542723</v>
+        <v>2215.752505283454</v>
       </c>
       <c r="Q20" t="n">
-        <v>2478.310482236981</v>
+        <v>2502.481672093204</v>
       </c>
       <c r="R20" t="n">
-        <v>2502.481672093208</v>
+        <v>2502.481672093204</v>
       </c>
       <c r="S20" t="n">
-        <v>2502.481672093208</v>
+        <v>2502.481672093204</v>
       </c>
       <c r="T20" t="n">
-        <v>2450.145354764252</v>
+        <v>2450.145354764249</v>
       </c>
       <c r="U20" t="n">
-        <v>2357.229976671833</v>
+        <v>2357.22997667183</v>
       </c>
       <c r="V20" t="n">
-        <v>2186.912006104591</v>
+        <v>2186.912006104588</v>
       </c>
       <c r="W20" t="n">
-        <v>1994.888267610805</v>
+        <v>1994.888267610802</v>
       </c>
       <c r="X20" t="n">
-        <v>1782.167426126054</v>
+        <v>1782.167426126051</v>
       </c>
       <c r="Y20" t="n">
-        <v>1552.77301092657</v>
+        <v>1566.334956994435</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>915.3276410965187</v>
+        <v>859.4325276276886</v>
       </c>
       <c r="C21" t="n">
-        <v>740.8746118153917</v>
+        <v>684.9794983465616</v>
       </c>
       <c r="D21" t="n">
-        <v>591.9402021541405</v>
+        <v>536.0450886853104</v>
       </c>
       <c r="E21" t="n">
-        <v>432.702747148685</v>
+        <v>376.8076336798549</v>
       </c>
       <c r="F21" t="n">
-        <v>286.16818917557</v>
+        <v>230.2730757067398</v>
       </c>
       <c r="G21" t="n">
-        <v>148.936853635943</v>
+        <v>148.9368536359429</v>
       </c>
       <c r="H21" t="n">
-        <v>50.04963344186415</v>
+        <v>50.04963344186409</v>
       </c>
       <c r="I21" t="n">
-        <v>50.04963344186415</v>
+        <v>50.04963344186409</v>
       </c>
       <c r="J21" t="n">
-        <v>188.160206620026</v>
+        <v>188.1602066200259</v>
       </c>
       <c r="K21" t="n">
-        <v>550.8340172247568</v>
+        <v>488.8952861455257</v>
       </c>
       <c r="L21" t="n">
-        <v>1099.898108597736</v>
+        <v>1037.959377518505</v>
       </c>
       <c r="M21" t="n">
-        <v>1331.561214077708</v>
+        <v>1269.622482998477</v>
       </c>
       <c r="N21" t="n">
-        <v>1583.764397540399</v>
+        <v>1888.986696841545</v>
       </c>
       <c r="O21" t="n">
-        <v>1792.261243318798</v>
+        <v>2097.483542619945</v>
       </c>
       <c r="P21" t="n">
-        <v>2255.543418172843</v>
+        <v>2245.487576520452</v>
       </c>
       <c r="Q21" t="n">
-        <v>2502.481672093208</v>
+        <v>2502.481672093204</v>
       </c>
       <c r="R21" t="n">
-        <v>2502.481672093208</v>
+        <v>2502.481672093204</v>
       </c>
       <c r="S21" t="n">
-        <v>2412.811807821049</v>
+        <v>2356.916694352219</v>
       </c>
       <c r="T21" t="n">
-        <v>2216.669209660776</v>
+        <v>2160.774096191946</v>
       </c>
       <c r="U21" t="n">
-        <v>1988.544242047018</v>
+        <v>1932.649128578188</v>
       </c>
       <c r="V21" t="n">
-        <v>1753.392133815275</v>
+        <v>1697.497020346445</v>
       </c>
       <c r="W21" t="n">
-        <v>1499.154777087073</v>
+        <v>1443.259663618243</v>
       </c>
       <c r="X21" t="n">
-        <v>1291.303276881541</v>
+        <v>1235.408163412711</v>
       </c>
       <c r="Y21" t="n">
-        <v>1083.542978116587</v>
+        <v>1027.647864647757</v>
       </c>
     </row>
     <row r="22">
@@ -5884,43 +5884,43 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>232.0953164005272</v>
+        <v>119.6967905273015</v>
       </c>
       <c r="C22" t="n">
-        <v>63.15913347262027</v>
+        <v>111.505524375723</v>
       </c>
       <c r="D22" t="n">
-        <v>63.15913347262027</v>
+        <v>111.505524375723</v>
       </c>
       <c r="E22" t="n">
-        <v>63.15913347262027</v>
+        <v>111.505524375723</v>
       </c>
       <c r="F22" t="n">
-        <v>63.15913347262027</v>
+        <v>111.505524375723</v>
       </c>
       <c r="G22" t="n">
-        <v>55.47331425349371</v>
+        <v>50.04963344186409</v>
       </c>
       <c r="H22" t="n">
-        <v>55.47331425349371</v>
+        <v>50.04963344186409</v>
       </c>
       <c r="I22" t="n">
-        <v>55.47331425349371</v>
+        <v>50.04963344186409</v>
       </c>
       <c r="J22" t="n">
-        <v>50.04963344186415</v>
+        <v>50.04963344186409</v>
       </c>
       <c r="K22" t="n">
-        <v>171.1510606889163</v>
+        <v>171.1510606889162</v>
       </c>
       <c r="L22" t="n">
-        <v>381.6456284059857</v>
+        <v>381.6456284059856</v>
       </c>
       <c r="M22" t="n">
-        <v>613.9717596419545</v>
+        <v>613.9717596419543</v>
       </c>
       <c r="N22" t="n">
-        <v>846.208311173421</v>
+        <v>846.2083111734208</v>
       </c>
       <c r="O22" t="n">
         <v>1044.700059573336</v>
@@ -5929,31 +5929,31 @@
         <v>1191.023358609729</v>
       </c>
       <c r="Q22" t="n">
-        <v>1208.894946173081</v>
+        <v>1208.89494617308</v>
       </c>
       <c r="R22" t="n">
-        <v>1160.548555269978</v>
+        <v>1208.89494617308</v>
       </c>
       <c r="S22" t="n">
-        <v>956.1773702547745</v>
+        <v>1165.268677934205</v>
       </c>
       <c r="T22" t="n">
-        <v>892.045556109886</v>
+        <v>940.3919470129883</v>
       </c>
       <c r="U22" t="n">
-        <v>602.9029856335201</v>
+        <v>811.9942933129508</v>
       </c>
       <c r="V22" t="n">
-        <v>508.9634142039615</v>
+        <v>718.0547218833924</v>
       </c>
       <c r="W22" t="n">
-        <v>380.2911609433293</v>
+        <v>589.3824686227603</v>
       </c>
       <c r="X22" t="n">
-        <v>313.0465268216403</v>
+        <v>522.1378345010713</v>
       </c>
       <c r="Y22" t="n">
-        <v>252.9988644544385</v>
+        <v>301.3452553575412</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1340.756808116191</v>
+        <v>1340.756808116189</v>
       </c>
       <c r="C23" t="n">
-        <v>1132.539207952107</v>
+        <v>1132.539207952106</v>
       </c>
       <c r="D23" t="n">
-        <v>935.0184261216853</v>
+        <v>935.0184261216839</v>
       </c>
       <c r="E23" t="n">
-        <v>709.9750902997692</v>
+        <v>709.9750902997685</v>
       </c>
       <c r="F23" t="n">
-        <v>459.73410228649</v>
+        <v>459.7341022864894</v>
       </c>
       <c r="G23" t="n">
-        <v>203.7838421255176</v>
+        <v>203.7838421255175</v>
       </c>
       <c r="H23" t="n">
-        <v>50.32640785141241</v>
+        <v>50.3264078514124</v>
       </c>
       <c r="I23" t="n">
-        <v>50.32640785141241</v>
+        <v>50.3264078514124</v>
       </c>
       <c r="J23" t="n">
-        <v>104.2193970255006</v>
+        <v>271.6250460458535</v>
       </c>
       <c r="K23" t="n">
-        <v>556.6334941726476</v>
+        <v>724.0391431930004</v>
       </c>
       <c r="L23" t="n">
-        <v>1170.169814416921</v>
+        <v>924.0908610323281</v>
       </c>
       <c r="M23" t="n">
-        <v>1424.43533379664</v>
+        <v>1178.356380412047</v>
       </c>
       <c r="N23" t="n">
-        <v>1687.428943485172</v>
+        <v>1441.349990100578</v>
       </c>
       <c r="O23" t="n">
-        <v>2273.715172079721</v>
+        <v>1744.942610236646</v>
       </c>
       <c r="P23" t="n">
-        <v>2439.783066514176</v>
+        <v>2229.591225760869</v>
       </c>
       <c r="Q23" t="n">
-        <v>2516.320392570621</v>
+        <v>2516.32039257062</v>
       </c>
       <c r="R23" t="n">
-        <v>2516.320392570621</v>
+        <v>2516.32039257062</v>
       </c>
       <c r="S23" t="n">
-        <v>2516.320392570621</v>
+        <v>2516.32039257062</v>
       </c>
       <c r="T23" t="n">
-        <v>2463.984075241666</v>
+        <v>2463.984075241664</v>
       </c>
       <c r="U23" t="n">
-        <v>2371.068697149247</v>
+        <v>2371.068697149245</v>
       </c>
       <c r="V23" t="n">
-        <v>2200.750726582005</v>
+        <v>2200.750726582003</v>
       </c>
       <c r="W23" t="n">
-        <v>2008.726988088219</v>
+        <v>2008.726988088217</v>
       </c>
       <c r="X23" t="n">
-        <v>1796.006146603467</v>
+        <v>1796.006146603466</v>
       </c>
       <c r="Y23" t="n">
-        <v>1566.611731403984</v>
+        <v>1566.611731403983</v>
       </c>
     </row>
     <row r="24">
@@ -6042,31 +6042,31 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>865.2016252787571</v>
+        <v>865.2016252787562</v>
       </c>
       <c r="C24" t="n">
-        <v>690.7485959976301</v>
+        <v>690.7485959976292</v>
       </c>
       <c r="D24" t="n">
-        <v>541.8141863363788</v>
+        <v>541.8141863363779</v>
       </c>
       <c r="E24" t="n">
-        <v>382.5767313309233</v>
+        <v>382.5767313309224</v>
       </c>
       <c r="F24" t="n">
-        <v>236.0421733578083</v>
+        <v>236.0421733578074</v>
       </c>
       <c r="G24" t="n">
-        <v>149.2136280454912</v>
+        <v>187.8860837655447</v>
       </c>
       <c r="H24" t="n">
-        <v>50.32640785141241</v>
+        <v>88.9988635714659</v>
       </c>
       <c r="I24" t="n">
-        <v>50.32640785141241</v>
+        <v>50.3264078514124</v>
       </c>
       <c r="J24" t="n">
-        <v>188.4369810295743</v>
+        <v>188.4369810295742</v>
       </c>
       <c r="K24" t="n">
         <v>551.1107916343051</v>
@@ -6075,43 +6075,43 @@
         <v>1100.174883007284</v>
       </c>
       <c r="M24" t="n">
-        <v>1331.837988487257</v>
+        <v>1335.344092902733</v>
       </c>
       <c r="N24" t="n">
-        <v>1584.041171949947</v>
+        <v>1587.547276365423</v>
       </c>
       <c r="O24" t="n">
-        <v>1796.044122143823</v>
+        <v>1796.044122143822</v>
       </c>
       <c r="P24" t="n">
-        <v>2259.326296997868</v>
+        <v>2259.326296997867</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.320392570621</v>
+        <v>2516.32039257062</v>
       </c>
       <c r="R24" t="n">
-        <v>2508.250769744273</v>
+        <v>2508.250769744272</v>
       </c>
       <c r="S24" t="n">
-        <v>2362.685792003288</v>
+        <v>2362.685792003287</v>
       </c>
       <c r="T24" t="n">
-        <v>2166.543193843015</v>
+        <v>2166.543193843014</v>
       </c>
       <c r="U24" t="n">
-        <v>1938.418226229256</v>
+        <v>1938.418226229255</v>
       </c>
       <c r="V24" t="n">
         <v>1703.266117997513</v>
       </c>
       <c r="W24" t="n">
-        <v>1449.028761269312</v>
+        <v>1449.028761269311</v>
       </c>
       <c r="X24" t="n">
-        <v>1241.177261063779</v>
+        <v>1241.177261063778</v>
       </c>
       <c r="Y24" t="n">
-        <v>1033.416962298825</v>
+        <v>1033.416962298824</v>
       </c>
     </row>
     <row r="25">
@@ -6121,31 +6121,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>216.3201326344532</v>
+        <v>226.9484099984458</v>
       </c>
       <c r="C25" t="n">
-        <v>208.1288664828747</v>
+        <v>58.01222707053887</v>
       </c>
       <c r="D25" t="n">
-        <v>58.01222707053897</v>
+        <v>58.01222707053887</v>
       </c>
       <c r="E25" t="n">
-        <v>58.01222707053897</v>
+        <v>58.01222707053887</v>
       </c>
       <c r="F25" t="n">
-        <v>58.01222707053897</v>
+        <v>58.01222707053887</v>
       </c>
       <c r="G25" t="n">
-        <v>50.32640785141241</v>
+        <v>50.3264078514124</v>
       </c>
       <c r="H25" t="n">
-        <v>50.32640785141241</v>
+        <v>50.3264078514124</v>
       </c>
       <c r="I25" t="n">
-        <v>50.32640785141241</v>
+        <v>50.3264078514124</v>
       </c>
       <c r="J25" t="n">
-        <v>50.32640785141241</v>
+        <v>50.3264078514124</v>
       </c>
       <c r="K25" t="n">
         <v>171.4278350984645</v>
@@ -6154,10 +6154,10 @@
         <v>381.9224028155339</v>
       </c>
       <c r="M25" t="n">
-        <v>614.2485340515027</v>
+        <v>614.2485340515026</v>
       </c>
       <c r="N25" t="n">
-        <v>846.4850855829692</v>
+        <v>846.4850855829691</v>
       </c>
       <c r="O25" t="n">
         <v>1044.976833982885</v>
@@ -6169,28 +6169,28 @@
         <v>1209.171720582629</v>
       </c>
       <c r="R25" t="n">
-        <v>1144.773371503904</v>
+        <v>1155.401648867896</v>
       </c>
       <c r="S25" t="n">
-        <v>1101.147103265029</v>
+        <v>1111.775380629021</v>
       </c>
       <c r="T25" t="n">
-        <v>1037.015289120141</v>
+        <v>1047.643566484132</v>
       </c>
       <c r="U25" t="n">
-        <v>747.8727186437745</v>
+        <v>758.5009960077666</v>
       </c>
       <c r="V25" t="n">
-        <v>653.933147214216</v>
+        <v>503.8165078018798</v>
       </c>
       <c r="W25" t="n">
-        <v>525.2608939535837</v>
+        <v>375.1442545412476</v>
       </c>
       <c r="X25" t="n">
-        <v>297.2713430555664</v>
+        <v>307.8996204195587</v>
       </c>
       <c r="Y25" t="n">
-        <v>237.2236806883646</v>
+        <v>247.851958052357</v>
       </c>
     </row>
     <row r="26">
@@ -6203,49 +6203,49 @@
         <v>1870.358268404897</v>
       </c>
       <c r="C26" t="n">
-        <v>1581.768209852649</v>
+        <v>1581.76820985265</v>
       </c>
       <c r="D26" t="n">
-        <v>1303.874969634063</v>
+        <v>1303.874969634064</v>
       </c>
       <c r="E26" t="n">
-        <v>998.4591754239827</v>
+        <v>998.4591754239834</v>
       </c>
       <c r="F26" t="n">
-        <v>667.8457290225394</v>
+        <v>667.8457290225401</v>
       </c>
       <c r="G26" t="n">
         <v>331.5230104734038</v>
       </c>
       <c r="H26" t="n">
-        <v>97.69311781113444</v>
+        <v>97.69311781113448</v>
       </c>
       <c r="I26" t="n">
         <v>73.50850316425628</v>
       </c>
       <c r="J26" t="n">
-        <v>294.8071413586975</v>
+        <v>294.8071413586974</v>
       </c>
       <c r="K26" t="n">
-        <v>747.2212385058447</v>
+        <v>747.2212385058444</v>
       </c>
       <c r="L26" t="n">
-        <v>1360.757558750119</v>
+        <v>1360.757558750118</v>
       </c>
       <c r="M26" t="n">
-        <v>1615.023078129837</v>
+        <v>1806.277825564964</v>
       </c>
       <c r="N26" t="n">
-        <v>2267.881859811827</v>
+        <v>2502.24489042136</v>
       </c>
       <c r="O26" t="n">
-        <v>2879.876186022613</v>
+        <v>3114.239216632147</v>
       </c>
       <c r="P26" t="n">
-        <v>3364.524801546836</v>
+        <v>3598.887832156369</v>
       </c>
       <c r="Q26" t="n">
-        <v>3651.253968356587</v>
+        <v>3675.425158212814</v>
       </c>
       <c r="R26" t="n">
         <v>3675.425158212814</v>
@@ -6257,19 +6257,19 @@
         <v>3475.820285859357</v>
       </c>
       <c r="U26" t="n">
-        <v>3302.532449378774</v>
+        <v>3302.532449378775</v>
       </c>
       <c r="V26" t="n">
         <v>3051.842020423368</v>
       </c>
       <c r="W26" t="n">
-        <v>2779.445823541418</v>
+        <v>2779.445823541419</v>
       </c>
       <c r="X26" t="n">
-        <v>2486.352523668502</v>
+        <v>2486.352523668503</v>
       </c>
       <c r="Y26" t="n">
-        <v>2176.585650080854</v>
+        <v>2176.585650080855</v>
       </c>
     </row>
     <row r="27">
@@ -6303,19 +6303,19 @@
         <v>73.50850316425628</v>
       </c>
       <c r="J27" t="n">
-        <v>211.6190763424182</v>
+        <v>211.6190763424181</v>
       </c>
       <c r="K27" t="n">
-        <v>574.2928869471491</v>
+        <v>574.2928869471489</v>
       </c>
       <c r="L27" t="n">
         <v>1123.356978320128</v>
       </c>
       <c r="M27" t="n">
-        <v>1355.020083800101</v>
+        <v>1447.601434162941</v>
       </c>
       <c r="N27" t="n">
-        <v>1607.223267262792</v>
+        <v>1699.804617625631</v>
       </c>
       <c r="O27" t="n">
         <v>1908.30146340403</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>565.0923641956791</v>
+        <v>565.0923641956794</v>
       </c>
       <c r="C28" t="n">
-        <v>476.5286396559364</v>
+        <v>476.5286396559367</v>
       </c>
       <c r="D28" t="n">
-        <v>406.7844586317649</v>
+        <v>406.7844586317651</v>
       </c>
       <c r="E28" t="n">
-        <v>339.243823437536</v>
+        <v>339.2438234375362</v>
       </c>
       <c r="F28" t="n">
-        <v>272.7263343277898</v>
+        <v>272.72633432779</v>
       </c>
       <c r="G28" t="n">
-        <v>184.6680567204991</v>
+        <v>184.6680567204993</v>
       </c>
       <c r="H28" t="n">
         <v>112.3516411989754</v>
@@ -6385,7 +6385,7 @@
         <v>146.9658000670179</v>
       </c>
       <c r="K28" t="n">
-        <v>346.8402737803098</v>
+        <v>346.8402737803097</v>
       </c>
       <c r="L28" t="n">
         <v>636.1078879636189</v>
@@ -6403,16 +6403,16 @@
         <v>1760.577804032321</v>
       </c>
       <c r="Q28" t="n">
-        <v>1857.222438061912</v>
+        <v>1857.222438061913</v>
       </c>
       <c r="R28" t="n">
         <v>1815.035436617787</v>
       </c>
       <c r="S28" t="n">
-        <v>1691.036709990747</v>
+        <v>1691.036709990748</v>
       </c>
       <c r="T28" t="n">
-        <v>1546.532437457694</v>
+        <v>1546.532437457695</v>
       </c>
       <c r="U28" t="n">
         <v>1337.762325369493</v>
@@ -6421,13 +6421,13 @@
         <v>1163.45029555177</v>
       </c>
       <c r="W28" t="n">
-        <v>954.4055839029737</v>
+        <v>954.4055839029739</v>
       </c>
       <c r="X28" t="n">
-        <v>806.7884913931205</v>
+        <v>806.7884913931208</v>
       </c>
       <c r="Y28" t="n">
-        <v>666.3683706377547</v>
+        <v>666.3683706377549</v>
       </c>
     </row>
     <row r="29">
@@ -6443,46 +6443,46 @@
         <v>1581.76820985265</v>
       </c>
       <c r="D29" t="n">
-        <v>1303.874969634064</v>
+        <v>1303.874969634063</v>
       </c>
       <c r="E29" t="n">
-        <v>998.4591754239837</v>
+        <v>998.4591754239832</v>
       </c>
       <c r="F29" t="n">
-        <v>667.8457290225404</v>
+        <v>667.8457290225401</v>
       </c>
       <c r="G29" t="n">
-        <v>331.5230104734038</v>
+        <v>331.5230104734037</v>
       </c>
       <c r="H29" t="n">
-        <v>97.69311781113444</v>
+        <v>97.69311781113446</v>
       </c>
       <c r="I29" t="n">
         <v>73.50850316425628</v>
       </c>
       <c r="J29" t="n">
-        <v>127.4014923383445</v>
+        <v>294.8071413586974</v>
       </c>
       <c r="K29" t="n">
-        <v>579.8155894854915</v>
+        <v>747.2212385058444</v>
       </c>
       <c r="L29" t="n">
-        <v>1193.351909729765</v>
+        <v>947.2729563451721</v>
       </c>
       <c r="M29" t="n">
-        <v>1892.635827267388</v>
+        <v>1646.556873882795</v>
       </c>
       <c r="N29" t="n">
-        <v>2588.602892123784</v>
+        <v>2342.52393873919</v>
       </c>
       <c r="O29" t="n">
-        <v>3200.59721833457</v>
+        <v>2879.876186022614</v>
       </c>
       <c r="P29" t="n">
-        <v>3598.887832156369</v>
+        <v>3364.524801546836</v>
       </c>
       <c r="Q29" t="n">
-        <v>3675.425158212814</v>
+        <v>3651.253968356587</v>
       </c>
       <c r="R29" t="n">
         <v>3675.425158212814</v>
@@ -6503,7 +6503,7 @@
         <v>2779.445823541418</v>
       </c>
       <c r="X29" t="n">
-        <v>2486.352523668503</v>
+        <v>2486.352523668502</v>
       </c>
       <c r="Y29" t="n">
         <v>2176.585650080855</v>
@@ -6540,25 +6540,25 @@
         <v>73.50850316425628</v>
       </c>
       <c r="J30" t="n">
-        <v>211.6190763424181</v>
+        <v>122.2532454797872</v>
       </c>
       <c r="K30" t="n">
-        <v>574.2928869471489</v>
+        <v>484.927056084518</v>
       </c>
       <c r="L30" t="n">
-        <v>1123.356978320128</v>
+        <v>1033.991147457497</v>
       </c>
       <c r="M30" t="n">
-        <v>1355.020083800101</v>
+        <v>1265.654252937469</v>
       </c>
       <c r="N30" t="n">
-        <v>1607.223267262791</v>
+        <v>1517.85743640016</v>
       </c>
       <c r="O30" t="n">
-        <v>1908.30146340403</v>
+        <v>2116.277978262521</v>
       </c>
       <c r="P30" t="n">
-        <v>2371.583638258076</v>
+        <v>2579.560153116566</v>
       </c>
       <c r="Q30" t="n">
         <v>2628.577733830828</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>565.0923641956795</v>
+        <v>565.092364195679</v>
       </c>
       <c r="C31" t="n">
-        <v>476.5286396559367</v>
+        <v>476.5286396559363</v>
       </c>
       <c r="D31" t="n">
-        <v>406.7844586317652</v>
+        <v>406.7844586317648</v>
       </c>
       <c r="E31" t="n">
-        <v>339.2438234375363</v>
+        <v>339.2438234375359</v>
       </c>
       <c r="F31" t="n">
-        <v>272.7263343277901</v>
+        <v>272.7263343277898</v>
       </c>
       <c r="G31" t="n">
-        <v>184.6680567204994</v>
+        <v>184.6680567204991</v>
       </c>
       <c r="H31" t="n">
-        <v>112.3516411989754</v>
+        <v>112.3516411989753</v>
       </c>
       <c r="I31" t="n">
         <v>73.50850316425628</v>
@@ -6622,13 +6622,13 @@
         <v>146.9658000670178</v>
       </c>
       <c r="K31" t="n">
-        <v>346.8402737803097</v>
+        <v>346.8402737803096</v>
       </c>
       <c r="L31" t="n">
-        <v>636.1078879636189</v>
+        <v>636.1078879636187</v>
       </c>
       <c r="M31" t="n">
-        <v>947.2070656658273</v>
+        <v>947.2070656658274</v>
       </c>
       <c r="N31" t="n">
         <v>1258.216663663534</v>
@@ -6640,7 +6640,7 @@
         <v>1760.577804032321</v>
       </c>
       <c r="Q31" t="n">
-        <v>1857.222438061913</v>
+        <v>1857.222438061912</v>
       </c>
       <c r="R31" t="n">
         <v>1815.035436617787</v>
@@ -6655,16 +6655,16 @@
         <v>1337.762325369493</v>
       </c>
       <c r="V31" t="n">
-        <v>1163.450295551771</v>
+        <v>1163.45029555177</v>
       </c>
       <c r="W31" t="n">
-        <v>954.4055839029741</v>
+        <v>954.4055839029737</v>
       </c>
       <c r="X31" t="n">
-        <v>806.7884913931209</v>
+        <v>806.7884913931206</v>
       </c>
       <c r="Y31" t="n">
-        <v>666.368370637755</v>
+        <v>666.3683706377545</v>
       </c>
     </row>
     <row r="32">
@@ -6674,7 +6674,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1870.358268404898</v>
+        <v>1870.358268404897</v>
       </c>
       <c r="C32" t="n">
         <v>1581.76820985265</v>
@@ -6683,7 +6683,7 @@
         <v>1303.874969634063</v>
       </c>
       <c r="E32" t="n">
-        <v>998.4591754239834</v>
+        <v>998.4591754239832</v>
       </c>
       <c r="F32" t="n">
         <v>667.8457290225401</v>
@@ -6692,34 +6692,34 @@
         <v>331.5230104734037</v>
       </c>
       <c r="H32" t="n">
-        <v>97.69311781113441</v>
+        <v>97.69311781113446</v>
       </c>
       <c r="I32" t="n">
         <v>73.50850316425628</v>
       </c>
       <c r="J32" t="n">
-        <v>294.8071413586975</v>
+        <v>294.8071413586974</v>
       </c>
       <c r="K32" t="n">
         <v>747.2212385058444</v>
       </c>
       <c r="L32" t="n">
-        <v>1341.82046543194</v>
+        <v>1360.757558750118</v>
       </c>
       <c r="M32" t="n">
-        <v>1596.085984811658</v>
+        <v>1615.023078129836</v>
       </c>
       <c r="N32" t="n">
-        <v>2292.053049668054</v>
+        <v>2267.881859811827</v>
       </c>
       <c r="O32" t="n">
-        <v>2904.047375878841</v>
+        <v>2879.876186022614</v>
       </c>
       <c r="P32" t="n">
-        <v>3388.695991403064</v>
+        <v>3364.524801546836</v>
       </c>
       <c r="Q32" t="n">
-        <v>3675.425158212814</v>
+        <v>3651.253968356587</v>
       </c>
       <c r="R32" t="n">
         <v>3675.425158212814</v>
@@ -6740,7 +6740,7 @@
         <v>2779.445823541418</v>
       </c>
       <c r="X32" t="n">
-        <v>2486.352523668503</v>
+        <v>2486.352523668502</v>
       </c>
       <c r="Y32" t="n">
         <v>2176.585650080855</v>
@@ -6786,16 +6786,16 @@
         <v>1123.356978320128</v>
       </c>
       <c r="M33" t="n">
-        <v>1355.020083800101</v>
+        <v>1355.0200838001</v>
       </c>
       <c r="N33" t="n">
         <v>1607.223267262791</v>
       </c>
       <c r="O33" t="n">
-        <v>1908.30146340403</v>
+        <v>2205.643809125152</v>
       </c>
       <c r="P33" t="n">
-        <v>2371.583638258076</v>
+        <v>2579.560153116566</v>
       </c>
       <c r="Q33" t="n">
         <v>2628.577733830828</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>565.0923641956795</v>
+        <v>565.0923641956791</v>
       </c>
       <c r="C34" t="n">
-        <v>476.5286396559368</v>
+        <v>476.5286396559364</v>
       </c>
       <c r="D34" t="n">
-        <v>406.7844586317653</v>
+        <v>406.7844586317649</v>
       </c>
       <c r="E34" t="n">
-        <v>339.2438234375364</v>
+        <v>339.243823437536</v>
       </c>
       <c r="F34" t="n">
-        <v>272.7263343277903</v>
+        <v>272.7263343277899</v>
       </c>
       <c r="G34" t="n">
-        <v>184.6680567204996</v>
+        <v>184.6680567204992</v>
       </c>
       <c r="H34" t="n">
         <v>112.3516411989754</v>
@@ -6865,10 +6865,10 @@
         <v>636.1078879636189</v>
       </c>
       <c r="M34" t="n">
-        <v>947.2070656658274</v>
+        <v>947.2070656658273</v>
       </c>
       <c r="N34" t="n">
-        <v>1258.216663663534</v>
+        <v>1258.216663663533</v>
       </c>
       <c r="O34" t="n">
         <v>1535.481458529689</v>
@@ -6886,7 +6886,7 @@
         <v>1691.036709990747</v>
       </c>
       <c r="T34" t="n">
-        <v>1546.532437457695</v>
+        <v>1546.532437457694</v>
       </c>
       <c r="U34" t="n">
         <v>1337.762325369493</v>
@@ -6895,13 +6895,13 @@
         <v>1163.45029555177</v>
       </c>
       <c r="W34" t="n">
-        <v>954.4055839029737</v>
+        <v>954.4055839029736</v>
       </c>
       <c r="X34" t="n">
-        <v>806.7884913931207</v>
+        <v>806.7884913931205</v>
       </c>
       <c r="Y34" t="n">
-        <v>666.3683706377549</v>
+        <v>666.3683706377547</v>
       </c>
     </row>
     <row r="35">
@@ -6917,13 +6917,13 @@
         <v>1203.496377992339</v>
       </c>
       <c r="D35" t="n">
-        <v>992.49923441009</v>
+        <v>992.4992344100896</v>
       </c>
       <c r="E35" t="n">
-        <v>753.9795368363472</v>
+        <v>753.9795368363467</v>
       </c>
       <c r="F35" t="n">
-        <v>490.262187071241</v>
+        <v>490.2621870712405</v>
       </c>
       <c r="G35" t="n">
         <v>220.8355651584415</v>
@@ -6935,19 +6935,19 @@
         <v>53.90176913250937</v>
       </c>
       <c r="J35" t="n">
-        <v>275.2004073269506</v>
+        <v>275.2004073269505</v>
       </c>
       <c r="K35" t="n">
-        <v>406.7105460286444</v>
+        <v>727.6145044740974</v>
       </c>
       <c r="L35" t="n">
-        <v>1020.246866272918</v>
+        <v>927.6662223134251</v>
       </c>
       <c r="M35" t="n">
-        <v>1425.714917842295</v>
+        <v>1181.931741693144</v>
       </c>
       <c r="N35" t="n">
-        <v>1688.708527530827</v>
+        <v>1444.925351381675</v>
       </c>
       <c r="O35" t="n">
         <v>1923.710674291495</v>
@@ -6956,10 +6956,10 @@
         <v>2408.359289815718</v>
       </c>
       <c r="Q35" t="n">
-        <v>2695.088456625469</v>
+        <v>2695.088456625468</v>
       </c>
       <c r="R35" t="n">
-        <v>2695.088456625469</v>
+        <v>2695.088456625468</v>
       </c>
       <c r="S35" t="n">
         <v>2695.088456625469</v>
@@ -6968,19 +6968,19 @@
         <v>2629.275777544686</v>
       </c>
       <c r="U35" t="n">
-        <v>2522.884037700441</v>
+        <v>2522.88403770044</v>
       </c>
       <c r="V35" t="n">
         <v>2339.089705381371</v>
       </c>
       <c r="W35" t="n">
-        <v>2133.589605135759</v>
+        <v>2133.589605135758</v>
       </c>
       <c r="X35" t="n">
         <v>1907.39240189918</v>
       </c>
       <c r="Y35" t="n">
-        <v>1664.52162494787</v>
+        <v>1664.521624947869</v>
       </c>
     </row>
     <row r="36">
@@ -7017,19 +7017,19 @@
         <v>192.0123423106712</v>
       </c>
       <c r="K36" t="n">
-        <v>554.6861529154021</v>
+        <v>554.686152915402</v>
       </c>
       <c r="L36" t="n">
         <v>1103.750244288381</v>
       </c>
       <c r="M36" t="n">
-        <v>1335.413349768354</v>
+        <v>1353.349145000769</v>
       </c>
       <c r="N36" t="n">
-        <v>1587.616533231044</v>
+        <v>1605.55232846346</v>
       </c>
       <c r="O36" t="n">
-        <v>1888.694729372283</v>
+        <v>2203.972870325821</v>
       </c>
       <c r="P36" t="n">
         <v>2351.976904226328</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>105.6445198377813</v>
+        <v>252.9130748622827</v>
       </c>
       <c r="C37" t="n">
-        <v>83.97689193437574</v>
+        <v>231.2454469588771</v>
       </c>
       <c r="D37" t="n">
-        <v>81.12880754654138</v>
+        <v>228.3973625710427</v>
       </c>
       <c r="E37" t="n">
-        <v>80.48426898864963</v>
+        <v>227.752824013151</v>
       </c>
       <c r="F37" t="n">
-        <v>80.48426898864963</v>
+        <v>227.752824013151</v>
       </c>
       <c r="G37" t="n">
         <v>59.32208801769607</v>
@@ -7099,46 +7099,46 @@
         <v>175.0031963795615</v>
       </c>
       <c r="L37" t="n">
-        <v>385.4977640966309</v>
+        <v>385.4977640966308</v>
       </c>
       <c r="M37" t="n">
-        <v>617.8238953325996</v>
+        <v>617.8238953325995</v>
       </c>
       <c r="N37" t="n">
-        <v>850.0604468640661</v>
+        <v>850.060446864066</v>
       </c>
       <c r="O37" t="n">
-        <v>1048.552195263982</v>
+        <v>1048.552195263981</v>
       </c>
       <c r="P37" t="n">
         <v>1194.875494300374</v>
       </c>
       <c r="Q37" t="n">
-        <v>1212.747081863726</v>
+        <v>1212.747081863725</v>
       </c>
       <c r="R37" t="n">
-        <v>1212.747081863726</v>
+        <v>1114.955929218194</v>
       </c>
       <c r="S37" t="n">
         <v>1057.853299227492</v>
       </c>
       <c r="T37" t="n">
-        <v>832.9765683062751</v>
+        <v>980.2451233307764</v>
       </c>
       <c r="U37" t="n">
-        <v>691.1025528544105</v>
+        <v>838.3711078789119</v>
       </c>
       <c r="V37" t="n">
-        <v>436.4180646485237</v>
+        <v>730.9551746975263</v>
       </c>
       <c r="W37" t="n">
-        <v>294.2694496360644</v>
+        <v>588.8065596850671</v>
       </c>
       <c r="X37" t="n">
-        <v>213.5484537625484</v>
+        <v>508.0855638115511</v>
       </c>
       <c r="Y37" t="n">
-        <v>140.0244296435197</v>
+        <v>434.5615396925224</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1425.190339908249</v>
+        <v>1425.19033990825</v>
       </c>
       <c r="C38" t="n">
-        <v>1203.496377992339</v>
+        <v>1203.49637799234</v>
       </c>
       <c r="D38" t="n">
-        <v>992.4992344100897</v>
+        <v>992.4992344100905</v>
       </c>
       <c r="E38" t="n">
-        <v>753.9795368363468</v>
+        <v>753.9795368363476</v>
       </c>
       <c r="F38" t="n">
-        <v>490.2621870712405</v>
+        <v>490.2621870712414</v>
       </c>
       <c r="G38" t="n">
         <v>220.8355651584416</v>
@@ -7172,25 +7172,25 @@
         <v>53.90176913250939</v>
       </c>
       <c r="J38" t="n">
-        <v>275.2004073269506</v>
+        <v>138.3658443983272</v>
       </c>
       <c r="K38" t="n">
-        <v>406.7105460286444</v>
+        <v>269.8759831000209</v>
       </c>
       <c r="L38" t="n">
-        <v>1020.246866272918</v>
+        <v>883.4123033442944</v>
       </c>
       <c r="M38" t="n">
-        <v>1425.714917842296</v>
+        <v>1550.446696359098</v>
       </c>
       <c r="N38" t="n">
-        <v>1688.708527530827</v>
+        <v>2217.481089373902</v>
       </c>
       <c r="O38" t="n">
-        <v>1923.710674291496</v>
+        <v>2452.48323613457</v>
       </c>
       <c r="P38" t="n">
-        <v>2408.359289815719</v>
+        <v>2618.551130569025</v>
       </c>
       <c r="Q38" t="n">
         <v>2695.088456625469</v>
@@ -7205,19 +7205,19 @@
         <v>2629.275777544687</v>
       </c>
       <c r="U38" t="n">
-        <v>2522.884037700441</v>
+        <v>2522.884037700442</v>
       </c>
       <c r="V38" t="n">
-        <v>2339.089705381371</v>
+        <v>2339.089705381372</v>
       </c>
       <c r="W38" t="n">
         <v>2133.589605135759</v>
       </c>
       <c r="X38" t="n">
-        <v>1907.39240189918</v>
+        <v>1907.392401899181</v>
       </c>
       <c r="Y38" t="n">
-        <v>1664.521624947869</v>
+        <v>1664.521624947871</v>
       </c>
     </row>
     <row r="39">
@@ -7236,16 +7236,16 @@
         <v>634.4647935648393</v>
       </c>
       <c r="E39" t="n">
-        <v>475.2273385593837</v>
+        <v>475.2273385593838</v>
       </c>
       <c r="F39" t="n">
-        <v>328.6927805862687</v>
+        <v>328.6927805862688</v>
       </c>
       <c r="G39" t="n">
-        <v>191.4614450466417</v>
+        <v>191.4614450466418</v>
       </c>
       <c r="H39" t="n">
-        <v>92.57422485256289</v>
+        <v>92.57422485256292</v>
       </c>
       <c r="I39" t="n">
         <v>53.90176913250939</v>
@@ -7254,22 +7254,22 @@
         <v>192.0123423106712</v>
       </c>
       <c r="K39" t="n">
-        <v>554.6861529154021</v>
+        <v>554.6861529154019</v>
       </c>
       <c r="L39" t="n">
-        <v>1103.750244288381</v>
+        <v>736.6183024379561</v>
       </c>
       <c r="M39" t="n">
-        <v>1427.994700131193</v>
+        <v>1403.65269545276</v>
       </c>
       <c r="N39" t="n">
-        <v>1680.197883593884</v>
+        <v>1655.85587891545</v>
       </c>
       <c r="O39" t="n">
-        <v>1888.694729372283</v>
+        <v>1888.694729372284</v>
       </c>
       <c r="P39" t="n">
-        <v>2351.976904226328</v>
+        <v>2351.976904226329</v>
       </c>
       <c r="Q39" t="n">
         <v>2608.970999799081</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>252.5344673356917</v>
+        <v>405.6053106984136</v>
       </c>
       <c r="C40" t="n">
-        <v>230.8668394322861</v>
+        <v>236.6691277705067</v>
       </c>
       <c r="D40" t="n">
-        <v>228.0187550444518</v>
+        <v>233.8210433826724</v>
       </c>
       <c r="E40" t="n">
-        <v>227.37421648656</v>
+        <v>233.1765048247806</v>
       </c>
       <c r="F40" t="n">
-        <v>80.48426898864965</v>
+        <v>233.1765048247806</v>
       </c>
       <c r="G40" t="n">
-        <v>59.3220880176961</v>
+        <v>64.7457688293257</v>
       </c>
       <c r="H40" t="n">
-        <v>53.90176913250939</v>
+        <v>59.325449944139</v>
       </c>
       <c r="I40" t="n">
-        <v>53.90176913250939</v>
+        <v>59.325449944139</v>
       </c>
       <c r="J40" t="n">
         <v>53.90176913250939</v>
@@ -7336,46 +7336,46 @@
         <v>175.0031963795615</v>
       </c>
       <c r="L40" t="n">
-        <v>385.4977640966309</v>
+        <v>385.4977640966308</v>
       </c>
       <c r="M40" t="n">
-        <v>617.8238953325997</v>
+        <v>617.8238953325995</v>
       </c>
       <c r="N40" t="n">
-        <v>850.0604468640662</v>
+        <v>850.0604468640659</v>
       </c>
       <c r="O40" t="n">
-        <v>1048.552195263982</v>
+        <v>1048.552195263981</v>
       </c>
       <c r="P40" t="n">
-        <v>1194.875494300374</v>
+        <v>1194.875494300373</v>
       </c>
       <c r="Q40" t="n">
-        <v>1212.747081863726</v>
+        <v>1212.747081863725</v>
       </c>
       <c r="R40" t="n">
-        <v>1212.747081863726</v>
+        <v>1212.747081863725</v>
       </c>
       <c r="S40" t="n">
-        <v>1057.474691700901</v>
+        <v>1155.644451873023</v>
       </c>
       <c r="T40" t="n">
-        <v>979.8665158041854</v>
+        <v>1078.036275976307</v>
       </c>
       <c r="U40" t="n">
-        <v>837.9925003523208</v>
+        <v>936.1622605244427</v>
       </c>
       <c r="V40" t="n">
-        <v>583.308012146434</v>
+        <v>828.7463273430571</v>
       </c>
       <c r="W40" t="n">
-        <v>441.1593971339747</v>
+        <v>594.2302404966968</v>
       </c>
       <c r="X40" t="n">
-        <v>360.4384012604588</v>
+        <v>513.5092446231807</v>
       </c>
       <c r="Y40" t="n">
-        <v>286.91437714143</v>
+        <v>439.985220504152</v>
       </c>
     </row>
     <row r="41">
@@ -7394,7 +7394,7 @@
         <v>992.4992344100903</v>
       </c>
       <c r="E41" t="n">
-        <v>753.9795368363474</v>
+        <v>753.9795368363473</v>
       </c>
       <c r="F41" t="n">
         <v>490.2621870712412</v>
@@ -7409,25 +7409,25 @@
         <v>53.90176913250939</v>
       </c>
       <c r="J41" t="n">
-        <v>275.2004073269506</v>
+        <v>107.7947583065975</v>
       </c>
       <c r="K41" t="n">
-        <v>727.6145044740977</v>
+        <v>245.7047932437932</v>
       </c>
       <c r="L41" t="n">
-        <v>944.7011757245706</v>
+        <v>859.2411134880668</v>
       </c>
       <c r="M41" t="n">
-        <v>1611.735568739374</v>
+        <v>1526.27550650287</v>
       </c>
       <c r="N41" t="n">
-        <v>1874.729178427906</v>
+        <v>2193.309899517674</v>
       </c>
       <c r="O41" t="n">
-        <v>2109.731325188574</v>
+        <v>2428.312046278343</v>
       </c>
       <c r="P41" t="n">
-        <v>2594.379940712797</v>
+        <v>2594.379940712798</v>
       </c>
       <c r="Q41" t="n">
         <v>2670.917266769242</v>
@@ -7482,31 +7482,31 @@
         <v>191.4614450466417</v>
       </c>
       <c r="H42" t="n">
-        <v>92.57422485256289</v>
+        <v>92.57422485256291</v>
       </c>
       <c r="I42" t="n">
         <v>53.90176913250939</v>
       </c>
       <c r="J42" t="n">
-        <v>192.0123423106712</v>
+        <v>67.18221732366645</v>
       </c>
       <c r="K42" t="n">
-        <v>554.6861529154021</v>
+        <v>168.0354432859444</v>
       </c>
       <c r="L42" t="n">
-        <v>736.6183024379566</v>
+        <v>579.0131258909186</v>
       </c>
       <c r="M42" t="n">
-        <v>968.2814079179292</v>
+        <v>1246.047518905722</v>
       </c>
       <c r="N42" t="n">
-        <v>1635.315800932733</v>
+        <v>1498.250702368412</v>
       </c>
       <c r="O42" t="n">
-        <v>1888.694729372283</v>
+        <v>2096.671244230774</v>
       </c>
       <c r="P42" t="n">
-        <v>2351.976904226328</v>
+        <v>2559.953419084819</v>
       </c>
       <c r="Q42" t="n">
         <v>2608.970999799081</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>497.9727825323158</v>
+        <v>350.7042275078142</v>
       </c>
       <c r="C43" t="n">
-        <v>383.9376827950081</v>
+        <v>329.0365996044086</v>
       </c>
       <c r="D43" t="n">
-        <v>233.8210433826723</v>
+        <v>326.1885152165742</v>
       </c>
       <c r="E43" t="n">
-        <v>85.90794980027921</v>
+        <v>178.2754216341811</v>
       </c>
       <c r="F43" t="n">
-        <v>85.90794980027921</v>
+        <v>80.48426898864965</v>
       </c>
       <c r="G43" t="n">
-        <v>64.74576882932566</v>
+        <v>59.3220880176961</v>
       </c>
       <c r="H43" t="n">
-        <v>59.32544994413895</v>
+        <v>53.90176913250939</v>
       </c>
       <c r="I43" t="n">
-        <v>59.32544994413895</v>
+        <v>53.90176913250939</v>
       </c>
       <c r="J43" t="n">
         <v>53.90176913250939</v>
@@ -7576,10 +7576,10 @@
         <v>385.4977640966309</v>
       </c>
       <c r="M43" t="n">
-        <v>617.8238953325997</v>
+        <v>617.8238953325996</v>
       </c>
       <c r="N43" t="n">
-        <v>850.0604468640662</v>
+        <v>850.0604468640661</v>
       </c>
       <c r="O43" t="n">
         <v>1048.552195263982</v>
@@ -7594,25 +7594,25 @@
         <v>1212.747081863726</v>
       </c>
       <c r="S43" t="n">
-        <v>1155.644451873024</v>
+        <v>1155.644451873023</v>
       </c>
       <c r="T43" t="n">
         <v>1078.036275976308</v>
       </c>
       <c r="U43" t="n">
-        <v>936.1622605244436</v>
+        <v>936.1622605244434</v>
       </c>
       <c r="V43" t="n">
-        <v>828.7463273430581</v>
+        <v>828.7463273430578</v>
       </c>
       <c r="W43" t="n">
-        <v>686.5977123305988</v>
+        <v>686.5977123305986</v>
       </c>
       <c r="X43" t="n">
-        <v>605.8767164570828</v>
+        <v>605.8767164570826</v>
       </c>
       <c r="Y43" t="n">
-        <v>532.3526923380541</v>
+        <v>532.3526923380539</v>
       </c>
     </row>
     <row r="44">
@@ -7622,7 +7622,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1425.190339908249</v>
+        <v>1425.19033990825</v>
       </c>
       <c r="C44" t="n">
         <v>1203.496377992339</v>
@@ -7631,58 +7631,58 @@
         <v>992.4992344100899</v>
       </c>
       <c r="E44" t="n">
-        <v>753.9795368363473</v>
+        <v>753.9795368363471</v>
       </c>
       <c r="F44" t="n">
-        <v>490.262187071241</v>
+        <v>490.2621870712408</v>
       </c>
       <c r="G44" t="n">
         <v>220.8355651584416</v>
       </c>
       <c r="H44" t="n">
-        <v>53.9017691325094</v>
+        <v>53.90176913250939</v>
       </c>
       <c r="I44" t="n">
-        <v>53.9017691325094</v>
+        <v>53.90176913250939</v>
       </c>
       <c r="J44" t="n">
-        <v>275.2004073269507</v>
+        <v>107.7947583065975</v>
       </c>
       <c r="K44" t="n">
-        <v>727.6145044740977</v>
+        <v>560.2088554537445</v>
       </c>
       <c r="L44" t="n">
-        <v>1147.278208606351</v>
+        <v>760.2605732930722</v>
       </c>
       <c r="M44" t="n">
-        <v>1401.543727986069</v>
+        <v>1427.294966307876</v>
       </c>
       <c r="N44" t="n">
-        <v>1664.537337674601</v>
+        <v>1690.288575996407</v>
       </c>
       <c r="O44" t="n">
-        <v>1899.539484435269</v>
+        <v>2302.282902207194</v>
       </c>
       <c r="P44" t="n">
-        <v>2384.188099959492</v>
+        <v>2618.551130569025</v>
       </c>
       <c r="Q44" t="n">
-        <v>2670.917266769243</v>
+        <v>2695.088456625469</v>
       </c>
       <c r="R44" t="n">
-        <v>2695.08845662547</v>
+        <v>2695.088456625469</v>
       </c>
       <c r="S44" t="n">
-        <v>2695.08845662547</v>
+        <v>2695.088456625469</v>
       </c>
       <c r="T44" t="n">
-        <v>2629.275777544688</v>
+        <v>2629.275777544687</v>
       </c>
       <c r="U44" t="n">
         <v>2522.884037700441</v>
       </c>
       <c r="V44" t="n">
-        <v>2339.089705381371</v>
+        <v>2339.089705381372</v>
       </c>
       <c r="W44" t="n">
         <v>2133.589605135759</v>
@@ -7722,28 +7722,28 @@
         <v>92.57422485256291</v>
       </c>
       <c r="I45" t="n">
-        <v>53.9017691325094</v>
+        <v>53.90176913250939</v>
       </c>
       <c r="J45" t="n">
-        <v>192.0123423106712</v>
+        <v>102.6465114480399</v>
       </c>
       <c r="K45" t="n">
-        <v>554.6861529154021</v>
+        <v>465.3203220527707</v>
       </c>
       <c r="L45" t="n">
-        <v>736.6183024379566</v>
+        <v>1014.38441342575</v>
       </c>
       <c r="M45" t="n">
-        <v>1353.349145000769</v>
+        <v>1246.047518905722</v>
       </c>
       <c r="N45" t="n">
-        <v>1605.552328463459</v>
+        <v>1498.250702368412</v>
       </c>
       <c r="O45" t="n">
-        <v>2203.972870325821</v>
+        <v>2096.671244230774</v>
       </c>
       <c r="P45" t="n">
-        <v>2351.976904226328</v>
+        <v>2559.953419084819</v>
       </c>
       <c r="Q45" t="n">
         <v>2608.970999799081</v>
@@ -7780,31 +7780,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>252.9130748622828</v>
+        <v>224.8601162606647</v>
       </c>
       <c r="C46" t="n">
-        <v>231.2454469588772</v>
+        <v>203.1924883572591</v>
       </c>
       <c r="D46" t="n">
-        <v>228.3973625710428</v>
+        <v>200.3444039694247</v>
       </c>
       <c r="E46" t="n">
-        <v>80.48426898864972</v>
+        <v>199.699865411533</v>
       </c>
       <c r="F46" t="n">
-        <v>80.48426898864972</v>
+        <v>199.699865411533</v>
       </c>
       <c r="G46" t="n">
-        <v>59.32208801769613</v>
+        <v>178.5376844405794</v>
       </c>
       <c r="H46" t="n">
-        <v>53.9017691325094</v>
+        <v>173.1173655553927</v>
       </c>
       <c r="I46" t="n">
-        <v>53.9017691325094</v>
+        <v>53.90176913250939</v>
       </c>
       <c r="J46" t="n">
-        <v>53.9017691325094</v>
+        <v>53.90176913250939</v>
       </c>
       <c r="K46" t="n">
         <v>175.0031963795615</v>
@@ -7813,10 +7813,10 @@
         <v>385.4977640966309</v>
       </c>
       <c r="M46" t="n">
-        <v>617.8238953325997</v>
+        <v>617.8238953325996</v>
       </c>
       <c r="N46" t="n">
-        <v>850.0604468640662</v>
+        <v>850.0604468640661</v>
       </c>
       <c r="O46" t="n">
         <v>1048.552195263982</v>
@@ -7831,25 +7831,25 @@
         <v>1212.747081863726</v>
       </c>
       <c r="S46" t="n">
-        <v>1155.644451873024</v>
+        <v>1029.800340625874</v>
       </c>
       <c r="T46" t="n">
-        <v>1078.036275976308</v>
+        <v>804.9236097046571</v>
       </c>
       <c r="U46" t="n">
-        <v>936.1622605244436</v>
+        <v>663.0495942527925</v>
       </c>
       <c r="V46" t="n">
-        <v>828.7463273430581</v>
+        <v>555.633661071407</v>
       </c>
       <c r="W46" t="n">
-        <v>686.5977123305988</v>
+        <v>413.4850460589478</v>
       </c>
       <c r="X46" t="n">
-        <v>605.8767164570828</v>
+        <v>332.7640501854318</v>
       </c>
       <c r="Y46" t="n">
-        <v>385.0841373135527</v>
+        <v>259.2400260664031</v>
       </c>
     </row>
   </sheetData>
@@ -8690,7 +8690,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>120.1835484065858</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -8705,13 +8705,13 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>195.1522748580025</v>
+        <v>287.2837171113213</v>
       </c>
       <c r="Q11" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>41.30107658386419</v>
+        <v>41.30107658386422</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8769,7 +8769,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8778,13 +8778,13 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>200.2783746585585</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>67.85972841249202</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>3.672866058471612</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
@@ -8927,7 +8927,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -8939,7 +8939,7 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>31.16902772859422</v>
+        <v>355.3144402997565</v>
       </c>
       <c r="P14" t="n">
         <v>321.7987081714826</v>
@@ -9006,7 +9006,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9015,16 +9015,16 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>370.8697276569472</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>201.9008621850723</v>
       </c>
       <c r="Q15" t="n">
-        <v>199.9198719253559</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9164,10 +9164,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -9176,16 +9176,16 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>380.8001812627454</v>
+        <v>55.58437101771003</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>115.3820866070691</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>41.30107658386419</v>
+        <v>41.30107658386422</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9246,7 +9246,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>360.6829294929659</v>
+        <v>360.6829294929633</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9413,7 +9413,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>31.16902772859422</v>
+        <v>55.58437101771003</v>
       </c>
       <c r="P20" t="n">
         <v>321.7987081714826</v>
@@ -9422,7 +9422,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>41.30107658386422</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9480,7 +9480,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>201.9008621850725</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9489,16 +9489,16 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>370.8697276569472</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>199.9198719253559</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9635,13 +9635,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -9650,16 +9650,16 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>354.8324058928087</v>
+        <v>69.28330643979811</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>41.30107658386419</v>
+        <v>41.30107658386422</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9723,13 +9723,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>3.541519611592008</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>3.541519611592321</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
@@ -9881,10 +9881,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>193.1866135708362</v>
       </c>
       <c r="N26" t="n">
-        <v>393.8032040337961</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
         <v>380.8001812627454</v>
@@ -9893,10 +9893,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>41.30107658386422</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9960,13 +9960,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>93.51651551802075</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>93.51651551801962</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
@@ -10109,13 +10109,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>449.5135334928325</v>
@@ -10124,16 +10124,16 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>305.4041419421768</v>
       </c>
       <c r="P29" t="n">
-        <v>234.5684034215591</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>41.30107658386419</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10188,7 +10188,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>35.8225193175493</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10203,13 +10203,13 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>93.51651551802036</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10352,13 +10352,13 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>398.5328374613813</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119842</v>
+        <v>393.8032040337973</v>
       </c>
       <c r="O32" t="n">
         <v>380.8001812627454</v>
@@ -10370,7 +10370,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>41.30107658386419</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10440,13 +10440,13 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>93.51651551802036</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>228.1942526170775</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10586,19 +10586,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>152.7298304946044</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>246.2456324738904</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>41.30107658386419</v>
+        <v>41.30107658386422</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10671,16 +10671,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>18.11696488122806</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>93.5165155180199</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>30.87988494114114</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -10829,22 +10829,22 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>152.7298304946053</v>
+        <v>416.9382561970559</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>408.122003359871</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>41.30107658386419</v>
+        <v>41.30107658386427</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10905,16 +10905,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>93.51651551801996</v>
+        <v>439.7689773079104</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>24.58788351357018</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
@@ -11057,25 +11057,25 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>6.46454165202212</v>
       </c>
       <c r="L41" t="n">
-        <v>17.20702364762133</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>416.9382561970557</v>
+        <v>416.9382561970558</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>408.1220033598708</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -11136,28 +11136,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>231.3591243256765</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>439.7689773079103</v>
       </c>
       <c r="N42" t="n">
-        <v>419.0214237900135</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>45.3354370314656</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11294,31 +11294,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>221.830289184773</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>416.9382561970558</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>151.7175090175514</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>41.30107658386422</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,16 +11373,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>35.82251931754895</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>388.9573101846865</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -11391,10 +11391,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23255,28 +23255,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>303.1651078591981</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>285.704157966725</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>275.1143078164005</v>
+        <v>275.1143078164004</v>
       </c>
       <c r="E11" t="n">
-        <v>302.3616362679793</v>
+        <v>302.3616362679792</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>184.4859841101481</v>
       </c>
       <c r="H11" t="n">
-        <v>231.4915937356467</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>23.94276850040943</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,22 +23306,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>66.22713566997379</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>5.34478028128985</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>171.5549581157773</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>269.6722349131304</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>290.1623668741864</v>
       </c>
       <c r="Y11" t="n">
         <v>306.669204851771</v>
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>303.165107859198</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23504,7 +23504,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>327.3073119374289</v>
+        <v>106.6114026881407</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23546,22 +23546,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>131.3816879599483</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>248.1835246658524</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>269.6722349131305</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>290.1623668741865</v>
+        <v>290.1623668741864</v>
       </c>
       <c r="Y14" t="n">
-        <v>2.664331842645483</v>
+        <v>306.669204851771</v>
       </c>
     </row>
     <row r="15">
@@ -23738,7 +23738,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>13.42632660718954</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23783,7 +23783,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>13.42632660718584</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23966,7 +23966,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>13.42632660718664</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -24035,7 +24035,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>13.42632660718823</v>
       </c>
     </row>
     <row r="21">
@@ -25928,7 +25928,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>989801.4813838259</v>
+        <v>989801.4813838258</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1101695.544024619</v>
+        <v>1101695.544024618</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1101695.544024619</v>
+        <v>1101695.544024618</v>
       </c>
     </row>
     <row r="9">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>409638.1693585191</v>
+        <v>409638.1693585192</v>
       </c>
       <c r="C2" t="n">
         <v>409638.1693585193</v>
       </c>
       <c r="D2" t="n">
-        <v>409638.1693585193</v>
+        <v>409638.1693585191</v>
       </c>
       <c r="E2" t="n">
         <v>338880.0613527557</v>
       </c>
       <c r="F2" t="n">
-        <v>365228.8920768584</v>
+        <v>365228.8920768582</v>
       </c>
       <c r="G2" t="n">
-        <v>409986.5171331755</v>
+        <v>409986.5171331752</v>
       </c>
       <c r="H2" t="n">
-        <v>409986.5171331755</v>
+        <v>409986.5171331754</v>
       </c>
       <c r="I2" t="n">
+        <v>410520.8849321414</v>
+      </c>
+      <c r="J2" t="n">
+        <v>410520.8849321416</v>
+      </c>
+      <c r="K2" t="n">
         <v>410520.8849321415</v>
       </c>
-      <c r="J2" t="n">
+      <c r="L2" t="n">
         <v>410520.8849321415</v>
       </c>
-      <c r="K2" t="n">
-        <v>410520.8849321416</v>
-      </c>
-      <c r="L2" t="n">
-        <v>410520.8849321416</v>
-      </c>
       <c r="M2" t="n">
+        <v>410520.8849321412</v>
+      </c>
+      <c r="N2" t="n">
         <v>410520.8849321413</v>
       </c>
-      <c r="N2" t="n">
-        <v>410520.8849321412</v>
-      </c>
       <c r="O2" t="n">
-        <v>410520.8849321415</v>
+        <v>410520.8849321414</v>
       </c>
       <c r="P2" t="n">
-        <v>410520.8849321415</v>
+        <v>410520.8849321413</v>
       </c>
     </row>
     <row r="3">
@@ -26375,7 +26375,7 @@
         <v>753993.2266122001</v>
       </c>
       <c r="F3" t="n">
-        <v>48878.85800921656</v>
+        <v>48878.85800921637</v>
       </c>
       <c r="G3" t="n">
         <v>63654.98704342604</v>
@@ -26384,10 +26384,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>920.0015970185397</v>
+        <v>920.0015970186909</v>
       </c>
       <c r="J3" t="n">
-        <v>75818.20182542151</v>
+        <v>75818.20182542157</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,10 +26396,10 @@
         <v>63654.98704342604</v>
       </c>
       <c r="M3" t="n">
-        <v>105300.8148108541</v>
+        <v>105300.814810854</v>
       </c>
       <c r="N3" t="n">
-        <v>41782.42831583661</v>
+        <v>41782.42831583647</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26424,7 +26424,7 @@
         <v>441649.2499958205</v>
       </c>
       <c r="E4" t="n">
-        <v>138905.8300766321</v>
+        <v>138905.8300766322</v>
       </c>
       <c r="F4" t="n">
         <v>160091.4048491453</v>
@@ -26436,28 +26436,28 @@
         <v>210988.9811331992</v>
       </c>
       <c r="I4" t="n">
-        <v>211418.63545371</v>
+        <v>211418.6354537101</v>
       </c>
       <c r="J4" t="n">
-        <v>201346.1402347316</v>
+        <v>201346.1402347317</v>
       </c>
       <c r="K4" t="n">
-        <v>201346.1402347316</v>
+        <v>201346.1402347317</v>
       </c>
       <c r="L4" t="n">
-        <v>201346.1402347316</v>
+        <v>201346.1402347317</v>
       </c>
       <c r="M4" t="n">
         <v>209486.9446193681</v>
       </c>
       <c r="N4" t="n">
-        <v>209486.9446193681</v>
+        <v>209486.9446193682</v>
       </c>
       <c r="O4" t="n">
-        <v>209486.9446193681</v>
+        <v>209486.9446193682</v>
       </c>
       <c r="P4" t="n">
-        <v>209486.9446193681</v>
+        <v>209486.9446193682</v>
       </c>
     </row>
     <row r="5">
@@ -26479,16 +26479,16 @@
         <v>49400.51786652592</v>
       </c>
       <c r="F5" t="n">
-        <v>59772.47212882801</v>
+        <v>59772.47212882795</v>
       </c>
       <c r="G5" t="n">
-        <v>66461.73601102023</v>
+        <v>66461.73601102018</v>
       </c>
       <c r="H5" t="n">
-        <v>66461.73601102023</v>
+        <v>66461.73601102018</v>
       </c>
       <c r="I5" t="n">
-        <v>66672.08456227691</v>
+        <v>66672.0845622769</v>
       </c>
       <c r="J5" t="n">
         <v>77601.21311784603</v>
@@ -26500,7 +26500,7 @@
         <v>77601.21311784603</v>
       </c>
       <c r="M5" t="n">
-        <v>68267.74432235739</v>
+        <v>68267.74432235738</v>
       </c>
       <c r="N5" t="n">
         <v>68267.74432235741</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-65638.68063730132</v>
+        <v>-65643.09421516937</v>
       </c>
       <c r="C6" t="n">
-        <v>-65638.68063730127</v>
+        <v>-65643.09421516937</v>
       </c>
       <c r="D6" t="n">
-        <v>-65638.68063730121</v>
+        <v>-65643.09421516943</v>
       </c>
       <c r="E6" t="n">
-        <v>-603419.5132026025</v>
+        <v>-603777.7173204995</v>
       </c>
       <c r="F6" t="n">
-        <v>96486.1570896685</v>
+        <v>96259.69712539212</v>
       </c>
       <c r="G6" t="n">
-        <v>68880.81294553002</v>
+        <v>68878.14110653497</v>
       </c>
       <c r="H6" t="n">
-        <v>132535.799988956</v>
+        <v>132533.1281499611</v>
       </c>
       <c r="I6" t="n">
-        <v>131510.163319136</v>
+        <v>131510.1633191358</v>
       </c>
       <c r="J6" t="n">
-        <v>55755.32975414235</v>
+        <v>55755.32975414229</v>
       </c>
       <c r="K6" t="n">
-        <v>131573.531579564</v>
+        <v>131573.5315795638</v>
       </c>
       <c r="L6" t="n">
-        <v>67918.54453613798</v>
+        <v>67918.54453613781</v>
       </c>
       <c r="M6" t="n">
-        <v>27465.38117956174</v>
+        <v>27465.38117956175</v>
       </c>
       <c r="N6" t="n">
-        <v>90983.76767457905</v>
+        <v>90983.76767457923</v>
       </c>
       <c r="O6" t="n">
-        <v>132766.1959904159</v>
+        <v>132766.1959904158</v>
       </c>
       <c r="P6" t="n">
-        <v>132766.195990416</v>
+        <v>132766.1959904158</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>79.56873380428252</v>
+        <v>79.5687338042826</v>
       </c>
       <c r="F2" t="n">
-        <v>79.56873380428252</v>
+        <v>79.5687338042826</v>
       </c>
       <c r="G2" t="n">
         <v>159.1374676085651</v>
@@ -26713,7 +26713,7 @@
         <v>79.56873380428257</v>
       </c>
       <c r="L2" t="n">
-        <v>79.56873380428259</v>
+        <v>79.56873380428257</v>
       </c>
       <c r="M2" t="n">
         <v>145.7958694742563</v>
@@ -26744,40 +26744,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>690.159946367845</v>
+        <v>690.1599463678449</v>
       </c>
       <c r="F3" t="n">
-        <v>690.159946367845</v>
+        <v>690.1599463678449</v>
       </c>
       <c r="G3" t="n">
-        <v>690.159946367845</v>
+        <v>690.1599463678449</v>
       </c>
       <c r="H3" t="n">
-        <v>690.159946367845</v>
+        <v>690.1599463678449</v>
       </c>
       <c r="I3" t="n">
-        <v>690.159946367845</v>
+        <v>690.1599463678449</v>
       </c>
       <c r="J3" t="n">
-        <v>690.1599463678451</v>
+        <v>690.1599463678449</v>
       </c>
       <c r="K3" t="n">
-        <v>690.159946367845</v>
+        <v>690.1599463678449</v>
       </c>
       <c r="L3" t="n">
-        <v>690.159946367845</v>
+        <v>690.1599463678449</v>
       </c>
       <c r="M3" t="n">
-        <v>690.159946367845</v>
+        <v>690.1599463678449</v>
       </c>
       <c r="N3" t="n">
-        <v>690.159946367845</v>
+        <v>690.1599463678447</v>
       </c>
       <c r="O3" t="n">
-        <v>690.159946367845</v>
+        <v>690.1599463678449</v>
       </c>
       <c r="P3" t="n">
-        <v>690.159946367845</v>
+        <v>690.1599463678449</v>
       </c>
     </row>
     <row r="4">
@@ -26796,19 +26796,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>455.0290650249124</v>
+        <v>455.0290650249123</v>
       </c>
       <c r="F4" t="n">
-        <v>625.6204180233019</v>
+        <v>625.6204180233011</v>
       </c>
       <c r="G4" t="n">
-        <v>625.6204180233019</v>
+        <v>625.6204180233011</v>
       </c>
       <c r="H4" t="n">
-        <v>625.6204180233019</v>
+        <v>625.6204180233011</v>
       </c>
       <c r="I4" t="n">
-        <v>629.0800981426552</v>
+        <v>629.0800981426549</v>
       </c>
       <c r="J4" t="n">
         <v>918.8562895532035</v>
@@ -26820,7 +26820,7 @@
         <v>918.8562895532035</v>
       </c>
       <c r="M4" t="n">
-        <v>673.7721141563671</v>
+        <v>673.772114156367</v>
       </c>
       <c r="N4" t="n">
         <v>673.7721141563674</v>
@@ -26829,7 +26829,7 @@
         <v>673.7721141563674</v>
       </c>
       <c r="P4" t="n">
-        <v>673.7721141563675</v>
+        <v>673.7721141563674</v>
       </c>
     </row>
   </sheetData>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>79.56873380428252</v>
+        <v>79.5687338042826</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26935,10 +26935,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>79.56873380428256</v>
+        <v>79.56873380428254</v>
       </c>
       <c r="M2" t="n">
-        <v>66.22713566997375</v>
+        <v>66.22713566997376</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>690.159946367845</v>
+        <v>690.1599463678449</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,10 +27018,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>455.0290650249124</v>
+        <v>455.0290650249123</v>
       </c>
       <c r="F4" t="n">
-        <v>170.5913529983895</v>
+        <v>170.5913529983889</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27030,10 +27030,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>3.459680119353266</v>
+        <v>3.459680119353834</v>
       </c>
       <c r="J4" t="n">
-        <v>289.7761914105483</v>
+        <v>289.7761914105486</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,10 +27042,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>209.944889628076</v>
+        <v>209.9448896280758</v>
       </c>
       <c r="N4" t="n">
-        <v>170.5913529983898</v>
+        <v>170.5913529983892</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>79.56873380428252</v>
+        <v>79.5687338042826</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27264,10 +27264,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>455.0290650249124</v>
+        <v>455.0290650249123</v>
       </c>
       <c r="N4" t="n">
-        <v>170.5913529983895</v>
+        <v>170.5913529983889</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>79.56873380428252</v>
+        <v>79.5687338042826</v>
       </c>
       <c r="C11" t="n">
-        <v>79.56873380428252</v>
+        <v>79.5687338042826</v>
       </c>
       <c r="D11" t="n">
-        <v>79.56873380428252</v>
+        <v>79.5687338042826</v>
       </c>
       <c r="E11" t="n">
-        <v>79.56873380428252</v>
+        <v>79.5687338042826</v>
       </c>
       <c r="F11" t="n">
-        <v>79.56873380428252</v>
+        <v>79.5687338042826</v>
       </c>
       <c r="G11" t="n">
-        <v>79.56873380428252</v>
+        <v>79.5687338042826</v>
       </c>
       <c r="H11" t="n">
-        <v>79.56873380428252</v>
+        <v>79.5687338042826</v>
       </c>
       <c r="I11" t="n">
-        <v>79.56873380428252</v>
+        <v>79.5687338042826</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>79.56873380428252</v>
+        <v>79.5687338042826</v>
       </c>
       <c r="T11" t="n">
-        <v>79.56873380428252</v>
+        <v>79.5687338042826</v>
       </c>
       <c r="U11" t="n">
-        <v>79.56873380428252</v>
+        <v>79.5687338042826</v>
       </c>
       <c r="V11" t="n">
-        <v>79.56873380428252</v>
+        <v>79.5687338042826</v>
       </c>
       <c r="W11" t="n">
-        <v>79.56873380428252</v>
+        <v>79.5687338042826</v>
       </c>
       <c r="X11" t="n">
-        <v>79.56873380428252</v>
+        <v>79.5687338042826</v>
       </c>
       <c r="Y11" t="n">
-        <v>79.56873380428252</v>
+        <v>79.5687338042826</v>
       </c>
     </row>
     <row r="12">
@@ -28166,7 +28166,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>79.56873380428252</v>
+        <v>79.5687338042826</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -28175,19 +28175,19 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>79.5687338042826</v>
       </c>
       <c r="F12" t="n">
-        <v>9.237407409830354</v>
+        <v>79.5687338042826</v>
       </c>
       <c r="G12" t="n">
-        <v>79.56873380428252</v>
+        <v>79.5687338042826</v>
       </c>
       <c r="H12" t="n">
-        <v>79.56873380428252</v>
+        <v>1.248480811745722</v>
       </c>
       <c r="I12" t="n">
-        <v>38.28573116285296</v>
+        <v>38.28573116285297</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -28214,28 +28214,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>7.98892659808449</v>
       </c>
       <c r="S12" t="n">
-        <v>79.56873380428252</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>79.56873380428252</v>
+        <v>79.5687338042826</v>
       </c>
       <c r="U12" t="n">
-        <v>79.56873380428252</v>
+        <v>79.5687338042826</v>
       </c>
       <c r="V12" t="n">
-        <v>79.56873380428252</v>
+        <v>79.5687338042826</v>
       </c>
       <c r="W12" t="n">
-        <v>79.56873380428252</v>
+        <v>79.5687338042826</v>
       </c>
       <c r="X12" t="n">
-        <v>79.56873380428252</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>79.5687338042826</v>
       </c>
     </row>
     <row r="13">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>79.56873380428252</v>
+        <v>79.5687338042826</v>
       </c>
       <c r="C13" t="n">
-        <v>79.56873380428252</v>
+        <v>79.5687338042826</v>
       </c>
       <c r="D13" t="n">
-        <v>79.56873380428252</v>
+        <v>79.5687338042826</v>
       </c>
       <c r="E13" t="n">
-        <v>79.56873380428252</v>
+        <v>79.5687338042826</v>
       </c>
       <c r="F13" t="n">
-        <v>79.56873380428252</v>
+        <v>79.5687338042826</v>
       </c>
       <c r="G13" t="n">
-        <v>79.56873380428252</v>
+        <v>79.5687338042826</v>
       </c>
       <c r="H13" t="n">
-        <v>79.56873380428252</v>
+        <v>79.5687338042826</v>
       </c>
       <c r="I13" t="n">
-        <v>79.56873380428252</v>
+        <v>79.5687338042826</v>
       </c>
       <c r="J13" t="n">
-        <v>79.56873380428252</v>
+        <v>79.5687338042826</v>
       </c>
       <c r="K13" t="n">
-        <v>79.56873380428252</v>
+        <v>79.5687338042826</v>
       </c>
       <c r="L13" t="n">
-        <v>79.56873380428252</v>
+        <v>79.5687338042826</v>
       </c>
       <c r="M13" t="n">
-        <v>79.56873380428252</v>
+        <v>79.5687338042826</v>
       </c>
       <c r="N13" t="n">
-        <v>79.56873380428252</v>
+        <v>79.5687338042826</v>
       </c>
       <c r="O13" t="n">
-        <v>79.56873380428252</v>
+        <v>79.5687338042826</v>
       </c>
       <c r="P13" t="n">
-        <v>79.56873380428252</v>
+        <v>79.5687338042826</v>
       </c>
       <c r="Q13" t="n">
-        <v>79.56873380428252</v>
+        <v>79.5687338042826</v>
       </c>
       <c r="R13" t="n">
-        <v>79.56873380428252</v>
+        <v>79.5687338042826</v>
       </c>
       <c r="S13" t="n">
-        <v>79.56873380428252</v>
+        <v>79.5687338042826</v>
       </c>
       <c r="T13" t="n">
-        <v>79.56873380428252</v>
+        <v>79.5687338042826</v>
       </c>
       <c r="U13" t="n">
-        <v>79.56873380428252</v>
+        <v>79.5687338042826</v>
       </c>
       <c r="V13" t="n">
-        <v>79.56873380428252</v>
+        <v>79.5687338042826</v>
       </c>
       <c r="W13" t="n">
-        <v>79.56873380428252</v>
+        <v>79.5687338042826</v>
       </c>
       <c r="X13" t="n">
-        <v>79.56873380428252</v>
+        <v>79.5687338042826</v>
       </c>
       <c r="Y13" t="n">
-        <v>79.56873380428252</v>
+        <v>79.5687338042826</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>79.56873380428252</v>
+        <v>79.5687338042826</v>
       </c>
       <c r="C14" t="n">
-        <v>79.56873380428252</v>
+        <v>79.5687338042826</v>
       </c>
       <c r="D14" t="n">
-        <v>79.56873380428252</v>
+        <v>79.5687338042826</v>
       </c>
       <c r="E14" t="n">
-        <v>79.56873380428252</v>
+        <v>79.5687338042826</v>
       </c>
       <c r="F14" t="n">
-        <v>79.56873380428252</v>
+        <v>79.5687338042826</v>
       </c>
       <c r="G14" t="n">
-        <v>79.56873380428252</v>
+        <v>79.5687338042826</v>
       </c>
       <c r="H14" t="n">
-        <v>79.56873380428252</v>
+        <v>79.5687338042826</v>
       </c>
       <c r="I14" t="n">
-        <v>79.56873380428252</v>
+        <v>79.5687338042826</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>79.56873380428252</v>
+        <v>79.5687338042826</v>
       </c>
       <c r="T14" t="n">
-        <v>79.56873380428252</v>
+        <v>79.5687338042826</v>
       </c>
       <c r="U14" t="n">
-        <v>79.56873380428252</v>
+        <v>79.5687338042826</v>
       </c>
       <c r="V14" t="n">
-        <v>79.56873380428252</v>
+        <v>79.5687338042826</v>
       </c>
       <c r="W14" t="n">
-        <v>79.56873380428252</v>
+        <v>79.5687338042826</v>
       </c>
       <c r="X14" t="n">
-        <v>79.56873380428252</v>
+        <v>79.5687338042826</v>
       </c>
       <c r="Y14" t="n">
-        <v>79.56873380428252</v>
+        <v>79.5687338042826</v>
       </c>
     </row>
     <row r="15">
@@ -28424,7 +28424,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>38.28573116285296</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -28451,22 +28451,22 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>7.98892659808449</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>63.32508893222291</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>79.5687338042826</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>14.05315969271211</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>79.56873380428252</v>
+        <v>79.5687338042826</v>
       </c>
       <c r="C16" t="n">
-        <v>79.56873380428252</v>
+        <v>79.5687338042826</v>
       </c>
       <c r="D16" t="n">
-        <v>79.56873380428252</v>
+        <v>79.5687338042826</v>
       </c>
       <c r="E16" t="n">
-        <v>79.56873380428252</v>
+        <v>79.5687338042826</v>
       </c>
       <c r="F16" t="n">
-        <v>79.56873380428252</v>
+        <v>79.5687338042826</v>
       </c>
       <c r="G16" t="n">
-        <v>79.56873380428252</v>
+        <v>79.5687338042826</v>
       </c>
       <c r="H16" t="n">
-        <v>79.56873380428252</v>
+        <v>79.5687338042826</v>
       </c>
       <c r="I16" t="n">
-        <v>79.56873380428252</v>
+        <v>79.5687338042826</v>
       </c>
       <c r="J16" t="n">
-        <v>79.56873380428252</v>
+        <v>79.5687338042826</v>
       </c>
       <c r="K16" t="n">
-        <v>79.56873380428252</v>
+        <v>79.5687338042826</v>
       </c>
       <c r="L16" t="n">
-        <v>79.56873380428337</v>
+        <v>79.5687338042826</v>
       </c>
       <c r="M16" t="n">
-        <v>79.56873380428252</v>
+        <v>79.56873380428135</v>
       </c>
       <c r="N16" t="n">
-        <v>79.56873380428252</v>
+        <v>79.5687338042826</v>
       </c>
       <c r="O16" t="n">
-        <v>79.56873380428252</v>
+        <v>79.5687338042826</v>
       </c>
       <c r="P16" t="n">
-        <v>79.56873380428252</v>
+        <v>79.5687338042826</v>
       </c>
       <c r="Q16" t="n">
-        <v>79.56873380428252</v>
+        <v>79.5687338042826</v>
       </c>
       <c r="R16" t="n">
-        <v>79.56873380428252</v>
+        <v>79.5687338042826</v>
       </c>
       <c r="S16" t="n">
-        <v>79.56873380428252</v>
+        <v>79.5687338042826</v>
       </c>
       <c r="T16" t="n">
-        <v>79.56873380428252</v>
+        <v>79.5687338042826</v>
       </c>
       <c r="U16" t="n">
-        <v>79.56873380428252</v>
+        <v>79.5687338042826</v>
       </c>
       <c r="V16" t="n">
-        <v>79.56873380428252</v>
+        <v>79.5687338042826</v>
       </c>
       <c r="W16" t="n">
-        <v>79.56873380428252</v>
+        <v>79.5687338042826</v>
       </c>
       <c r="X16" t="n">
-        <v>79.56873380428252</v>
+        <v>79.5687338042826</v>
       </c>
       <c r="Y16" t="n">
-        <v>79.56873380428252</v>
+        <v>79.5687338042826</v>
       </c>
     </row>
     <row r="17">
@@ -28582,7 +28582,7 @@
         <v>159.1374676085651</v>
       </c>
       <c r="I17" t="n">
-        <v>103.5115023046919</v>
+        <v>103.511502304692</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28658,7 +28658,7 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>97.89834799213801</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -28688,13 +28688,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>3.712472102937994</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>101.6108200950788</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -28725,19 +28725,19 @@
         <v>159.1374676085651</v>
       </c>
       <c r="D19" t="n">
-        <v>74.33262147651124</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>151.1619851705912</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>118.0234404586545</v>
@@ -28773,7 +28773,7 @@
         <v>159.1374676085651</v>
       </c>
       <c r="T19" t="n">
-        <v>159.1374676085651</v>
+        <v>103.2990581765192</v>
       </c>
       <c r="U19" t="n">
         <v>159.1374676085651</v>
@@ -28785,7 +28785,7 @@
         <v>159.1374676085651</v>
       </c>
       <c r="X19" t="n">
-        <v>159.1374676085651</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>159.1374676085651</v>
@@ -28819,7 +28819,7 @@
         <v>159.1374676085651</v>
       </c>
       <c r="I20" t="n">
-        <v>103.5115023046919</v>
+        <v>103.511502304692</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28892,13 +28892,13 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>55.33616233414179</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>38.28573116285296</v>
+        <v>38.28573116285297</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -28925,10 +28925,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>7.988926598084475</v>
+        <v>7.98892659808449</v>
       </c>
       <c r="S21" t="n">
-        <v>55.33616233413844</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -28956,10 +28956,10 @@
         </is>
       </c>
       <c r="B22" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" t="n">
         <v>159.1374676085651</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -28971,7 +28971,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>159.1374676085651</v>
+        <v>105.90509661098</v>
       </c>
       <c r="H22" t="n">
         <v>151.1619851705912</v>
@@ -28980,7 +28980,7 @@
         <v>118.0234404586545</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>5.36944400351328</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -29004,16 +29004,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>73.47093823989542</v>
+        <v>121.3338652339669</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>159.1374676085651</v>
       </c>
       <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
         <v>159.1374676085651</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>159.1374676085651</v>
@@ -29025,7 +29025,7 @@
         <v>159.1374676085651</v>
       </c>
       <c r="Y22" t="n">
-        <v>159.1374676085651</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -29056,7 +29056,7 @@
         <v>159.1374676085651</v>
       </c>
       <c r="I23" t="n">
-        <v>103.5115023046919</v>
+        <v>103.511502304692</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29129,13 +29129,13 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>49.89876232503684</v>
+        <v>88.18449348789068</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>38.28573116285296</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -29196,10 +29196,10 @@
         <v>159.1374676085651</v>
       </c>
       <c r="C25" t="n">
-        <v>159.1374676085651</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -29217,7 +29217,7 @@
         <v>118.0234404586545</v>
       </c>
       <c r="J25" t="n">
-        <v>5.369444003513266</v>
+        <v>5.36944400351328</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -29241,7 +29241,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>57.57949964602979</v>
+        <v>68.10149423638173</v>
       </c>
       <c r="S25" t="n">
         <v>159.1374676085651</v>
@@ -29253,13 +29253,13 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>159.1374676085651</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>159.1374676085651</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>159.1374676085651</v>
       </c>
       <c r="Y25" t="n">
         <v>159.1374676085651</v>
@@ -29466,7 +29466,7 @@
         <v>79.56873380428254</v>
       </c>
       <c r="N28" t="n">
-        <v>79.56873380428254</v>
+        <v>79.5687338042832</v>
       </c>
       <c r="O28" t="n">
         <v>79.56873380428254</v>
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>79.56873380428259</v>
+        <v>79.56873380428257</v>
       </c>
       <c r="C32" t="n">
-        <v>79.56873380428259</v>
+        <v>79.56873380428257</v>
       </c>
       <c r="D32" t="n">
-        <v>79.56873380428169</v>
+        <v>79.56873380428257</v>
       </c>
       <c r="E32" t="n">
-        <v>79.56873380428259</v>
+        <v>79.56873380428257</v>
       </c>
       <c r="F32" t="n">
-        <v>79.56873380428259</v>
+        <v>79.56873380428257</v>
       </c>
       <c r="G32" t="n">
-        <v>79.56873380428259</v>
+        <v>79.56873380428257</v>
       </c>
       <c r="H32" t="n">
-        <v>79.56873380428259</v>
+        <v>79.56873380428257</v>
       </c>
       <c r="I32" t="n">
-        <v>79.56873380428259</v>
+        <v>79.56873380428257</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>79.56873380428259</v>
+        <v>79.56873380428257</v>
       </c>
       <c r="T32" t="n">
-        <v>79.56873380428259</v>
+        <v>79.56873380428257</v>
       </c>
       <c r="U32" t="n">
-        <v>79.56873380428259</v>
+        <v>79.56873380428257</v>
       </c>
       <c r="V32" t="n">
-        <v>79.56873380428259</v>
+        <v>79.56873380428257</v>
       </c>
       <c r="W32" t="n">
-        <v>79.56873380428259</v>
+        <v>79.56873380428257</v>
       </c>
       <c r="X32" t="n">
-        <v>79.56873380428259</v>
+        <v>79.56873380428257</v>
       </c>
       <c r="Y32" t="n">
-        <v>79.56873380428259</v>
+        <v>79.56873380428257</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>79.56873380428259</v>
+        <v>79.56873380428257</v>
       </c>
       <c r="C34" t="n">
-        <v>79.56873380428259</v>
+        <v>79.56873380428257</v>
       </c>
       <c r="D34" t="n">
-        <v>79.56873380428259</v>
+        <v>79.56873380428257</v>
       </c>
       <c r="E34" t="n">
-        <v>79.56873380428259</v>
+        <v>79.56873380428257</v>
       </c>
       <c r="F34" t="n">
-        <v>79.56873380428259</v>
+        <v>79.56873380428257</v>
       </c>
       <c r="G34" t="n">
-        <v>79.56873380428259</v>
+        <v>79.56873380428257</v>
       </c>
       <c r="H34" t="n">
-        <v>79.56873380428259</v>
+        <v>79.56873380428257</v>
       </c>
       <c r="I34" t="n">
-        <v>79.56873380428259</v>
+        <v>79.56873380428257</v>
       </c>
       <c r="J34" t="n">
-        <v>79.56873380428259</v>
+        <v>79.56873380428257</v>
       </c>
       <c r="K34" t="n">
-        <v>79.56873380428259</v>
+        <v>79.56873380428257</v>
       </c>
       <c r="L34" t="n">
-        <v>79.56873380428259</v>
+        <v>79.56873380428257</v>
       </c>
       <c r="M34" t="n">
-        <v>79.56873380428259</v>
+        <v>79.56873380428257</v>
       </c>
       <c r="N34" t="n">
-        <v>79.56873380428259</v>
+        <v>79.56873380428257</v>
       </c>
       <c r="O34" t="n">
-        <v>79.56873380428259</v>
+        <v>79.5687338042826</v>
       </c>
       <c r="P34" t="n">
-        <v>79.56873380428259</v>
+        <v>79.56873380428257</v>
       </c>
       <c r="Q34" t="n">
-        <v>79.56873380428259</v>
+        <v>79.56873380428257</v>
       </c>
       <c r="R34" t="n">
-        <v>79.56873380428259</v>
+        <v>79.56873380428257</v>
       </c>
       <c r="S34" t="n">
-        <v>79.56873380428259</v>
+        <v>79.56873380428257</v>
       </c>
       <c r="T34" t="n">
-        <v>79.56873380428259</v>
+        <v>79.56873380428257</v>
       </c>
       <c r="U34" t="n">
-        <v>79.56873380428259</v>
+        <v>79.56873380428257</v>
       </c>
       <c r="V34" t="n">
-        <v>79.56873380428259</v>
+        <v>79.56873380428257</v>
       </c>
       <c r="W34" t="n">
-        <v>79.56873380428259</v>
+        <v>79.56873380428257</v>
       </c>
       <c r="X34" t="n">
-        <v>79.56873380428259</v>
+        <v>79.56873380428257</v>
       </c>
       <c r="Y34" t="n">
-        <v>79.56873380428259</v>
+        <v>79.56873380428257</v>
       </c>
     </row>
     <row r="35">
@@ -30004,7 +30004,7 @@
         <v>145.7958694742563</v>
       </c>
       <c r="I35" t="n">
-        <v>103.5115023046919</v>
+        <v>103.511502304692</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30141,7 +30141,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>145.7958694742563</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>145.7958694742563</v>
@@ -30156,7 +30156,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>145.7958694742563</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>145.7958694742563</v>
@@ -30165,7 +30165,7 @@
         <v>118.0234404586545</v>
       </c>
       <c r="J37" t="n">
-        <v>5.369444003513266</v>
+        <v>5.36944400351328</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -30189,19 +30189,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>121.3338652339669</v>
+        <v>24.52062411489102</v>
       </c>
       <c r="S37" t="n">
-        <v>48.98262835518005</v>
+        <v>145.7958694742563</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>145.7958694742563</v>
       </c>
       <c r="U37" t="n">
         <v>145.7958694742563</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>145.7958694742563</v>
       </c>
       <c r="W37" t="n">
         <v>145.7958694742563</v>
@@ -30241,7 +30241,7 @@
         <v>145.7958694742563</v>
       </c>
       <c r="I38" t="n">
-        <v>103.5115023046919</v>
+        <v>103.511502304692</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30381,7 +30381,7 @@
         <v>145.7958694742563</v>
       </c>
       <c r="C40" t="n">
-        <v>145.7958694742563</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>145.7958694742563</v>
@@ -30390,10 +30390,10 @@
         <v>145.7958694742563</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>145.7958694742563</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>145.7958694742563</v>
@@ -30402,7 +30402,7 @@
         <v>118.0234404586545</v>
       </c>
       <c r="J40" t="n">
-        <v>5.369444003513266</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -30429,7 +30429,7 @@
         <v>121.3338652339669</v>
       </c>
       <c r="S40" t="n">
-        <v>48.60780690385479</v>
+        <v>145.7958694742563</v>
       </c>
       <c r="T40" t="n">
         <v>145.7958694742563</v>
@@ -30438,10 +30438,10 @@
         <v>145.7958694742563</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>145.7958694742563</v>
       </c>
       <c r="W40" t="n">
-        <v>145.7958694742563</v>
+        <v>54.35207235869422</v>
       </c>
       <c r="X40" t="n">
         <v>145.7958694742563</v>
@@ -30478,7 +30478,7 @@
         <v>145.7958694742563</v>
       </c>
       <c r="I41" t="n">
-        <v>103.5115023046919</v>
+        <v>103.511502304692</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30615,19 +30615,19 @@
         </is>
       </c>
       <c r="B43" t="n">
+        <v>0</v>
+      </c>
+      <c r="C43" t="n">
         <v>145.7958694742563</v>
       </c>
-      <c r="C43" t="n">
-        <v>54.35207235869323</v>
-      </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>145.7958694742563</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>48.60780690385511</v>
       </c>
       <c r="G43" t="n">
         <v>145.7958694742563</v>
@@ -30639,7 +30639,7 @@
         <v>118.0234404586545</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>5.36944400351328</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -30715,7 +30715,7 @@
         <v>145.7958694742563</v>
       </c>
       <c r="I44" t="n">
-        <v>103.5115023046919</v>
+        <v>103.511502304692</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30852,7 +30852,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>48.98262835518017</v>
+        <v>145.7958694742563</v>
       </c>
       <c r="C46" t="n">
         <v>145.7958694742563</v>
@@ -30861,7 +30861,7 @@
         <v>145.7958694742563</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>145.7958694742563</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -30873,10 +30873,10 @@
         <v>145.7958694742563</v>
       </c>
       <c r="I46" t="n">
-        <v>118.0234404586545</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>5.369444003513266</v>
+        <v>5.36944400351328</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -30903,10 +30903,10 @@
         <v>121.3338652339669</v>
       </c>
       <c r="S46" t="n">
-        <v>145.7958694742563</v>
+        <v>21.21019933957845</v>
       </c>
       <c r="T46" t="n">
-        <v>145.7958694742563</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>145.7958694742563</v>
@@ -30921,7 +30921,7 @@
         <v>145.7958694742563</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>145.7958694742563</v>
       </c>
     </row>
   </sheetData>
@@ -31750,34 +31750,34 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>2.774512347207415</v>
+        <v>2.774512347207414</v>
       </c>
       <c r="H11" t="n">
-        <v>28.41447457583795</v>
+        <v>28.41447457583794</v>
       </c>
       <c r="I11" t="n">
         <v>106.964387265714</v>
       </c>
       <c r="J11" t="n">
-        <v>235.4832673287956</v>
+        <v>235.4832673287955</v>
       </c>
       <c r="K11" t="n">
-        <v>352.9283749860855</v>
+        <v>352.9283749860854</v>
       </c>
       <c r="L11" t="n">
         <v>437.8388572319345</v>
       </c>
       <c r="M11" t="n">
-        <v>487.1800911865844</v>
+        <v>487.1800911865843</v>
       </c>
       <c r="N11" t="n">
-        <v>495.0631743930875</v>
+        <v>495.0631743930874</v>
       </c>
       <c r="O11" t="n">
-        <v>467.4741172405437</v>
+        <v>467.4741172405436</v>
       </c>
       <c r="P11" t="n">
-        <v>398.9783436688606</v>
+        <v>398.9783436688605</v>
       </c>
       <c r="Q11" t="n">
         <v>299.6161202344949</v>
@@ -31786,10 +31786,10 @@
         <v>174.2844612302679</v>
       </c>
       <c r="S11" t="n">
-        <v>63.22420011198903</v>
+        <v>63.22420011198902</v>
       </c>
       <c r="T11" t="n">
-        <v>12.14542779990047</v>
+        <v>12.14542779990046</v>
       </c>
       <c r="U11" t="n">
         <v>0.2219609877765931</v>
@@ -31835,7 +31835,7 @@
         <v>14.33709624435844</v>
       </c>
       <c r="I12" t="n">
-        <v>51.11090168856212</v>
+        <v>51.11090168856211</v>
       </c>
       <c r="J12" t="n">
         <v>140.2522207991486</v>
@@ -31847,31 +31847,31 @@
         <v>322.3242277824544</v>
       </c>
       <c r="M12" t="n">
-        <v>376.1371707704755</v>
+        <v>376.1371707704754</v>
       </c>
       <c r="N12" t="n">
-        <v>386.0924024496872</v>
+        <v>386.0924024496871</v>
       </c>
       <c r="O12" t="n">
-        <v>353.1991189680801</v>
+        <v>353.19911896808</v>
       </c>
       <c r="P12" t="n">
-        <v>283.473431556257</v>
+        <v>283.4734315562569</v>
       </c>
       <c r="Q12" t="n">
         <v>189.4944818782053</v>
       </c>
       <c r="R12" t="n">
-        <v>92.16890755455866</v>
+        <v>92.16890755455864</v>
       </c>
       <c r="S12" t="n">
-        <v>27.57384314026247</v>
+        <v>27.57384314026246</v>
       </c>
       <c r="T12" t="n">
-        <v>5.983556516151409</v>
+        <v>5.983556516151408</v>
       </c>
       <c r="U12" t="n">
-        <v>0.09766414335394037</v>
+        <v>0.09766414335394036</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31914,10 +31914,10 @@
         <v>11.06518733684841</v>
       </c>
       <c r="I13" t="n">
-        <v>37.4270344686038</v>
+        <v>37.42703446860379</v>
       </c>
       <c r="J13" t="n">
-        <v>87.98973611315951</v>
+        <v>87.98973611315949</v>
       </c>
       <c r="K13" t="n">
         <v>144.5941658128042</v>
@@ -31935,7 +31935,7 @@
         <v>175.9115876414304</v>
       </c>
       <c r="P13" t="n">
-        <v>150.5227528930788</v>
+        <v>150.5227528930787</v>
       </c>
       <c r="Q13" t="n">
         <v>104.2141519015446</v>
@@ -31944,13 +31944,13 @@
         <v>55.95952614320262</v>
       </c>
       <c r="S13" t="n">
-        <v>21.68912487192063</v>
+        <v>21.68912487192062</v>
       </c>
       <c r="T13" t="n">
-        <v>5.317625816276837</v>
+        <v>5.317625816276836</v>
       </c>
       <c r="U13" t="n">
-        <v>0.06788458488864056</v>
+        <v>0.06788458488864055</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,34 +31987,34 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>2.774512347207415</v>
+        <v>2.774512347207414</v>
       </c>
       <c r="H14" t="n">
-        <v>28.41447457583795</v>
+        <v>28.41447457583794</v>
       </c>
       <c r="I14" t="n">
         <v>106.964387265714</v>
       </c>
       <c r="J14" t="n">
-        <v>235.4832673287956</v>
+        <v>235.4832673287955</v>
       </c>
       <c r="K14" t="n">
-        <v>352.9283749860855</v>
+        <v>352.9283749860854</v>
       </c>
       <c r="L14" t="n">
         <v>437.8388572319345</v>
       </c>
       <c r="M14" t="n">
-        <v>487.1800911865844</v>
+        <v>487.1800911865843</v>
       </c>
       <c r="N14" t="n">
-        <v>495.0631743930875</v>
+        <v>495.0631743930874</v>
       </c>
       <c r="O14" t="n">
-        <v>467.4741172405437</v>
+        <v>467.4741172405436</v>
       </c>
       <c r="P14" t="n">
-        <v>398.9783436688606</v>
+        <v>398.9783436688605</v>
       </c>
       <c r="Q14" t="n">
         <v>299.6161202344949</v>
@@ -32023,10 +32023,10 @@
         <v>174.2844612302679</v>
       </c>
       <c r="S14" t="n">
-        <v>63.22420011198903</v>
+        <v>63.22420011198902</v>
       </c>
       <c r="T14" t="n">
-        <v>12.14542779990047</v>
+        <v>12.14542779990046</v>
       </c>
       <c r="U14" t="n">
         <v>0.2219609877765931</v>
@@ -32072,7 +32072,7 @@
         <v>14.33709624435844</v>
       </c>
       <c r="I15" t="n">
-        <v>51.11090168856212</v>
+        <v>51.11090168856211</v>
       </c>
       <c r="J15" t="n">
         <v>140.2522207991486</v>
@@ -32084,31 +32084,31 @@
         <v>322.3242277824544</v>
       </c>
       <c r="M15" t="n">
-        <v>376.1371707704755</v>
+        <v>376.1371707704754</v>
       </c>
       <c r="N15" t="n">
-        <v>386.0924024496872</v>
+        <v>386.0924024496871</v>
       </c>
       <c r="O15" t="n">
-        <v>353.1991189680801</v>
+        <v>353.19911896808</v>
       </c>
       <c r="P15" t="n">
-        <v>283.473431556257</v>
+        <v>283.4734315562569</v>
       </c>
       <c r="Q15" t="n">
         <v>189.4944818782053</v>
       </c>
       <c r="R15" t="n">
-        <v>92.16890755455866</v>
+        <v>92.16890755455864</v>
       </c>
       <c r="S15" t="n">
-        <v>27.57384314026247</v>
+        <v>27.57384314026246</v>
       </c>
       <c r="T15" t="n">
-        <v>5.983556516151409</v>
+        <v>5.983556516151408</v>
       </c>
       <c r="U15" t="n">
-        <v>0.09766414335394037</v>
+        <v>0.09766414335394036</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32151,10 +32151,10 @@
         <v>11.06518733684841</v>
       </c>
       <c r="I16" t="n">
-        <v>37.4270344686038</v>
+        <v>37.42703446860379</v>
       </c>
       <c r="J16" t="n">
-        <v>87.98973611315951</v>
+        <v>87.98973611315949</v>
       </c>
       <c r="K16" t="n">
         <v>144.5941658128042</v>
@@ -32172,7 +32172,7 @@
         <v>175.9115876414304</v>
       </c>
       <c r="P16" t="n">
-        <v>150.5227528930788</v>
+        <v>150.5227528930787</v>
       </c>
       <c r="Q16" t="n">
         <v>104.2141519015446</v>
@@ -32181,13 +32181,13 @@
         <v>55.95952614320262</v>
       </c>
       <c r="S16" t="n">
-        <v>21.68912487192063</v>
+        <v>21.68912487192062</v>
       </c>
       <c r="T16" t="n">
-        <v>5.317625816276837</v>
+        <v>5.317625816276836</v>
       </c>
       <c r="U16" t="n">
-        <v>0.06788458488864056</v>
+        <v>0.06788458488864055</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,34 +32224,34 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>2.774512347207415</v>
+        <v>2.774512347207414</v>
       </c>
       <c r="H17" t="n">
-        <v>28.41447457583795</v>
+        <v>28.41447457583794</v>
       </c>
       <c r="I17" t="n">
         <v>106.964387265714</v>
       </c>
       <c r="J17" t="n">
-        <v>235.4832673287956</v>
+        <v>235.4832673287955</v>
       </c>
       <c r="K17" t="n">
-        <v>352.9283749860855</v>
+        <v>352.9283749860854</v>
       </c>
       <c r="L17" t="n">
         <v>437.8388572319345</v>
       </c>
       <c r="M17" t="n">
-        <v>487.1800911865844</v>
+        <v>487.1800911865843</v>
       </c>
       <c r="N17" t="n">
-        <v>495.0631743930875</v>
+        <v>495.0631743930874</v>
       </c>
       <c r="O17" t="n">
-        <v>467.4741172405437</v>
+        <v>467.4741172405436</v>
       </c>
       <c r="P17" t="n">
-        <v>398.9783436688606</v>
+        <v>398.9783436688605</v>
       </c>
       <c r="Q17" t="n">
         <v>299.6161202344949</v>
@@ -32260,10 +32260,10 @@
         <v>174.2844612302679</v>
       </c>
       <c r="S17" t="n">
-        <v>63.22420011198903</v>
+        <v>63.22420011198902</v>
       </c>
       <c r="T17" t="n">
-        <v>12.14542779990047</v>
+        <v>12.14542779990046</v>
       </c>
       <c r="U17" t="n">
         <v>0.2219609877765931</v>
@@ -32309,7 +32309,7 @@
         <v>14.33709624435844</v>
       </c>
       <c r="I18" t="n">
-        <v>51.11090168856212</v>
+        <v>51.11090168856211</v>
       </c>
       <c r="J18" t="n">
         <v>140.2522207991486</v>
@@ -32321,31 +32321,31 @@
         <v>322.3242277824544</v>
       </c>
       <c r="M18" t="n">
-        <v>376.1371707704755</v>
+        <v>376.1371707704754</v>
       </c>
       <c r="N18" t="n">
-        <v>386.0924024496872</v>
+        <v>386.0924024496871</v>
       </c>
       <c r="O18" t="n">
-        <v>353.1991189680801</v>
+        <v>353.19911896808</v>
       </c>
       <c r="P18" t="n">
-        <v>283.473431556257</v>
+        <v>283.4734315562569</v>
       </c>
       <c r="Q18" t="n">
         <v>189.4944818782053</v>
       </c>
       <c r="R18" t="n">
-        <v>92.16890755455866</v>
+        <v>92.16890755455864</v>
       </c>
       <c r="S18" t="n">
-        <v>27.57384314026247</v>
+        <v>27.57384314026246</v>
       </c>
       <c r="T18" t="n">
-        <v>5.983556516151409</v>
+        <v>5.983556516151408</v>
       </c>
       <c r="U18" t="n">
-        <v>0.09766414335394037</v>
+        <v>0.09766414335394036</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32388,10 +32388,10 @@
         <v>11.06518733684841</v>
       </c>
       <c r="I19" t="n">
-        <v>37.4270344686038</v>
+        <v>37.42703446860379</v>
       </c>
       <c r="J19" t="n">
-        <v>87.98973611315951</v>
+        <v>87.98973611315949</v>
       </c>
       <c r="K19" t="n">
         <v>144.5941658128042</v>
@@ -32409,7 +32409,7 @@
         <v>175.9115876414304</v>
       </c>
       <c r="P19" t="n">
-        <v>150.5227528930788</v>
+        <v>150.5227528930787</v>
       </c>
       <c r="Q19" t="n">
         <v>104.2141519015446</v>
@@ -32418,13 +32418,13 @@
         <v>55.95952614320262</v>
       </c>
       <c r="S19" t="n">
-        <v>21.68912487192063</v>
+        <v>21.68912487192062</v>
       </c>
       <c r="T19" t="n">
-        <v>5.317625816276837</v>
+        <v>5.317625816276836</v>
       </c>
       <c r="U19" t="n">
-        <v>0.06788458488864056</v>
+        <v>0.06788458488864055</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,34 +32461,34 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>2.774512347207415</v>
+        <v>2.774512347207414</v>
       </c>
       <c r="H20" t="n">
-        <v>28.41447457583795</v>
+        <v>28.41447457583794</v>
       </c>
       <c r="I20" t="n">
         <v>106.964387265714</v>
       </c>
       <c r="J20" t="n">
-        <v>235.4832673287956</v>
+        <v>235.4832673287955</v>
       </c>
       <c r="K20" t="n">
-        <v>352.9283749860855</v>
+        <v>352.9283749860854</v>
       </c>
       <c r="L20" t="n">
         <v>437.8388572319345</v>
       </c>
       <c r="M20" t="n">
-        <v>487.1800911865844</v>
+        <v>487.1800911865843</v>
       </c>
       <c r="N20" t="n">
-        <v>495.0631743930875</v>
+        <v>495.0631743930874</v>
       </c>
       <c r="O20" t="n">
-        <v>467.4741172405437</v>
+        <v>467.4741172405436</v>
       </c>
       <c r="P20" t="n">
-        <v>398.9783436688606</v>
+        <v>398.9783436688605</v>
       </c>
       <c r="Q20" t="n">
         <v>299.6161202344949</v>
@@ -32497,10 +32497,10 @@
         <v>174.2844612302679</v>
       </c>
       <c r="S20" t="n">
-        <v>63.22420011198903</v>
+        <v>63.22420011198902</v>
       </c>
       <c r="T20" t="n">
-        <v>12.14542779990047</v>
+        <v>12.14542779990046</v>
       </c>
       <c r="U20" t="n">
         <v>0.2219609877765931</v>
@@ -32546,7 +32546,7 @@
         <v>14.33709624435844</v>
       </c>
       <c r="I21" t="n">
-        <v>51.11090168856212</v>
+        <v>51.11090168856211</v>
       </c>
       <c r="J21" t="n">
         <v>140.2522207991486</v>
@@ -32558,31 +32558,31 @@
         <v>322.3242277824544</v>
       </c>
       <c r="M21" t="n">
-        <v>376.1371707704755</v>
+        <v>376.1371707704754</v>
       </c>
       <c r="N21" t="n">
-        <v>386.0924024496872</v>
+        <v>386.0924024496871</v>
       </c>
       <c r="O21" t="n">
-        <v>353.1991189680801</v>
+        <v>353.19911896808</v>
       </c>
       <c r="P21" t="n">
-        <v>283.473431556257</v>
+        <v>283.4734315562569</v>
       </c>
       <c r="Q21" t="n">
         <v>189.4944818782053</v>
       </c>
       <c r="R21" t="n">
-        <v>92.16890755455866</v>
+        <v>92.16890755455864</v>
       </c>
       <c r="S21" t="n">
-        <v>27.57384314026247</v>
+        <v>27.57384314026246</v>
       </c>
       <c r="T21" t="n">
-        <v>5.983556516151409</v>
+        <v>5.983556516151408</v>
       </c>
       <c r="U21" t="n">
-        <v>0.09766414335394037</v>
+        <v>0.09766414335394036</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32625,10 +32625,10 @@
         <v>11.06518733684841</v>
       </c>
       <c r="I22" t="n">
-        <v>37.4270344686038</v>
+        <v>37.42703446860379</v>
       </c>
       <c r="J22" t="n">
-        <v>87.98973611315951</v>
+        <v>87.98973611315949</v>
       </c>
       <c r="K22" t="n">
         <v>144.5941658128042</v>
@@ -32646,7 +32646,7 @@
         <v>175.9115876414304</v>
       </c>
       <c r="P22" t="n">
-        <v>150.5227528930788</v>
+        <v>150.5227528930787</v>
       </c>
       <c r="Q22" t="n">
         <v>104.2141519015446</v>
@@ -32655,13 +32655,13 @@
         <v>55.95952614320262</v>
       </c>
       <c r="S22" t="n">
-        <v>21.68912487192063</v>
+        <v>21.68912487192062</v>
       </c>
       <c r="T22" t="n">
-        <v>5.317625816276837</v>
+        <v>5.317625816276836</v>
       </c>
       <c r="U22" t="n">
-        <v>0.06788458488864056</v>
+        <v>0.06788458488864055</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,34 +32698,34 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>2.774512347207415</v>
+        <v>2.774512347207414</v>
       </c>
       <c r="H23" t="n">
-        <v>28.41447457583795</v>
+        <v>28.41447457583794</v>
       </c>
       <c r="I23" t="n">
         <v>106.964387265714</v>
       </c>
       <c r="J23" t="n">
-        <v>235.4832673287956</v>
+        <v>235.4832673287955</v>
       </c>
       <c r="K23" t="n">
-        <v>352.9283749860855</v>
+        <v>352.9283749860854</v>
       </c>
       <c r="L23" t="n">
         <v>437.8388572319345</v>
       </c>
       <c r="M23" t="n">
-        <v>487.1800911865844</v>
+        <v>487.1800911865843</v>
       </c>
       <c r="N23" t="n">
-        <v>495.0631743930875</v>
+        <v>495.0631743930874</v>
       </c>
       <c r="O23" t="n">
-        <v>467.4741172405437</v>
+        <v>467.4741172405436</v>
       </c>
       <c r="P23" t="n">
-        <v>398.9783436688606</v>
+        <v>398.9783436688605</v>
       </c>
       <c r="Q23" t="n">
         <v>299.6161202344949</v>
@@ -32734,10 +32734,10 @@
         <v>174.2844612302679</v>
       </c>
       <c r="S23" t="n">
-        <v>63.22420011198903</v>
+        <v>63.22420011198902</v>
       </c>
       <c r="T23" t="n">
-        <v>12.14542779990047</v>
+        <v>12.14542779990046</v>
       </c>
       <c r="U23" t="n">
         <v>0.2219609877765931</v>
@@ -32783,7 +32783,7 @@
         <v>14.33709624435844</v>
       </c>
       <c r="I24" t="n">
-        <v>51.11090168856212</v>
+        <v>51.11090168856211</v>
       </c>
       <c r="J24" t="n">
         <v>140.2522207991486</v>
@@ -32795,31 +32795,31 @@
         <v>322.3242277824544</v>
       </c>
       <c r="M24" t="n">
-        <v>376.1371707704755</v>
+        <v>376.1371707704754</v>
       </c>
       <c r="N24" t="n">
-        <v>386.0924024496872</v>
+        <v>386.0924024496871</v>
       </c>
       <c r="O24" t="n">
-        <v>353.1991189680801</v>
+        <v>353.19911896808</v>
       </c>
       <c r="P24" t="n">
-        <v>283.473431556257</v>
+        <v>283.4734315562569</v>
       </c>
       <c r="Q24" t="n">
         <v>189.4944818782053</v>
       </c>
       <c r="R24" t="n">
-        <v>92.16890755455866</v>
+        <v>92.16890755455864</v>
       </c>
       <c r="S24" t="n">
-        <v>27.57384314026247</v>
+        <v>27.57384314026246</v>
       </c>
       <c r="T24" t="n">
-        <v>5.983556516151409</v>
+        <v>5.983556516151408</v>
       </c>
       <c r="U24" t="n">
-        <v>0.09766414335394037</v>
+        <v>0.09766414335394036</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32862,10 +32862,10 @@
         <v>11.06518733684841</v>
       </c>
       <c r="I25" t="n">
-        <v>37.4270344686038</v>
+        <v>37.42703446860379</v>
       </c>
       <c r="J25" t="n">
-        <v>87.98973611315951</v>
+        <v>87.98973611315949</v>
       </c>
       <c r="K25" t="n">
         <v>144.5941658128042</v>
@@ -32883,7 +32883,7 @@
         <v>175.9115876414304</v>
       </c>
       <c r="P25" t="n">
-        <v>150.5227528930788</v>
+        <v>150.5227528930787</v>
       </c>
       <c r="Q25" t="n">
         <v>104.2141519015446</v>
@@ -32892,13 +32892,13 @@
         <v>55.95952614320262</v>
       </c>
       <c r="S25" t="n">
-        <v>21.68912487192063</v>
+        <v>21.68912487192062</v>
       </c>
       <c r="T25" t="n">
-        <v>5.317625816276837</v>
+        <v>5.317625816276836</v>
       </c>
       <c r="U25" t="n">
-        <v>0.06788458488864056</v>
+        <v>0.06788458488864055</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>2.774512347207415</v>
+        <v>2.774512347207414</v>
       </c>
       <c r="H26" t="n">
-        <v>28.41447457583795</v>
+        <v>28.41447457583794</v>
       </c>
       <c r="I26" t="n">
         <v>106.964387265714</v>
       </c>
       <c r="J26" t="n">
-        <v>235.4832673287956</v>
+        <v>235.4832673287955</v>
       </c>
       <c r="K26" t="n">
-        <v>352.9283749860855</v>
+        <v>352.9283749860854</v>
       </c>
       <c r="L26" t="n">
-        <v>437.8388572319346</v>
+        <v>437.8388572319345</v>
       </c>
       <c r="M26" t="n">
-        <v>487.1800911865844</v>
+        <v>487.1800911865843</v>
       </c>
       <c r="N26" t="n">
-        <v>495.0631743930875</v>
+        <v>495.0631743930874</v>
       </c>
       <c r="O26" t="n">
-        <v>467.4741172405438</v>
+        <v>467.4741172405436</v>
       </c>
       <c r="P26" t="n">
-        <v>398.9783436688606</v>
+        <v>398.9783436688605</v>
       </c>
       <c r="Q26" t="n">
-        <v>299.616120234495</v>
+        <v>299.6161202344949</v>
       </c>
       <c r="R26" t="n">
-        <v>174.284461230268</v>
+        <v>174.2844612302679</v>
       </c>
       <c r="S26" t="n">
-        <v>63.22420011198904</v>
+        <v>63.22420011198902</v>
       </c>
       <c r="T26" t="n">
-        <v>12.14542779990047</v>
+        <v>12.14542779990046</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2219609877765932</v>
+        <v>0.2219609877765931</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33017,46 +33017,46 @@
         <v>1.484494978979893</v>
       </c>
       <c r="H27" t="n">
-        <v>14.33709624435845</v>
+        <v>14.33709624435844</v>
       </c>
       <c r="I27" t="n">
-        <v>51.11090168856212</v>
+        <v>51.11090168856211</v>
       </c>
       <c r="J27" t="n">
         <v>140.2522207991486</v>
       </c>
       <c r="K27" t="n">
-        <v>239.7133843908015</v>
+        <v>239.7133843908014</v>
       </c>
       <c r="L27" t="n">
-        <v>322.3242277824545</v>
+        <v>322.3242277824544</v>
       </c>
       <c r="M27" t="n">
-        <v>376.1371707704756</v>
+        <v>376.1371707704754</v>
       </c>
       <c r="N27" t="n">
-        <v>386.0924024496873</v>
+        <v>386.0924024496871</v>
       </c>
       <c r="O27" t="n">
-        <v>353.1991189680801</v>
+        <v>353.19911896808</v>
       </c>
       <c r="P27" t="n">
-        <v>283.473431556257</v>
+        <v>283.4734315562569</v>
       </c>
       <c r="Q27" t="n">
         <v>189.4944818782053</v>
       </c>
       <c r="R27" t="n">
-        <v>92.16890755455867</v>
+        <v>92.16890755455864</v>
       </c>
       <c r="S27" t="n">
-        <v>27.57384314026248</v>
+        <v>27.57384314026246</v>
       </c>
       <c r="T27" t="n">
-        <v>5.98355651615141</v>
+        <v>5.983556516151408</v>
       </c>
       <c r="U27" t="n">
-        <v>0.09766414335394039</v>
+        <v>0.09766414335394036</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33099,10 +33099,10 @@
         <v>11.06518733684841</v>
       </c>
       <c r="I28" t="n">
-        <v>37.42703446860381</v>
+        <v>37.42703446860379</v>
       </c>
       <c r="J28" t="n">
-        <v>87.98973611315952</v>
+        <v>87.98973611315949</v>
       </c>
       <c r="K28" t="n">
         <v>144.5941658128042</v>
@@ -33114,28 +33114,28 @@
         <v>195.0889828724713</v>
       </c>
       <c r="N28" t="n">
-        <v>190.4502029050811</v>
+        <v>190.450202905081</v>
       </c>
       <c r="O28" t="n">
-        <v>175.9115876414305</v>
+        <v>175.9115876414304</v>
       </c>
       <c r="P28" t="n">
-        <v>150.5227528930788</v>
+        <v>150.5227528930787</v>
       </c>
       <c r="Q28" t="n">
         <v>104.2141519015446</v>
       </c>
       <c r="R28" t="n">
-        <v>55.95952614320264</v>
+        <v>55.95952614320262</v>
       </c>
       <c r="S28" t="n">
-        <v>21.68912487192063</v>
+        <v>21.68912487192062</v>
       </c>
       <c r="T28" t="n">
-        <v>5.317625816276838</v>
+        <v>5.317625816276836</v>
       </c>
       <c r="U28" t="n">
-        <v>0.06788458488864058</v>
+        <v>0.06788458488864055</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,34 +33172,34 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>2.774512347207415</v>
+        <v>2.774512347207414</v>
       </c>
       <c r="H29" t="n">
-        <v>28.41447457583795</v>
+        <v>28.41447457583794</v>
       </c>
       <c r="I29" t="n">
         <v>106.964387265714</v>
       </c>
       <c r="J29" t="n">
-        <v>235.4832673287956</v>
+        <v>235.4832673287955</v>
       </c>
       <c r="K29" t="n">
-        <v>352.9283749860855</v>
+        <v>352.9283749860854</v>
       </c>
       <c r="L29" t="n">
         <v>437.8388572319345</v>
       </c>
       <c r="M29" t="n">
-        <v>487.1800911865844</v>
+        <v>487.1800911865843</v>
       </c>
       <c r="N29" t="n">
-        <v>495.0631743930875</v>
+        <v>495.0631743930874</v>
       </c>
       <c r="O29" t="n">
-        <v>467.4741172405437</v>
+        <v>467.4741172405436</v>
       </c>
       <c r="P29" t="n">
-        <v>398.9783436688606</v>
+        <v>398.9783436688605</v>
       </c>
       <c r="Q29" t="n">
         <v>299.6161202344949</v>
@@ -33208,10 +33208,10 @@
         <v>174.2844612302679</v>
       </c>
       <c r="S29" t="n">
-        <v>63.22420011198903</v>
+        <v>63.22420011198902</v>
       </c>
       <c r="T29" t="n">
-        <v>12.14542779990047</v>
+        <v>12.14542779990046</v>
       </c>
       <c r="U29" t="n">
         <v>0.2219609877765931</v>
@@ -33257,7 +33257,7 @@
         <v>14.33709624435844</v>
       </c>
       <c r="I30" t="n">
-        <v>51.11090168856212</v>
+        <v>51.11090168856211</v>
       </c>
       <c r="J30" t="n">
         <v>140.2522207991486</v>
@@ -33269,31 +33269,31 @@
         <v>322.3242277824544</v>
       </c>
       <c r="M30" t="n">
-        <v>376.1371707704755</v>
+        <v>376.1371707704754</v>
       </c>
       <c r="N30" t="n">
-        <v>386.0924024496872</v>
+        <v>386.0924024496871</v>
       </c>
       <c r="O30" t="n">
-        <v>353.1991189680801</v>
+        <v>353.19911896808</v>
       </c>
       <c r="P30" t="n">
-        <v>283.473431556257</v>
+        <v>283.4734315562569</v>
       </c>
       <c r="Q30" t="n">
         <v>189.4944818782053</v>
       </c>
       <c r="R30" t="n">
-        <v>92.16890755455866</v>
+        <v>92.16890755455864</v>
       </c>
       <c r="S30" t="n">
-        <v>27.57384314026247</v>
+        <v>27.57384314026246</v>
       </c>
       <c r="T30" t="n">
-        <v>5.983556516151409</v>
+        <v>5.983556516151408</v>
       </c>
       <c r="U30" t="n">
-        <v>0.09766414335394037</v>
+        <v>0.09766414335394036</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33336,10 +33336,10 @@
         <v>11.06518733684841</v>
       </c>
       <c r="I31" t="n">
-        <v>37.4270344686038</v>
+        <v>37.42703446860379</v>
       </c>
       <c r="J31" t="n">
-        <v>87.98973611315951</v>
+        <v>87.98973611315949</v>
       </c>
       <c r="K31" t="n">
         <v>144.5941658128042</v>
@@ -33357,7 +33357,7 @@
         <v>175.9115876414304</v>
       </c>
       <c r="P31" t="n">
-        <v>150.5227528930788</v>
+        <v>150.5227528930787</v>
       </c>
       <c r="Q31" t="n">
         <v>104.2141519015446</v>
@@ -33366,13 +33366,13 @@
         <v>55.95952614320262</v>
       </c>
       <c r="S31" t="n">
-        <v>21.68912487192063</v>
+        <v>21.68912487192062</v>
       </c>
       <c r="T31" t="n">
-        <v>5.317625816276837</v>
+        <v>5.317625816276836</v>
       </c>
       <c r="U31" t="n">
-        <v>0.06788458488864056</v>
+        <v>0.06788458488864055</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,34 +33409,34 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>2.774512347207415</v>
+        <v>2.774512347207414</v>
       </c>
       <c r="H32" t="n">
-        <v>28.41447457583795</v>
+        <v>28.41447457583794</v>
       </c>
       <c r="I32" t="n">
         <v>106.964387265714</v>
       </c>
       <c r="J32" t="n">
-        <v>235.4832673287956</v>
+        <v>235.4832673287955</v>
       </c>
       <c r="K32" t="n">
-        <v>352.9283749860855</v>
+        <v>352.9283749860854</v>
       </c>
       <c r="L32" t="n">
         <v>437.8388572319345</v>
       </c>
       <c r="M32" t="n">
-        <v>487.1800911865844</v>
+        <v>487.1800911865843</v>
       </c>
       <c r="N32" t="n">
-        <v>495.0631743930875</v>
+        <v>495.0631743930874</v>
       </c>
       <c r="O32" t="n">
-        <v>467.4741172405437</v>
+        <v>467.4741172405436</v>
       </c>
       <c r="P32" t="n">
-        <v>398.9783436688606</v>
+        <v>398.9783436688605</v>
       </c>
       <c r="Q32" t="n">
         <v>299.6161202344949</v>
@@ -33445,10 +33445,10 @@
         <v>174.2844612302679</v>
       </c>
       <c r="S32" t="n">
-        <v>63.22420011198903</v>
+        <v>63.22420011198902</v>
       </c>
       <c r="T32" t="n">
-        <v>12.14542779990047</v>
+        <v>12.14542779990046</v>
       </c>
       <c r="U32" t="n">
         <v>0.2219609877765931</v>
@@ -33494,7 +33494,7 @@
         <v>14.33709624435844</v>
       </c>
       <c r="I33" t="n">
-        <v>51.11090168856212</v>
+        <v>51.11090168856211</v>
       </c>
       <c r="J33" t="n">
         <v>140.2522207991486</v>
@@ -33506,31 +33506,31 @@
         <v>322.3242277824544</v>
       </c>
       <c r="M33" t="n">
-        <v>376.1371707704755</v>
+        <v>376.1371707704754</v>
       </c>
       <c r="N33" t="n">
-        <v>386.0924024496872</v>
+        <v>386.0924024496871</v>
       </c>
       <c r="O33" t="n">
-        <v>353.1991189680801</v>
+        <v>353.19911896808</v>
       </c>
       <c r="P33" t="n">
-        <v>283.473431556257</v>
+        <v>283.4734315562569</v>
       </c>
       <c r="Q33" t="n">
         <v>189.4944818782053</v>
       </c>
       <c r="R33" t="n">
-        <v>92.16890755455866</v>
+        <v>92.16890755455864</v>
       </c>
       <c r="S33" t="n">
-        <v>27.57384314026247</v>
+        <v>27.57384314026246</v>
       </c>
       <c r="T33" t="n">
-        <v>5.983556516151409</v>
+        <v>5.983556516151408</v>
       </c>
       <c r="U33" t="n">
-        <v>0.09766414335394037</v>
+        <v>0.09766414335394036</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33573,10 +33573,10 @@
         <v>11.06518733684841</v>
       </c>
       <c r="I34" t="n">
-        <v>37.4270344686038</v>
+        <v>37.42703446860379</v>
       </c>
       <c r="J34" t="n">
-        <v>87.98973611315951</v>
+        <v>87.98973611315949</v>
       </c>
       <c r="K34" t="n">
         <v>144.5941658128042</v>
@@ -33594,7 +33594,7 @@
         <v>175.9115876414304</v>
       </c>
       <c r="P34" t="n">
-        <v>150.5227528930788</v>
+        <v>150.5227528930787</v>
       </c>
       <c r="Q34" t="n">
         <v>104.2141519015446</v>
@@ -33603,13 +33603,13 @@
         <v>55.95952614320262</v>
       </c>
       <c r="S34" t="n">
-        <v>21.68912487192063</v>
+        <v>21.68912487192062</v>
       </c>
       <c r="T34" t="n">
-        <v>5.317625816276837</v>
+        <v>5.317625816276836</v>
       </c>
       <c r="U34" t="n">
-        <v>0.06788458488864056</v>
+        <v>0.06788458488864055</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,34 +33646,34 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>2.774512347207415</v>
+        <v>2.774512347207414</v>
       </c>
       <c r="H35" t="n">
-        <v>28.41447457583795</v>
+        <v>28.41447457583794</v>
       </c>
       <c r="I35" t="n">
         <v>106.964387265714</v>
       </c>
       <c r="J35" t="n">
-        <v>235.4832673287956</v>
+        <v>235.4832673287955</v>
       </c>
       <c r="K35" t="n">
-        <v>352.9283749860855</v>
+        <v>352.9283749860854</v>
       </c>
       <c r="L35" t="n">
         <v>437.8388572319345</v>
       </c>
       <c r="M35" t="n">
-        <v>487.1800911865844</v>
+        <v>487.1800911865843</v>
       </c>
       <c r="N35" t="n">
-        <v>495.0631743930875</v>
+        <v>495.0631743930874</v>
       </c>
       <c r="O35" t="n">
-        <v>467.4741172405437</v>
+        <v>467.4741172405436</v>
       </c>
       <c r="P35" t="n">
-        <v>398.9783436688606</v>
+        <v>398.9783436688605</v>
       </c>
       <c r="Q35" t="n">
         <v>299.6161202344949</v>
@@ -33682,10 +33682,10 @@
         <v>174.2844612302679</v>
       </c>
       <c r="S35" t="n">
-        <v>63.22420011198903</v>
+        <v>63.22420011198902</v>
       </c>
       <c r="T35" t="n">
-        <v>12.14542779990047</v>
+        <v>12.14542779990046</v>
       </c>
       <c r="U35" t="n">
         <v>0.2219609877765931</v>
@@ -33731,7 +33731,7 @@
         <v>14.33709624435844</v>
       </c>
       <c r="I36" t="n">
-        <v>51.11090168856212</v>
+        <v>51.11090168856211</v>
       </c>
       <c r="J36" t="n">
         <v>140.2522207991486</v>
@@ -33743,31 +33743,31 @@
         <v>322.3242277824544</v>
       </c>
       <c r="M36" t="n">
-        <v>376.1371707704755</v>
+        <v>376.1371707704754</v>
       </c>
       <c r="N36" t="n">
-        <v>386.0924024496872</v>
+        <v>386.0924024496871</v>
       </c>
       <c r="O36" t="n">
-        <v>353.1991189680801</v>
+        <v>353.19911896808</v>
       </c>
       <c r="P36" t="n">
-        <v>283.473431556257</v>
+        <v>283.4734315562569</v>
       </c>
       <c r="Q36" t="n">
         <v>189.4944818782053</v>
       </c>
       <c r="R36" t="n">
-        <v>92.16890755455866</v>
+        <v>92.16890755455864</v>
       </c>
       <c r="S36" t="n">
-        <v>27.57384314026247</v>
+        <v>27.57384314026246</v>
       </c>
       <c r="T36" t="n">
-        <v>5.983556516151409</v>
+        <v>5.983556516151408</v>
       </c>
       <c r="U36" t="n">
-        <v>0.09766414335394037</v>
+        <v>0.09766414335394036</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33810,10 +33810,10 @@
         <v>11.06518733684841</v>
       </c>
       <c r="I37" t="n">
-        <v>37.4270344686038</v>
+        <v>37.42703446860379</v>
       </c>
       <c r="J37" t="n">
-        <v>87.98973611315951</v>
+        <v>87.98973611315949</v>
       </c>
       <c r="K37" t="n">
         <v>144.5941658128042</v>
@@ -33831,7 +33831,7 @@
         <v>175.9115876414304</v>
       </c>
       <c r="P37" t="n">
-        <v>150.5227528930788</v>
+        <v>150.5227528930787</v>
       </c>
       <c r="Q37" t="n">
         <v>104.2141519015446</v>
@@ -33840,13 +33840,13 @@
         <v>55.95952614320262</v>
       </c>
       <c r="S37" t="n">
-        <v>21.68912487192063</v>
+        <v>21.68912487192062</v>
       </c>
       <c r="T37" t="n">
-        <v>5.317625816276837</v>
+        <v>5.317625816276836</v>
       </c>
       <c r="U37" t="n">
-        <v>0.06788458488864056</v>
+        <v>0.06788458488864055</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>2.774512347207415</v>
+        <v>2.774512347207414</v>
       </c>
       <c r="H38" t="n">
-        <v>28.41447457583795</v>
+        <v>28.41447457583793</v>
       </c>
       <c r="I38" t="n">
-        <v>106.964387265714</v>
+        <v>106.9643872657139</v>
       </c>
       <c r="J38" t="n">
-        <v>235.4832673287956</v>
+        <v>235.4832673287954</v>
       </c>
       <c r="K38" t="n">
-        <v>352.9283749860855</v>
+        <v>352.9283749860853</v>
       </c>
       <c r="L38" t="n">
-        <v>437.8388572319345</v>
+        <v>437.8388572319343</v>
       </c>
       <c r="M38" t="n">
-        <v>487.1800911865844</v>
+        <v>487.1800911865841</v>
       </c>
       <c r="N38" t="n">
-        <v>495.0631743930875</v>
+        <v>495.0631743930873</v>
       </c>
       <c r="O38" t="n">
-        <v>467.4741172405437</v>
+        <v>467.4741172405435</v>
       </c>
       <c r="P38" t="n">
-        <v>398.9783436688606</v>
+        <v>398.9783436688604</v>
       </c>
       <c r="Q38" t="n">
-        <v>299.6161202344949</v>
+        <v>299.6161202344948</v>
       </c>
       <c r="R38" t="n">
         <v>174.2844612302679</v>
       </c>
       <c r="S38" t="n">
-        <v>63.22420011198903</v>
+        <v>63.224200111989</v>
       </c>
       <c r="T38" t="n">
-        <v>12.14542779990047</v>
+        <v>12.14542779990046</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2219609877765931</v>
+        <v>0.221960987776593</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.484494978979893</v>
+        <v>1.484494978979892</v>
       </c>
       <c r="H39" t="n">
         <v>14.33709624435844</v>
       </c>
       <c r="I39" t="n">
-        <v>51.11090168856212</v>
+        <v>51.11090168856209</v>
       </c>
       <c r="J39" t="n">
-        <v>140.2522207991486</v>
+        <v>140.2522207991485</v>
       </c>
       <c r="K39" t="n">
-        <v>239.7133843908014</v>
+        <v>239.7133843908013</v>
       </c>
       <c r="L39" t="n">
-        <v>322.3242277824544</v>
+        <v>322.3242277824543</v>
       </c>
       <c r="M39" t="n">
-        <v>376.1371707704755</v>
+        <v>376.1371707704753</v>
       </c>
       <c r="N39" t="n">
-        <v>386.0924024496872</v>
+        <v>386.092402449687</v>
       </c>
       <c r="O39" t="n">
-        <v>353.1991189680801</v>
+        <v>353.1991189680799</v>
       </c>
       <c r="P39" t="n">
-        <v>283.473431556257</v>
+        <v>283.4734315562569</v>
       </c>
       <c r="Q39" t="n">
-        <v>189.4944818782053</v>
+        <v>189.4944818782052</v>
       </c>
       <c r="R39" t="n">
-        <v>92.16890755455866</v>
+        <v>92.16890755455861</v>
       </c>
       <c r="S39" t="n">
-        <v>27.57384314026247</v>
+        <v>27.57384314026245</v>
       </c>
       <c r="T39" t="n">
-        <v>5.983556516151409</v>
+        <v>5.983556516151406</v>
       </c>
       <c r="U39" t="n">
-        <v>0.09766414335394037</v>
+        <v>0.09766414335394033</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.244550722958409</v>
+        <v>1.244550722958408</v>
       </c>
       <c r="H40" t="n">
-        <v>11.06518733684841</v>
+        <v>11.0651873368484</v>
       </c>
       <c r="I40" t="n">
-        <v>37.4270344686038</v>
+        <v>37.42703446860378</v>
       </c>
       <c r="J40" t="n">
-        <v>87.98973611315951</v>
+        <v>87.98973611315947</v>
       </c>
       <c r="K40" t="n">
-        <v>144.5941658128042</v>
+        <v>144.5941658128041</v>
       </c>
       <c r="L40" t="n">
-        <v>185.0307502114711</v>
+        <v>185.030750211471</v>
       </c>
       <c r="M40" t="n">
-        <v>195.0889828724713</v>
+        <v>195.0889828724712</v>
       </c>
       <c r="N40" t="n">
-        <v>190.450202905081</v>
+        <v>190.4502029050809</v>
       </c>
       <c r="O40" t="n">
-        <v>175.9115876414304</v>
+        <v>175.9115876414303</v>
       </c>
       <c r="P40" t="n">
-        <v>150.5227528930788</v>
+        <v>150.5227528930787</v>
       </c>
       <c r="Q40" t="n">
-        <v>104.2141519015446</v>
+        <v>104.2141519015445</v>
       </c>
       <c r="R40" t="n">
-        <v>55.95952614320262</v>
+        <v>55.95952614320259</v>
       </c>
       <c r="S40" t="n">
-        <v>21.68912487192063</v>
+        <v>21.68912487192062</v>
       </c>
       <c r="T40" t="n">
-        <v>5.317625816276837</v>
+        <v>5.317625816276834</v>
       </c>
       <c r="U40" t="n">
-        <v>0.06788458488864056</v>
+        <v>0.06788458488864053</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,34 +34120,34 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>2.774512347207415</v>
+        <v>2.774512347207414</v>
       </c>
       <c r="H41" t="n">
-        <v>28.41447457583795</v>
+        <v>28.41447457583794</v>
       </c>
       <c r="I41" t="n">
         <v>106.964387265714</v>
       </c>
       <c r="J41" t="n">
-        <v>235.4832673287956</v>
+        <v>235.4832673287955</v>
       </c>
       <c r="K41" t="n">
-        <v>352.9283749860855</v>
+        <v>352.9283749860854</v>
       </c>
       <c r="L41" t="n">
         <v>437.8388572319345</v>
       </c>
       <c r="M41" t="n">
-        <v>487.1800911865844</v>
+        <v>487.1800911865843</v>
       </c>
       <c r="N41" t="n">
-        <v>495.0631743930875</v>
+        <v>495.0631743930874</v>
       </c>
       <c r="O41" t="n">
-        <v>467.4741172405437</v>
+        <v>467.4741172405436</v>
       </c>
       <c r="P41" t="n">
-        <v>398.9783436688606</v>
+        <v>398.9783436688605</v>
       </c>
       <c r="Q41" t="n">
         <v>299.6161202344949</v>
@@ -34156,10 +34156,10 @@
         <v>174.2844612302679</v>
       </c>
       <c r="S41" t="n">
-        <v>63.22420011198903</v>
+        <v>63.22420011198902</v>
       </c>
       <c r="T41" t="n">
-        <v>12.14542779990047</v>
+        <v>12.14542779990046</v>
       </c>
       <c r="U41" t="n">
         <v>0.2219609877765931</v>
@@ -34205,7 +34205,7 @@
         <v>14.33709624435844</v>
       </c>
       <c r="I42" t="n">
-        <v>51.11090168856212</v>
+        <v>51.11090168856211</v>
       </c>
       <c r="J42" t="n">
         <v>140.2522207991486</v>
@@ -34217,31 +34217,31 @@
         <v>322.3242277824544</v>
       </c>
       <c r="M42" t="n">
-        <v>376.1371707704755</v>
+        <v>376.1371707704754</v>
       </c>
       <c r="N42" t="n">
-        <v>386.0924024496872</v>
+        <v>386.0924024496871</v>
       </c>
       <c r="O42" t="n">
-        <v>353.1991189680801</v>
+        <v>353.19911896808</v>
       </c>
       <c r="P42" t="n">
-        <v>283.473431556257</v>
+        <v>283.4734315562569</v>
       </c>
       <c r="Q42" t="n">
         <v>189.4944818782053</v>
       </c>
       <c r="R42" t="n">
-        <v>92.16890755455866</v>
+        <v>92.16890755455864</v>
       </c>
       <c r="S42" t="n">
-        <v>27.57384314026247</v>
+        <v>27.57384314026246</v>
       </c>
       <c r="T42" t="n">
-        <v>5.983556516151409</v>
+        <v>5.983556516151408</v>
       </c>
       <c r="U42" t="n">
-        <v>0.09766414335394037</v>
+        <v>0.09766414335394036</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34284,10 +34284,10 @@
         <v>11.06518733684841</v>
       </c>
       <c r="I43" t="n">
-        <v>37.4270344686038</v>
+        <v>37.42703446860379</v>
       </c>
       <c r="J43" t="n">
-        <v>87.98973611315951</v>
+        <v>87.98973611315949</v>
       </c>
       <c r="K43" t="n">
         <v>144.5941658128042</v>
@@ -34305,7 +34305,7 @@
         <v>175.9115876414304</v>
       </c>
       <c r="P43" t="n">
-        <v>150.5227528930788</v>
+        <v>150.5227528930787</v>
       </c>
       <c r="Q43" t="n">
         <v>104.2141519015446</v>
@@ -34314,13 +34314,13 @@
         <v>55.95952614320262</v>
       </c>
       <c r="S43" t="n">
-        <v>21.68912487192063</v>
+        <v>21.68912487192062</v>
       </c>
       <c r="T43" t="n">
-        <v>5.317625816276837</v>
+        <v>5.317625816276836</v>
       </c>
       <c r="U43" t="n">
-        <v>0.06788458488864056</v>
+        <v>0.06788458488864055</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,34 +34357,34 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>2.774512347207415</v>
+        <v>2.774512347207414</v>
       </c>
       <c r="H44" t="n">
-        <v>28.41447457583795</v>
+        <v>28.41447457583794</v>
       </c>
       <c r="I44" t="n">
         <v>106.964387265714</v>
       </c>
       <c r="J44" t="n">
-        <v>235.4832673287956</v>
+        <v>235.4832673287955</v>
       </c>
       <c r="K44" t="n">
-        <v>352.9283749860855</v>
+        <v>352.9283749860854</v>
       </c>
       <c r="L44" t="n">
         <v>437.8388572319345</v>
       </c>
       <c r="M44" t="n">
-        <v>487.1800911865844</v>
+        <v>487.1800911865843</v>
       </c>
       <c r="N44" t="n">
-        <v>495.0631743930875</v>
+        <v>495.0631743930874</v>
       </c>
       <c r="O44" t="n">
-        <v>467.4741172405437</v>
+        <v>467.4741172405436</v>
       </c>
       <c r="P44" t="n">
-        <v>398.9783436688606</v>
+        <v>398.9783436688605</v>
       </c>
       <c r="Q44" t="n">
         <v>299.6161202344949</v>
@@ -34393,10 +34393,10 @@
         <v>174.2844612302679</v>
       </c>
       <c r="S44" t="n">
-        <v>63.22420011198903</v>
+        <v>63.22420011198902</v>
       </c>
       <c r="T44" t="n">
-        <v>12.14542779990047</v>
+        <v>12.14542779990046</v>
       </c>
       <c r="U44" t="n">
         <v>0.2219609877765931</v>
@@ -34442,7 +34442,7 @@
         <v>14.33709624435844</v>
       </c>
       <c r="I45" t="n">
-        <v>51.11090168856212</v>
+        <v>51.11090168856211</v>
       </c>
       <c r="J45" t="n">
         <v>140.2522207991486</v>
@@ -34454,31 +34454,31 @@
         <v>322.3242277824544</v>
       </c>
       <c r="M45" t="n">
-        <v>376.1371707704755</v>
+        <v>376.1371707704754</v>
       </c>
       <c r="N45" t="n">
-        <v>386.0924024496872</v>
+        <v>386.0924024496871</v>
       </c>
       <c r="O45" t="n">
-        <v>353.1991189680801</v>
+        <v>353.19911896808</v>
       </c>
       <c r="P45" t="n">
-        <v>283.473431556257</v>
+        <v>283.4734315562569</v>
       </c>
       <c r="Q45" t="n">
         <v>189.4944818782053</v>
       </c>
       <c r="R45" t="n">
-        <v>92.16890755455866</v>
+        <v>92.16890755455864</v>
       </c>
       <c r="S45" t="n">
-        <v>27.57384314026247</v>
+        <v>27.57384314026246</v>
       </c>
       <c r="T45" t="n">
-        <v>5.983556516151409</v>
+        <v>5.983556516151408</v>
       </c>
       <c r="U45" t="n">
-        <v>0.09766414335394037</v>
+        <v>0.09766414335394036</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34521,10 +34521,10 @@
         <v>11.06518733684841</v>
       </c>
       <c r="I46" t="n">
-        <v>37.4270344686038</v>
+        <v>37.42703446860379</v>
       </c>
       <c r="J46" t="n">
-        <v>87.98973611315951</v>
+        <v>87.98973611315949</v>
       </c>
       <c r="K46" t="n">
         <v>144.5941658128042</v>
@@ -34542,7 +34542,7 @@
         <v>175.9115876414304</v>
       </c>
       <c r="P46" t="n">
-        <v>150.5227528930788</v>
+        <v>150.5227528930787</v>
       </c>
       <c r="Q46" t="n">
         <v>104.2141519015446</v>
@@ -34551,13 +34551,13 @@
         <v>55.95952614320262</v>
       </c>
       <c r="S46" t="n">
-        <v>21.68912487192063</v>
+        <v>21.68912487192062</v>
       </c>
       <c r="T46" t="n">
-        <v>5.317625816276837</v>
+        <v>5.317625816276836</v>
       </c>
       <c r="U46" t="n">
-        <v>0.06788458488864056</v>
+        <v>0.06788458488864055</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35407,28 +35407,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>54.43736280210928</v>
+        <v>54.43736280210922</v>
       </c>
       <c r="K11" t="n">
-        <v>132.8385239411049</v>
+        <v>253.0220723476907</v>
       </c>
       <c r="L11" t="n">
-        <v>202.0724422619473</v>
+        <v>202.0724422619472</v>
       </c>
       <c r="M11" t="n">
-        <v>256.8338579593117</v>
+        <v>256.8338579593116</v>
       </c>
       <c r="N11" t="n">
-        <v>265.6501107964966</v>
+        <v>265.6501107964965</v>
       </c>
       <c r="O11" t="n">
-        <v>237.375905818857</v>
+        <v>237.3759058188569</v>
       </c>
       <c r="P11" t="n">
-        <v>362.8976227715935</v>
+        <v>455.0290650249123</v>
       </c>
       <c r="Q11" t="n">
-        <v>289.6254210199501</v>
+        <v>77.31043036004539</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35489,22 +35489,22 @@
         <v>139.5056294728907</v>
       </c>
       <c r="K12" t="n">
-        <v>101.8719454164424</v>
+        <v>366.337182429021</v>
       </c>
       <c r="L12" t="n">
-        <v>183.7698480025803</v>
+        <v>183.7698480025802</v>
       </c>
       <c r="M12" t="n">
-        <v>234.0031368484572</v>
+        <v>234.0031368484571</v>
       </c>
       <c r="N12" t="n">
-        <v>455.0290650249124</v>
+        <v>254.7506903663538</v>
       </c>
       <c r="O12" t="n">
-        <v>278.4626029361277</v>
+        <v>210.6028745236356</v>
       </c>
       <c r="P12" t="n">
-        <v>149.4990241419267</v>
+        <v>153.1718902003983</v>
       </c>
       <c r="Q12" t="n">
         <v>259.5899955280329</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>74.19928980076925</v>
+        <v>74.19928980076932</v>
       </c>
       <c r="K13" t="n">
         <v>201.8934077912039</v>
@@ -35574,19 +35574,19 @@
         <v>292.1895092760698</v>
       </c>
       <c r="M13" t="n">
-        <v>314.2415936385944</v>
+        <v>314.2415936385945</v>
       </c>
       <c r="N13" t="n">
-        <v>314.1511090885921</v>
+        <v>314.1511090885922</v>
       </c>
       <c r="O13" t="n">
-        <v>280.0654493597526</v>
+        <v>280.0654493597527</v>
       </c>
       <c r="P13" t="n">
         <v>227.3700459622548</v>
       </c>
       <c r="Q13" t="n">
-        <v>97.62084245413273</v>
+        <v>97.6208424541328</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,28 +35647,28 @@
         <v>223.533977974183</v>
       </c>
       <c r="K14" t="n">
-        <v>456.9839365122697</v>
+        <v>132.8385239411049</v>
       </c>
       <c r="L14" t="n">
-        <v>202.0724422619473</v>
+        <v>202.0724422619472</v>
       </c>
       <c r="M14" t="n">
-        <v>256.8338579593117</v>
+        <v>256.8338579593116</v>
       </c>
       <c r="N14" t="n">
-        <v>265.6501107964966</v>
+        <v>265.6501107964965</v>
       </c>
       <c r="O14" t="n">
-        <v>268.5449335474512</v>
+        <v>592.6903461186134</v>
       </c>
       <c r="P14" t="n">
-        <v>489.5440560850737</v>
+        <v>489.5440560850736</v>
       </c>
       <c r="Q14" t="n">
         <v>289.6254210199501</v>
       </c>
       <c r="R14" t="n">
-        <v>24.41534328911825</v>
+        <v>24.41534328911823</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,25 +35726,25 @@
         <v>139.5056294728907</v>
       </c>
       <c r="K15" t="n">
-        <v>366.337182429021</v>
+        <v>101.8719454164424</v>
       </c>
       <c r="L15" t="n">
-        <v>554.6101933060395</v>
+        <v>554.6101933060394</v>
       </c>
       <c r="M15" t="n">
-        <v>234.0031368484572</v>
+        <v>234.0031368484571</v>
       </c>
       <c r="N15" t="n">
-        <v>254.7506903663539</v>
+        <v>625.6204180233011</v>
       </c>
       <c r="O15" t="n">
         <v>210.6028745236356</v>
       </c>
       <c r="P15" t="n">
-        <v>467.9617927818639</v>
+        <v>351.399886326999</v>
       </c>
       <c r="Q15" t="n">
-        <v>249.4325797175397</v>
+        <v>259.5899955280329</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>74.19928980076925</v>
+        <v>74.19928980076932</v>
       </c>
       <c r="K16" t="n">
         <v>201.8934077912039</v>
       </c>
       <c r="L16" t="n">
-        <v>292.1895092760706</v>
+        <v>292.1895092760698</v>
       </c>
       <c r="M16" t="n">
-        <v>314.2415936385944</v>
+        <v>314.2415936385932</v>
       </c>
       <c r="N16" t="n">
-        <v>314.1511090885921</v>
+        <v>314.1511090885922</v>
       </c>
       <c r="O16" t="n">
-        <v>280.0654493597526</v>
+        <v>280.0654493597527</v>
       </c>
       <c r="P16" t="n">
         <v>227.3700459622548</v>
       </c>
       <c r="Q16" t="n">
-        <v>97.62084245413273</v>
+        <v>97.6208424541328</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,25 +35884,25 @@
         <v>223.533977974183</v>
       </c>
       <c r="K17" t="n">
-        <v>132.8385239411049</v>
+        <v>456.9839365122696</v>
       </c>
       <c r="L17" t="n">
-        <v>619.7336568123977</v>
+        <v>202.0724422619472</v>
       </c>
       <c r="M17" t="n">
-        <v>256.8338579593117</v>
+        <v>256.8338579593116</v>
       </c>
       <c r="N17" t="n">
-        <v>265.6501107964966</v>
+        <v>265.6501107964965</v>
       </c>
       <c r="O17" t="n">
-        <v>618.1760870816023</v>
+        <v>292.9602768365669</v>
       </c>
       <c r="P17" t="n">
-        <v>167.745347913591</v>
+        <v>489.5440560850736</v>
       </c>
       <c r="Q17" t="n">
-        <v>192.6925169671146</v>
+        <v>289.6254210199501</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35966,19 +35966,19 @@
         <v>366.337182429021</v>
       </c>
       <c r="L18" t="n">
-        <v>544.4527774955461</v>
+        <v>544.4527774955435</v>
       </c>
       <c r="M18" t="n">
-        <v>234.0031368484572</v>
+        <v>234.0031368484571</v>
       </c>
       <c r="N18" t="n">
-        <v>254.7506903663539</v>
+        <v>254.7506903663538</v>
       </c>
       <c r="O18" t="n">
         <v>210.6028745236356</v>
       </c>
       <c r="P18" t="n">
-        <v>467.9617927818639</v>
+        <v>467.9617927818638</v>
       </c>
       <c r="Q18" t="n">
         <v>259.5899955280329</v>
@@ -36045,7 +36045,7 @@
         <v>122.3246739869213</v>
       </c>
       <c r="L19" t="n">
-        <v>212.6207754717873</v>
+        <v>212.6207754717872</v>
       </c>
       <c r="M19" t="n">
         <v>234.6728598343119</v>
@@ -36057,10 +36057,10 @@
         <v>200.4967155554701</v>
       </c>
       <c r="P19" t="n">
-        <v>147.8013121579723</v>
+        <v>147.8013121579722</v>
       </c>
       <c r="Q19" t="n">
-        <v>18.05210864985021</v>
+        <v>18.0521086498502</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,28 +36121,28 @@
         <v>223.533977974183</v>
       </c>
       <c r="K20" t="n">
-        <v>456.9839365122697</v>
+        <v>456.9839365122696</v>
       </c>
       <c r="L20" t="n">
-        <v>202.0724422619473</v>
+        <v>202.0724422619472</v>
       </c>
       <c r="M20" t="n">
-        <v>256.8338579593117</v>
+        <v>256.8338579593116</v>
       </c>
       <c r="N20" t="n">
-        <v>265.6501107964966</v>
+        <v>265.6501107964965</v>
       </c>
       <c r="O20" t="n">
-        <v>268.5449335474512</v>
+        <v>292.9602768365669</v>
       </c>
       <c r="P20" t="n">
-        <v>489.5440560850737</v>
+        <v>489.5440560850736</v>
       </c>
       <c r="Q20" t="n">
         <v>289.6254210199501</v>
       </c>
       <c r="R20" t="n">
-        <v>24.41534328911825</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,25 +36200,25 @@
         <v>139.5056294728907</v>
       </c>
       <c r="K21" t="n">
-        <v>366.337182429021</v>
+        <v>303.7728076015149</v>
       </c>
       <c r="L21" t="n">
-        <v>554.6101933060395</v>
+        <v>554.6101933060394</v>
       </c>
       <c r="M21" t="n">
-        <v>234.0031368484572</v>
+        <v>234.0031368484571</v>
       </c>
       <c r="N21" t="n">
-        <v>254.7506903663539</v>
+        <v>625.6204180233011</v>
       </c>
       <c r="O21" t="n">
         <v>210.6028745236356</v>
       </c>
       <c r="P21" t="n">
-        <v>467.9617927818639</v>
+        <v>149.4990241419267</v>
       </c>
       <c r="Q21" t="n">
-        <v>249.4325797175397</v>
+        <v>259.5899955280329</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36282,7 +36282,7 @@
         <v>122.3246739869213</v>
       </c>
       <c r="L22" t="n">
-        <v>212.6207754717873</v>
+        <v>212.6207754717872</v>
       </c>
       <c r="M22" t="n">
         <v>234.6728598343119</v>
@@ -36294,10 +36294,10 @@
         <v>200.4967155554701</v>
       </c>
       <c r="P22" t="n">
-        <v>147.8013121579723</v>
+        <v>147.8013121579722</v>
       </c>
       <c r="Q22" t="n">
-        <v>18.05210864985021</v>
+        <v>18.0521086498502</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,28 +36355,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>54.43736280210928</v>
+        <v>223.533977974183</v>
       </c>
       <c r="K23" t="n">
-        <v>456.9839365122697</v>
+        <v>456.9839365122696</v>
       </c>
       <c r="L23" t="n">
-        <v>619.7336568123977</v>
+        <v>202.0724422619472</v>
       </c>
       <c r="M23" t="n">
-        <v>256.8338579593117</v>
+        <v>256.8338579593116</v>
       </c>
       <c r="N23" t="n">
-        <v>265.6501107964966</v>
+        <v>265.6501107964965</v>
       </c>
       <c r="O23" t="n">
-        <v>592.2083117116656</v>
+        <v>306.659212258655</v>
       </c>
       <c r="P23" t="n">
-        <v>167.745347913591</v>
+        <v>489.5440560850736</v>
       </c>
       <c r="Q23" t="n">
-        <v>77.31043036004544</v>
+        <v>289.6254210199501</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36440,19 +36440,19 @@
         <v>366.337182429021</v>
       </c>
       <c r="L24" t="n">
-        <v>554.6101933060395</v>
+        <v>554.6101933060394</v>
       </c>
       <c r="M24" t="n">
-        <v>234.0031368484572</v>
+        <v>237.5446564600491</v>
       </c>
       <c r="N24" t="n">
-        <v>254.7506903663539</v>
+        <v>254.7506903663538</v>
       </c>
       <c r="O24" t="n">
-        <v>214.144394135228</v>
+        <v>210.6028745236356</v>
       </c>
       <c r="P24" t="n">
-        <v>467.9617927818639</v>
+        <v>467.9617927818638</v>
       </c>
       <c r="Q24" t="n">
         <v>259.5899955280329</v>
@@ -36519,7 +36519,7 @@
         <v>122.3246739869213</v>
       </c>
       <c r="L25" t="n">
-        <v>212.6207754717873</v>
+        <v>212.6207754717872</v>
       </c>
       <c r="M25" t="n">
         <v>234.6728598343119</v>
@@ -36531,10 +36531,10 @@
         <v>200.4967155554701</v>
       </c>
       <c r="P25" t="n">
-        <v>147.8013121579723</v>
+        <v>147.8013121579722</v>
       </c>
       <c r="Q25" t="n">
-        <v>18.05210864985021</v>
+        <v>18.0521086498502</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>223.5339779741831</v>
+        <v>223.533977974183</v>
       </c>
       <c r="K26" t="n">
-        <v>456.9839365122697</v>
+        <v>456.9839365122696</v>
       </c>
       <c r="L26" t="n">
-        <v>619.7336568123978</v>
+        <v>619.7336568123976</v>
       </c>
       <c r="M26" t="n">
-        <v>256.8338579593117</v>
+        <v>450.0204715301478</v>
       </c>
       <c r="N26" t="n">
-        <v>659.4533148302927</v>
+        <v>702.9970352084806</v>
       </c>
       <c r="O26" t="n">
-        <v>618.1760870816024</v>
+        <v>618.1760870816023</v>
       </c>
       <c r="P26" t="n">
-        <v>489.5440560850737</v>
+        <v>489.5440560850736</v>
       </c>
       <c r="Q26" t="n">
-        <v>289.6254210199502</v>
+        <v>77.31043036004539</v>
       </c>
       <c r="R26" t="n">
-        <v>24.41534328911828</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,25 +36671,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>139.5056294728908</v>
+        <v>139.5056294728907</v>
       </c>
       <c r="K27" t="n">
-        <v>366.3371824290211</v>
+        <v>366.337182429021</v>
       </c>
       <c r="L27" t="n">
-        <v>554.6101933060395</v>
+        <v>554.6101933060394</v>
       </c>
       <c r="M27" t="n">
-        <v>234.0031368484572</v>
+        <v>327.5196523664778</v>
       </c>
       <c r="N27" t="n">
-        <v>254.750690366354</v>
+        <v>254.7506903663538</v>
       </c>
       <c r="O27" t="n">
-        <v>304.1193900416553</v>
+        <v>210.6028745236356</v>
       </c>
       <c r="P27" t="n">
-        <v>467.9617927818639</v>
+        <v>467.9617927818638</v>
       </c>
       <c r="Q27" t="n">
         <v>259.5899955280329</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>74.19928980076929</v>
+        <v>74.19928980076926</v>
       </c>
       <c r="K28" t="n">
         <v>201.8934077912039</v>
@@ -36759,19 +36759,19 @@
         <v>292.1895092760698</v>
       </c>
       <c r="M28" t="n">
-        <v>314.2415936385945</v>
+        <v>314.2415936385944</v>
       </c>
       <c r="N28" t="n">
-        <v>314.1511090885922</v>
+        <v>314.1511090885928</v>
       </c>
       <c r="O28" t="n">
-        <v>280.0654493597527</v>
+        <v>280.0654493597526</v>
       </c>
       <c r="P28" t="n">
         <v>227.3700459622548</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.62084245413277</v>
+        <v>97.62084245413274</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>54.43736280210928</v>
+        <v>223.533977974183</v>
       </c>
       <c r="K29" t="n">
-        <v>456.9839365122697</v>
+        <v>456.9839365122696</v>
       </c>
       <c r="L29" t="n">
-        <v>619.7336568123977</v>
+        <v>202.0724422619472</v>
       </c>
       <c r="M29" t="n">
-        <v>706.3473914521442</v>
+        <v>706.3473914521441</v>
       </c>
       <c r="N29" t="n">
-        <v>702.9970352084807</v>
+        <v>702.9970352084806</v>
       </c>
       <c r="O29" t="n">
-        <v>618.1760870816023</v>
+        <v>542.7800477610338</v>
       </c>
       <c r="P29" t="n">
-        <v>402.3137513351501</v>
+        <v>489.5440560850736</v>
       </c>
       <c r="Q29" t="n">
-        <v>77.31043036004544</v>
+        <v>289.6254210199501</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>24.41534328911823</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>139.5056294728907</v>
+        <v>49.23711345003118</v>
       </c>
       <c r="K30" t="n">
         <v>366.337182429021</v>
       </c>
       <c r="L30" t="n">
-        <v>554.6101933060395</v>
+        <v>554.6101933060394</v>
       </c>
       <c r="M30" t="n">
-        <v>234.0031368484572</v>
+        <v>234.0031368484571</v>
       </c>
       <c r="N30" t="n">
-        <v>254.7506903663539</v>
+        <v>254.7506903663538</v>
       </c>
       <c r="O30" t="n">
-        <v>304.119390041656</v>
+        <v>604.4651938003651</v>
       </c>
       <c r="P30" t="n">
-        <v>467.9617927818639</v>
+        <v>467.9617927818638</v>
       </c>
       <c r="Q30" t="n">
-        <v>259.5899955280329</v>
+        <v>49.51270779218376</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>74.19928980076931</v>
+        <v>74.19928980076929</v>
       </c>
       <c r="K31" t="n">
         <v>201.8934077912039</v>
@@ -36996,19 +36996,19 @@
         <v>292.1895092760698</v>
       </c>
       <c r="M31" t="n">
-        <v>314.2415936385945</v>
+        <v>314.2415936385944</v>
       </c>
       <c r="N31" t="n">
-        <v>314.1511090885922</v>
+        <v>314.1511090885921</v>
       </c>
       <c r="O31" t="n">
-        <v>280.0654493597527</v>
+        <v>280.0654493597526</v>
       </c>
       <c r="P31" t="n">
         <v>227.3700459622548</v>
       </c>
       <c r="Q31" t="n">
-        <v>97.62084245413278</v>
+        <v>97.62084245413277</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,28 +37069,28 @@
         <v>223.533977974183</v>
       </c>
       <c r="K32" t="n">
-        <v>456.9839365122697</v>
+        <v>456.9839365122696</v>
       </c>
       <c r="L32" t="n">
-        <v>600.6052797233286</v>
+        <v>619.7336568123976</v>
       </c>
       <c r="M32" t="n">
-        <v>256.8338579593117</v>
+        <v>256.8338579593116</v>
       </c>
       <c r="N32" t="n">
-        <v>702.9970352084807</v>
+        <v>659.4533148302938</v>
       </c>
       <c r="O32" t="n">
         <v>618.1760870816023</v>
       </c>
       <c r="P32" t="n">
-        <v>489.5440560850737</v>
+        <v>489.5440560850736</v>
       </c>
       <c r="Q32" t="n">
         <v>289.6254210199501</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>24.41534328911823</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37151,22 +37151,22 @@
         <v>366.337182429021</v>
       </c>
       <c r="L33" t="n">
-        <v>554.6101933060395</v>
+        <v>554.6101933060394</v>
       </c>
       <c r="M33" t="n">
-        <v>234.0031368484572</v>
+        <v>234.0031368484571</v>
       </c>
       <c r="N33" t="n">
-        <v>254.7506903663539</v>
+        <v>254.7506903663538</v>
       </c>
       <c r="O33" t="n">
-        <v>304.119390041656</v>
+        <v>604.4651938003651</v>
       </c>
       <c r="P33" t="n">
-        <v>467.9617927818639</v>
+        <v>377.6932767590042</v>
       </c>
       <c r="Q33" t="n">
-        <v>259.5899955280329</v>
+        <v>49.51270779218376</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>74.19928980076932</v>
+        <v>74.19928980076929</v>
       </c>
       <c r="K34" t="n">
         <v>201.8934077912039</v>
@@ -37233,10 +37233,10 @@
         <v>292.1895092760698</v>
       </c>
       <c r="M34" t="n">
-        <v>314.2415936385945</v>
+        <v>314.2415936385944</v>
       </c>
       <c r="N34" t="n">
-        <v>314.1511090885922</v>
+        <v>314.1511090885921</v>
       </c>
       <c r="O34" t="n">
         <v>280.0654493597527</v>
@@ -37245,7 +37245,7 @@
         <v>227.3700459622548</v>
       </c>
       <c r="Q34" t="n">
-        <v>97.6208424541328</v>
+        <v>97.62084245413277</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,22 +37306,22 @@
         <v>223.533977974183</v>
       </c>
       <c r="K35" t="n">
-        <v>132.8385239411049</v>
+        <v>456.9839365122696</v>
       </c>
       <c r="L35" t="n">
-        <v>619.7336568123977</v>
+        <v>202.0724422619472</v>
       </c>
       <c r="M35" t="n">
-        <v>409.5636884539161</v>
+        <v>256.8338579593116</v>
       </c>
       <c r="N35" t="n">
-        <v>265.6501107964966</v>
+        <v>265.6501107964965</v>
       </c>
       <c r="O35" t="n">
-        <v>237.375905818857</v>
+        <v>483.6215382927473</v>
       </c>
       <c r="P35" t="n">
-        <v>489.5440560850737</v>
+        <v>489.5440560850736</v>
       </c>
       <c r="Q35" t="n">
         <v>289.6254210199501</v>
@@ -37388,19 +37388,19 @@
         <v>366.337182429021</v>
       </c>
       <c r="L36" t="n">
-        <v>554.6101933060395</v>
+        <v>554.6101933060394</v>
       </c>
       <c r="M36" t="n">
-        <v>234.0031368484572</v>
+        <v>252.1201017296851</v>
       </c>
       <c r="N36" t="n">
-        <v>254.7506903663539</v>
+        <v>254.7506903663538</v>
       </c>
       <c r="O36" t="n">
-        <v>304.1193900416555</v>
+        <v>604.4651938003651</v>
       </c>
       <c r="P36" t="n">
-        <v>467.9617927818639</v>
+        <v>149.4990241419267</v>
       </c>
       <c r="Q36" t="n">
         <v>259.5899955280329</v>
@@ -37467,7 +37467,7 @@
         <v>122.3246739869213</v>
       </c>
       <c r="L37" t="n">
-        <v>212.6207754717873</v>
+        <v>212.6207754717872</v>
       </c>
       <c r="M37" t="n">
         <v>234.6728598343119</v>
@@ -37479,10 +37479,10 @@
         <v>200.4967155554701</v>
       </c>
       <c r="P37" t="n">
-        <v>147.8013121579723</v>
+        <v>147.8013121579722</v>
       </c>
       <c r="Q37" t="n">
-        <v>18.05210864985021</v>
+        <v>18.0521086498502</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,28 +37540,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>223.533977974183</v>
+        <v>85.31724774325031</v>
       </c>
       <c r="K38" t="n">
-        <v>132.8385239411049</v>
+        <v>132.8385239411048</v>
       </c>
       <c r="L38" t="n">
-        <v>619.7336568123977</v>
+        <v>619.7336568123975</v>
       </c>
       <c r="M38" t="n">
-        <v>409.563688453917</v>
+        <v>673.7721141563674</v>
       </c>
       <c r="N38" t="n">
-        <v>265.6501107964966</v>
+        <v>673.7721141563674</v>
       </c>
       <c r="O38" t="n">
-        <v>237.375905818857</v>
+        <v>237.3759058188568</v>
       </c>
       <c r="P38" t="n">
-        <v>489.5440560850737</v>
+        <v>167.7453479135909</v>
       </c>
       <c r="Q38" t="n">
-        <v>289.6254210199501</v>
+        <v>77.31043036004533</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37622,25 +37622,25 @@
         <v>139.5056294728907</v>
       </c>
       <c r="K39" t="n">
-        <v>366.337182429021</v>
+        <v>366.3371824290209</v>
       </c>
       <c r="L39" t="n">
-        <v>554.6101933060395</v>
+        <v>183.7698480025801</v>
       </c>
       <c r="M39" t="n">
-        <v>327.5196523664771</v>
+        <v>673.7721141563674</v>
       </c>
       <c r="N39" t="n">
-        <v>254.7506903663539</v>
+        <v>254.7506903663537</v>
       </c>
       <c r="O39" t="n">
-        <v>210.6028745236356</v>
+        <v>235.1907580372057</v>
       </c>
       <c r="P39" t="n">
-        <v>467.9617927818639</v>
+        <v>467.9617927818638</v>
       </c>
       <c r="Q39" t="n">
-        <v>259.5899955280329</v>
+        <v>259.5899955280328</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37704,22 +37704,22 @@
         <v>122.3246739869213</v>
       </c>
       <c r="L40" t="n">
-        <v>212.6207754717873</v>
+        <v>212.6207754717872</v>
       </c>
       <c r="M40" t="n">
-        <v>234.6728598343119</v>
+        <v>234.6728598343118</v>
       </c>
       <c r="N40" t="n">
-        <v>234.5823752843096</v>
+        <v>234.5823752843095</v>
       </c>
       <c r="O40" t="n">
-        <v>200.4967155554701</v>
+        <v>200.49671555547</v>
       </c>
       <c r="P40" t="n">
-        <v>147.8013121579723</v>
+        <v>147.8013121579722</v>
       </c>
       <c r="Q40" t="n">
-        <v>18.05210864985021</v>
+        <v>18.05210864985015</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>223.533977974183</v>
+        <v>54.43736280210922</v>
       </c>
       <c r="K41" t="n">
-        <v>456.9839365122697</v>
+        <v>139.303065593127</v>
       </c>
       <c r="L41" t="n">
-        <v>219.2794659095686</v>
+        <v>619.7336568123976</v>
       </c>
       <c r="M41" t="n">
         <v>673.7721141563674</v>
       </c>
       <c r="N41" t="n">
-        <v>265.6501107964966</v>
+        <v>673.7721141563674</v>
       </c>
       <c r="O41" t="n">
-        <v>237.375905818857</v>
+        <v>237.3759058188569</v>
       </c>
       <c r="P41" t="n">
-        <v>489.5440560850737</v>
+        <v>167.745347913591</v>
       </c>
       <c r="Q41" t="n">
-        <v>77.31043036004544</v>
+        <v>77.31043036004539</v>
       </c>
       <c r="R41" t="n">
-        <v>24.41534328911825</v>
+        <v>24.41534328911823</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>139.5056294728907</v>
+        <v>13.41459413248188</v>
       </c>
       <c r="K42" t="n">
-        <v>366.337182429021</v>
+        <v>101.8719454164424</v>
       </c>
       <c r="L42" t="n">
-        <v>183.7698480025803</v>
+        <v>415.1289723282567</v>
       </c>
       <c r="M42" t="n">
-        <v>234.0031368484572</v>
+        <v>673.7721141563674</v>
       </c>
       <c r="N42" t="n">
-        <v>673.7721141563674</v>
+        <v>254.7506903663538</v>
       </c>
       <c r="O42" t="n">
-        <v>255.9383115551013</v>
+        <v>604.4651938003651</v>
       </c>
       <c r="P42" t="n">
-        <v>467.9617927818639</v>
+        <v>467.9617927818638</v>
       </c>
       <c r="Q42" t="n">
-        <v>259.5899955280329</v>
+        <v>49.51270779218376</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37941,7 +37941,7 @@
         <v>122.3246739869213</v>
       </c>
       <c r="L43" t="n">
-        <v>212.6207754717873</v>
+        <v>212.6207754717872</v>
       </c>
       <c r="M43" t="n">
         <v>234.6728598343119</v>
@@ -37953,10 +37953,10 @@
         <v>200.4967155554701</v>
       </c>
       <c r="P43" t="n">
-        <v>147.8013121579723</v>
+        <v>147.8013121579722</v>
       </c>
       <c r="Q43" t="n">
-        <v>18.05210864985021</v>
+        <v>18.0521086498502</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>223.533977974183</v>
+        <v>54.43736280210922</v>
       </c>
       <c r="K44" t="n">
-        <v>456.9839365122697</v>
+        <v>456.9839365122696</v>
       </c>
       <c r="L44" t="n">
-        <v>423.9027314467203</v>
+        <v>202.0724422619472</v>
       </c>
       <c r="M44" t="n">
-        <v>256.8338579593117</v>
+        <v>673.7721141563674</v>
       </c>
       <c r="N44" t="n">
-        <v>265.6501107964966</v>
+        <v>265.6501107964965</v>
       </c>
       <c r="O44" t="n">
-        <v>237.375905818857</v>
+        <v>618.1760870816023</v>
       </c>
       <c r="P44" t="n">
-        <v>489.5440560850737</v>
+        <v>319.4628569311424</v>
       </c>
       <c r="Q44" t="n">
-        <v>289.6254210199501</v>
+        <v>77.31043036004539</v>
       </c>
       <c r="R44" t="n">
-        <v>24.41534328911825</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>139.5056294728907</v>
+        <v>49.23711345003083</v>
       </c>
       <c r="K45" t="n">
         <v>366.337182429021</v>
       </c>
       <c r="L45" t="n">
-        <v>183.7698480025803</v>
+        <v>554.6101933060394</v>
       </c>
       <c r="M45" t="n">
-        <v>622.9604470331437</v>
+        <v>234.0031368484571</v>
       </c>
       <c r="N45" t="n">
-        <v>254.7506903663539</v>
+        <v>254.7506903663538</v>
       </c>
       <c r="O45" t="n">
         <v>604.4651938003651</v>
       </c>
       <c r="P45" t="n">
-        <v>149.4990241419267</v>
+        <v>467.9617927818638</v>
       </c>
       <c r="Q45" t="n">
-        <v>259.5899955280329</v>
+        <v>49.51270779218376</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38178,7 +38178,7 @@
         <v>122.3246739869213</v>
       </c>
       <c r="L46" t="n">
-        <v>212.6207754717873</v>
+        <v>212.6207754717872</v>
       </c>
       <c r="M46" t="n">
         <v>234.6728598343119</v>
@@ -38190,10 +38190,10 @@
         <v>200.4967155554701</v>
       </c>
       <c r="P46" t="n">
-        <v>147.8013121579723</v>
+        <v>147.8013121579722</v>
       </c>
       <c r="Q46" t="n">
-        <v>18.05210864985021</v>
+        <v>18.0521086498502</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
